--- a/pages/BA_ssoservi_cservico_ssala.xlsx
+++ b/pages/BA_ssoservi_cservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2077BF-C015-47D8-AAB3-EAA8585FA5B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE38071-4025-45AE-8286-9DB8DC2CE861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{66DD5035-C496-4A33-BA22-CD402935C2B8}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$107</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$108</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="208">
   <si>
     <t>Complemento</t>
   </si>
@@ -653,10 +653,16 @@
     <t>S020036</t>
   </si>
   <si>
-    <t>FITILHO COMUM RECICLADO (BARBANTE)</t>
-  </si>
-  <si>
-    <t>S050008</t>
+    <t>CURATIVO ADESIVO EM DISCO - UNICA</t>
+  </si>
+  <si>
+    <t>S150189</t>
+  </si>
+  <si>
+    <t>MOP PO REFIL - UNICA</t>
+  </si>
+  <si>
+    <t>S010076</t>
   </si>
 </sst>
 </file>
@@ -800,9 +806,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -840,7 +846,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -946,7 +952,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1088,7 +1094,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1096,10 +1102,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A369FB58-D533-46A6-B5FA-793763E80E34}">
-  <dimension ref="A1:D108"/>
+  <dimension ref="A1:D109"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:XFD43"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47:XFD47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1476,55 +1482,55 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>31</v>
+        <v>204</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>182</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" s="4">
-        <v>107</v>
+        <v>205</v>
+      </c>
+      <c r="D27" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>182</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D28" s="4">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>194</v>
+        <v>33</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>182</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>152</v>
+        <v>34</v>
       </c>
       <c r="D29" s="4">
-        <v>1</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>35</v>
+        <v>194</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>182</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>36</v>
+        <v>152</v>
       </c>
       <c r="D30" s="4">
         <v>1</v>
@@ -1532,83 +1538,83 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>178</v>
+        <v>35</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>182</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>180</v>
+        <v>36</v>
+      </c>
+      <c r="D31" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>37</v>
+        <v>178</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>182</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D32" s="4">
-        <v>1</v>
+        <v>179</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>182</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D33" s="5">
+        <v>38</v>
+      </c>
+      <c r="D33" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>155</v>
+        <v>39</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>182</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="D34" s="4">
-        <v>13</v>
+        <v>40</v>
+      </c>
+      <c r="D34" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>41</v>
+        <v>155</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>182</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>42</v>
+        <v>156</v>
       </c>
       <c r="D35" s="4">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>182</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D36" s="4">
         <v>1</v>
@@ -1616,13 +1622,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>182</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D37" s="4">
         <v>1</v>
@@ -1630,21 +1636,21 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>182</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D38" s="5">
-        <v>899</v>
+        <v>46</v>
+      </c>
+      <c r="D38" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>182</v>
@@ -1653,12 +1659,12 @@
         <v>48</v>
       </c>
       <c r="D39" s="5">
-        <v>896</v>
+        <v>899</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>182</v>
@@ -1667,12 +1673,12 @@
         <v>48</v>
       </c>
       <c r="D40" s="5">
-        <v>900</v>
+        <v>896</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>182</v>
@@ -1681,40 +1687,40 @@
         <v>48</v>
       </c>
       <c r="D41" s="5">
-        <v>898</v>
+        <v>900</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>153</v>
+        <v>51</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>182</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>154</v>
+        <v>48</v>
       </c>
       <c r="D42" s="5">
-        <v>1</v>
+        <v>898</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>52</v>
+        <v>153</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>182</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D43" s="4">
-        <v>166</v>
+        <v>154</v>
+      </c>
+      <c r="D43" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>182</v>
@@ -1723,35 +1729,35 @@
         <v>53</v>
       </c>
       <c r="D44" s="4">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>195</v>
+        <v>54</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>182</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>180</v>
+        <v>53</v>
+      </c>
+      <c r="D45" s="4">
+        <v>167</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>182</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D46" s="4">
-        <v>1</v>
+        <v>196</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -2050,13 +2056,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>174</v>
+        <v>206</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>182</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>175</v>
+        <v>207</v>
       </c>
       <c r="D68" s="4">
         <v>1</v>
@@ -2064,55 +2070,55 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>83</v>
+        <v>174</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>182</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>84</v>
+        <v>175</v>
       </c>
       <c r="D69" s="4">
-        <v>211</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>197</v>
+        <v>83</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>182</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>199</v>
+        <v>84</v>
+      </c>
+      <c r="D70" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>85</v>
+        <v>197</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>182</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D71" s="4">
-        <v>1</v>
+        <v>198</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>176</v>
+        <v>85</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>182</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>177</v>
+        <v>86</v>
       </c>
       <c r="D72" s="4">
         <v>1</v>
@@ -2120,21 +2126,21 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>87</v>
+        <v>176</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>88</v>
+        <v>177</v>
       </c>
       <c r="D73" s="4">
-        <v>820</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>184</v>
@@ -2143,68 +2149,68 @@
         <v>88</v>
       </c>
       <c r="D74" s="4">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>158</v>
+        <v>89</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D75" s="4">
-        <v>750</v>
+        <v>819</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>91</v>
+        <v>158</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D76" s="4">
-        <v>553</v>
+        <v>750</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D77" s="4">
-        <v>395</v>
+        <v>553</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>182</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D78" s="4">
-        <v>86</v>
+        <v>395</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>182</v>
@@ -2213,12 +2219,12 @@
         <v>96</v>
       </c>
       <c r="D79" s="4">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>200</v>
+        <v>97</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>182</v>
@@ -2226,27 +2232,27 @@
       <c r="C80" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D80" s="4" t="s">
-        <v>201</v>
+      <c r="D80" s="4">
+        <v>87</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>98</v>
+        <v>200</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D81" s="4">
-        <v>55</v>
+        <v>96</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>186</v>
@@ -2255,26 +2261,26 @@
         <v>99</v>
       </c>
       <c r="D82" s="4">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D83" s="5">
-        <v>994</v>
+        <v>99</v>
+      </c>
+      <c r="D83" s="4">
+        <v>54</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>182</v>
@@ -2283,46 +2289,46 @@
         <v>102</v>
       </c>
       <c r="D84" s="5">
-        <v>695</v>
+        <v>994</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>202</v>
+        <v>101</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>182</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>180</v>
+        <v>102</v>
+      </c>
+      <c r="D85" s="5">
+        <v>695</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>104</v>
+        <v>202</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>182</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D86" s="4">
-        <v>1</v>
+        <v>203</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>159</v>
+        <v>104</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>182</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="D87" s="4">
         <v>1</v>
@@ -2330,13 +2336,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>106</v>
+        <v>159</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>182</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>107</v>
+        <v>160</v>
       </c>
       <c r="D88" s="4">
         <v>1</v>
@@ -2344,77 +2350,77 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>189</v>
+        <v>106</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>190</v>
+        <v>107</v>
       </c>
       <c r="D89" s="4">
-        <v>884</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>108</v>
+        <v>189</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>184</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>109</v>
+        <v>190</v>
       </c>
       <c r="D90" s="4">
-        <v>53</v>
+        <v>884</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D91" s="4">
-        <v>107</v>
+        <v>53</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="D92" s="4">
-        <v>918</v>
+        <v>107</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>184</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="D93" s="4">
-        <v>449</v>
+        <v>918</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>184</v>
@@ -2423,40 +2429,40 @@
         <v>113</v>
       </c>
       <c r="D94" s="4">
-        <v>704</v>
+        <v>449</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D95" s="4">
-        <v>170</v>
+        <v>704</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D96" s="5">
-        <v>163</v>
+      <c r="D96" s="4">
+        <v>170</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>182</v>
@@ -2465,26 +2471,26 @@
         <v>116</v>
       </c>
       <c r="D97" s="5">
-        <v>799</v>
+        <v>163</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D98" s="5">
-        <v>160</v>
+        <v>799</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>188</v>
@@ -2493,12 +2499,12 @@
         <v>120</v>
       </c>
       <c r="D99" s="5">
-        <v>569</v>
+        <v>160</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>188</v>
@@ -2507,46 +2513,46 @@
         <v>120</v>
       </c>
       <c r="D100" s="5">
-        <v>762</v>
+        <v>569</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D101" s="4">
-        <v>211</v>
+        <v>120</v>
+      </c>
+      <c r="D101" s="5">
+        <v>762</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>163</v>
+        <v>123</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>182</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>164</v>
+        <v>124</v>
       </c>
       <c r="D102" s="4">
-        <v>1</v>
+        <v>211</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>182</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D103" s="4">
         <v>1</v>
@@ -2554,93 +2560,107 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>182</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D104" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="D105" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D106" s="5">
+        <v>143</v>
+      </c>
+      <c r="D106" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="D107" s="4">
-        <v>15</v>
+        <v>145</v>
+      </c>
+      <c r="D107" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D108" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B108" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="C108" s="4" t="s">
+      <c r="B109" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C109" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="D108" s="4">
+      <c r="D109" s="4">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D107" xr:uid="{A369FB58-D533-46A6-B5FA-793763E80E34}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D108">
-      <sortCondition ref="A1:A107"/>
+  <autoFilter ref="A1:D108" xr:uid="{A369FB58-D533-46A6-B5FA-793763E80E34}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D109">
+      <sortCondition ref="A1:A108"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="1" priority="28">
+    <cfRule type="expression" dxfId="1" priority="30">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D108">
+  <conditionalFormatting sqref="A2:D109">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <ignoredErrors>
-    <ignoredError sqref="D47:D85 D7:D8 D9:D10 D11:D13 D14:D42 D43:D45" numberStoredAsText="1"/>
+    <ignoredError sqref="D69:D86 D28:D46 D7:D26 D47:D67" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/pages/BA_ssoservi_cservico_ssala.xlsx
+++ b/pages/BA_ssoservi_cservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE38071-4025-45AE-8286-9DB8DC2CE861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5145A06-69EF-4546-B9A4-39ECCB141AD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{66DD5035-C496-4A33-BA22-CD402935C2B8}"/>
   </bookViews>
@@ -614,15 +614,9 @@
     <t>S010046</t>
   </si>
   <si>
-    <t>AVENTAL - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>PC C/10</t>
   </si>
   <si>
-    <t>S010007</t>
-  </si>
-  <si>
     <t>DISPENSER ALCOOL EM GEL - UNICA</t>
   </si>
   <si>
@@ -663,6 +657,12 @@
   </si>
   <si>
     <t>S010076</t>
+  </si>
+  <si>
+    <t>AVENTAL C/ MANGA - UNICA</t>
+  </si>
+  <si>
+    <t>S150204</t>
   </si>
 </sst>
 </file>
@@ -770,7 +770,16 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -1104,8 +1113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A369FB58-D533-46A6-B5FA-793763E80E34}">
   <dimension ref="A1:D109"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47:XFD47"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1202,13 +1211,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>192</v>
-      </c>
       <c r="C7" s="4" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>180</v>
@@ -1482,13 +1491,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>182</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D27" s="5">
         <v>1</v>
@@ -1524,7 +1533,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>182</v>
@@ -1748,13 +1757,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>182</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>180</v>
@@ -2056,13 +2065,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>182</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D68" s="4">
         <v>1</v>
@@ -2098,16 +2107,16 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D71" s="4" t="s">
         <v>197</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -2238,7 +2247,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>182</v>
@@ -2247,7 +2256,7 @@
         <v>96</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -2308,13 +2317,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>182</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D86" s="4" t="s">
         <v>180</v>
@@ -2649,18 +2658,23 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="1" priority="30">
+    <cfRule type="expression" dxfId="2" priority="31">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D109">
+  <conditionalFormatting sqref="A2:D6 A8:D109">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7:D7">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A2))&gt;0</formula>
+      <formula>LEN(TRIM(A7))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <ignoredErrors>
-    <ignoredError sqref="D69:D86 D28:D46 D7:D26 D47:D67" numberStoredAsText="1"/>
+    <ignoredError sqref="D69:D86 D28:D46 D8:D26 D47:D67" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/pages/BA_ssoservi_cservico_ssala.xlsx
+++ b/pages/BA_ssoservi_cservico_ssala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5145A06-69EF-4546-B9A4-39ECCB141AD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A10631-60BF-47FB-B8A3-85F53F85EBCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{66DD5035-C496-4A33-BA22-CD402935C2B8}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="210">
   <si>
     <t>Complemento</t>
   </si>
@@ -473,12 +473,6 @@
     <t>S150190</t>
   </si>
   <si>
-    <t>TOUCA DESCARTAVEL - UNICA - UNICA</t>
-  </si>
-  <si>
-    <t>S010054</t>
-  </si>
-  <si>
     <t>COPO DESCARTAVEL C/100 UND - 50ML - 50ML</t>
   </si>
   <si>
@@ -506,9 +500,6 @@
     <t>S020048</t>
   </si>
   <si>
-    <t>ENVELOPE A4 - NATURAL - NATURAL</t>
-  </si>
-  <si>
     <t>S020041</t>
   </si>
   <si>
@@ -663,6 +654,21 @@
   </si>
   <si>
     <t>S150204</t>
+  </si>
+  <si>
+    <t>TOUCA SANFONADA - DESCARTÁVEL - 100UN</t>
+  </si>
+  <si>
+    <t>S080015</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>ENVELOPE A4 - OURO - OURO</t>
+  </si>
+  <si>
+    <t>12</t>
   </si>
 </sst>
 </file>
@@ -770,7 +776,16 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -1113,8 +1128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A369FB58-D533-46A6-B5FA-793763E80E34}">
   <dimension ref="A1:D109"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:D7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1130,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1144,7 +1159,7 @@
         <v>129</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>130</v>
@@ -1158,7 +1173,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
@@ -1172,7 +1187,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>6</v>
@@ -1186,7 +1201,7 @@
         <v>127</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>128</v>
@@ -1197,13 +1212,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D6" s="5">
         <v>2</v>
@@ -1211,27 +1226,27 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D8" s="5">
         <v>122</v>
@@ -1242,7 +1257,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>8</v>
@@ -1256,7 +1271,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>10</v>
@@ -1270,7 +1285,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>12</v>
@@ -1284,7 +1299,7 @@
         <v>15</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>14</v>
@@ -1298,7 +1313,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>14</v>
@@ -1312,7 +1327,7 @@
         <v>16</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>17</v>
@@ -1326,7 +1341,7 @@
         <v>18</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>19</v>
@@ -1337,13 +1352,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D16" s="4">
         <v>1</v>
@@ -1354,7 +1369,7 @@
         <v>20</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>21</v>
@@ -1368,7 +1383,7 @@
         <v>22</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>21</v>
@@ -1379,10 +1394,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>21</v>
@@ -1396,7 +1411,7 @@
         <v>23</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>24</v>
@@ -1410,7 +1425,7 @@
         <v>25</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>26</v>
@@ -1424,7 +1439,7 @@
         <v>27</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>28</v>
@@ -1438,7 +1453,7 @@
         <v>131</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>132</v>
@@ -1449,10 +1464,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>132</v>
@@ -1466,7 +1481,7 @@
         <v>29</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>30</v>
@@ -1477,10 +1492,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>30</v>
@@ -1491,13 +1506,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D27" s="5">
         <v>1</v>
@@ -1508,7 +1523,7 @@
         <v>31</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>32</v>
@@ -1522,7 +1537,7 @@
         <v>33</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>34</v>
@@ -1533,13 +1548,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D30" s="4">
         <v>1</v>
@@ -1550,7 +1565,7 @@
         <v>35</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>36</v>
@@ -1561,16 +1576,16 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1578,7 +1593,7 @@
         <v>37</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>38</v>
@@ -1592,7 +1607,7 @@
         <v>39</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>40</v>
@@ -1603,16 +1618,16 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>155</v>
+        <v>208</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="D35" s="4">
-        <v>13</v>
+        <v>153</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1620,7 +1635,7 @@
         <v>41</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>42</v>
@@ -1634,7 +1649,7 @@
         <v>43</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>44</v>
@@ -1648,7 +1663,7 @@
         <v>45</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>46</v>
@@ -1662,7 +1677,7 @@
         <v>47</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>48</v>
@@ -1676,7 +1691,7 @@
         <v>49</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>48</v>
@@ -1690,7 +1705,7 @@
         <v>50</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>48</v>
@@ -1704,7 +1719,7 @@
         <v>51</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>48</v>
@@ -1715,13 +1730,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D43" s="5">
         <v>1</v>
@@ -1732,7 +1747,7 @@
         <v>52</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>53</v>
@@ -1746,7 +1761,7 @@
         <v>54</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>53</v>
@@ -1757,16 +1772,16 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1774,7 +1789,7 @@
         <v>55</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>56</v>
@@ -1788,7 +1803,7 @@
         <v>57</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>58</v>
@@ -1802,7 +1817,7 @@
         <v>59</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>60</v>
@@ -1816,7 +1831,7 @@
         <v>61</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>62</v>
@@ -1827,13 +1842,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D51" s="4">
         <v>1</v>
@@ -1844,7 +1859,7 @@
         <v>63</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>64</v>
@@ -1858,7 +1873,7 @@
         <v>133</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>134</v>
@@ -1872,7 +1887,7 @@
         <v>138</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>139</v>
@@ -1886,7 +1901,7 @@
         <v>65</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>66</v>
@@ -1900,7 +1915,7 @@
         <v>67</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>68</v>
@@ -1914,7 +1929,7 @@
         <v>69</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>70</v>
@@ -1928,7 +1943,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>70</v>
@@ -1942,7 +1957,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>73</v>
@@ -1956,7 +1971,7 @@
         <v>74</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>75</v>
@@ -1970,7 +1985,7 @@
         <v>76</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>77</v>
@@ -1984,7 +1999,7 @@
         <v>78</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>77</v>
@@ -1998,7 +2013,7 @@
         <v>135</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>136</v>
@@ -2009,10 +2024,10 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>136</v>
@@ -2026,7 +2041,7 @@
         <v>137</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>136</v>
@@ -2040,7 +2055,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>80</v>
@@ -2054,7 +2069,7 @@
         <v>81</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>82</v>
@@ -2065,13 +2080,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D68" s="4">
         <v>1</v>
@@ -2079,13 +2094,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D69" s="4">
         <v>1</v>
@@ -2096,7 +2111,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>84</v>
@@ -2107,16 +2122,16 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -2124,7 +2139,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>86</v>
@@ -2135,13 +2150,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D73" s="4">
         <v>1</v>
@@ -2152,7 +2167,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>88</v>
@@ -2166,7 +2181,7 @@
         <v>89</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>88</v>
@@ -2177,10 +2192,10 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>90</v>
@@ -2194,7 +2209,7 @@
         <v>91</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>92</v>
@@ -2208,7 +2223,7 @@
         <v>93</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>94</v>
@@ -2222,7 +2237,7 @@
         <v>95</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>96</v>
@@ -2236,7 +2251,7 @@
         <v>97</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>96</v>
@@ -2247,16 +2262,16 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>96</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -2264,7 +2279,7 @@
         <v>98</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>99</v>
@@ -2278,7 +2293,7 @@
         <v>100</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>99</v>
@@ -2292,7 +2307,7 @@
         <v>103</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>102</v>
@@ -2306,7 +2321,7 @@
         <v>101</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>102</v>
@@ -2317,16 +2332,16 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -2334,7 +2349,7 @@
         <v>104</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>105</v>
@@ -2345,13 +2360,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D88" s="4">
         <v>1</v>
@@ -2362,7 +2377,7 @@
         <v>106</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>107</v>
@@ -2373,13 +2388,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D90" s="4">
         <v>884</v>
@@ -2390,7 +2405,7 @@
         <v>108</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>109</v>
@@ -2404,7 +2419,7 @@
         <v>110</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>111</v>
@@ -2418,7 +2433,7 @@
         <v>140</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>141</v>
@@ -2432,7 +2447,7 @@
         <v>112</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>113</v>
@@ -2446,7 +2461,7 @@
         <v>114</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>113</v>
@@ -2460,7 +2475,7 @@
         <v>115</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>116</v>
@@ -2474,7 +2489,7 @@
         <v>117</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>116</v>
@@ -2488,7 +2503,7 @@
         <v>118</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>116</v>
@@ -2502,7 +2517,7 @@
         <v>119</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>120</v>
@@ -2516,7 +2531,7 @@
         <v>121</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>120</v>
@@ -2530,7 +2545,7 @@
         <v>122</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>120</v>
@@ -2544,7 +2559,7 @@
         <v>123</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>124</v>
@@ -2555,13 +2570,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D103" s="4">
         <v>1</v>
@@ -2569,13 +2584,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D104" s="4">
         <v>1</v>
@@ -2583,13 +2598,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D105" s="4">
         <v>2</v>
@@ -2600,7 +2615,7 @@
         <v>142</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>143</v>
@@ -2611,27 +2626,27 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>144</v>
+        <v>205</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D107" s="5">
-        <v>1</v>
+        <v>206</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D108" s="4">
         <v>15</v>
@@ -2642,7 +2657,7 @@
         <v>125</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>126</v>
@@ -2658,23 +2673,28 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="31">
+    <cfRule type="expression" dxfId="3" priority="33">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D6 A8:D109">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D34 A108:D109 A36:D106">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7:D7">
+  <conditionalFormatting sqref="A107:D107">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A107))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35:D35">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A7))&gt;0</formula>
+      <formula>LEN(TRIM(A35))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <ignoredErrors>
-    <ignoredError sqref="D69:D86 D28:D46 D8:D26 D47:D67" numberStoredAsText="1"/>
+    <ignoredError sqref="D69:D86 D28:D34 D8:D26 D47:D67 D36:D46" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/pages/BA_ssoservi_cservico_ssala.xlsx
+++ b/pages/BA_ssoservi_cservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A10631-60BF-47FB-B8A3-85F53F85EBCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A2C2F7-C146-4428-B25C-CC53CD0D14D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{66DD5035-C496-4A33-BA22-CD402935C2B8}"/>
   </bookViews>
@@ -311,9 +311,6 @@
     <t>PAPEL A4 - BRANCO 500FLS - BRANCO 500FLS</t>
   </si>
   <si>
-    <t>S010039</t>
-  </si>
-  <si>
     <t>PAPEL HIGIENICO - 300MT</t>
   </si>
   <si>
@@ -506,9 +503,6 @@
     <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO M - TAMANHO M</t>
   </si>
   <si>
-    <t>PAPEL FILME PVC - 300 M</t>
-  </si>
-  <si>
     <t>QUADRO DE AVISO - UNICA</t>
   </si>
   <si>
@@ -669,6 +663,12 @@
   </si>
   <si>
     <t>12</t>
+  </si>
+  <si>
+    <t>FILME PVC PLASTICO - 300 M</t>
+  </si>
+  <si>
+    <t>S050019</t>
   </si>
 </sst>
 </file>
@@ -776,16 +776,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <border>
         <bottom style="thin">
@@ -1128,9 +1119,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A369FB58-D533-46A6-B5FA-793763E80E34}">
   <dimension ref="A1:D109"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:D35"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1145,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1156,13 +1145,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>130</v>
       </c>
       <c r="D2" s="5">
         <v>1</v>
@@ -1173,7 +1162,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
@@ -1187,7 +1176,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>6</v>
@@ -1198,13 +1187,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>128</v>
       </c>
       <c r="D5" s="5">
         <v>53</v>
@@ -1212,13 +1201,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>145</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>146</v>
       </c>
       <c r="D6" s="5">
         <v>2</v>
@@ -1226,27 +1215,27 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D8" s="5">
         <v>122</v>
@@ -1257,7 +1246,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>8</v>
@@ -1271,7 +1260,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>10</v>
@@ -1285,7 +1274,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>12</v>
@@ -1299,7 +1288,7 @@
         <v>15</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>14</v>
@@ -1313,7 +1302,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>14</v>
@@ -1327,7 +1316,7 @@
         <v>16</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>17</v>
@@ -1341,7 +1330,7 @@
         <v>18</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>19</v>
@@ -1352,13 +1341,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D16" s="4">
         <v>1</v>
@@ -1369,7 +1358,7 @@
         <v>20</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>21</v>
@@ -1383,7 +1372,7 @@
         <v>22</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>21</v>
@@ -1394,10 +1383,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>21</v>
@@ -1411,7 +1400,7 @@
         <v>23</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>24</v>
@@ -1425,7 +1414,7 @@
         <v>25</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>26</v>
@@ -1439,7 +1428,7 @@
         <v>27</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>28</v>
@@ -1450,13 +1439,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>132</v>
       </c>
       <c r="D23" s="5">
         <v>904</v>
@@ -1464,13 +1453,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D24" s="4">
         <v>903</v>
@@ -1481,7 +1470,7 @@
         <v>29</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>30</v>
@@ -1492,10 +1481,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>30</v>
@@ -1506,13 +1495,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D27" s="5">
         <v>1</v>
@@ -1523,7 +1512,7 @@
         <v>31</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>32</v>
@@ -1537,7 +1526,7 @@
         <v>33</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>34</v>
@@ -1548,13 +1537,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D30" s="4">
         <v>1</v>
@@ -1565,7 +1554,7 @@
         <v>35</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>36</v>
@@ -1576,16 +1565,16 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>175</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1593,7 +1582,7 @@
         <v>37</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>38</v>
@@ -1607,7 +1596,7 @@
         <v>39</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>40</v>
@@ -1618,16 +1607,16 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1635,7 +1624,7 @@
         <v>41</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>42</v>
@@ -1649,7 +1638,7 @@
         <v>43</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>44</v>
@@ -1663,7 +1652,7 @@
         <v>45</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>46</v>
@@ -1677,7 +1666,7 @@
         <v>47</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>48</v>
@@ -1691,7 +1680,7 @@
         <v>49</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>48</v>
@@ -1705,7 +1694,7 @@
         <v>50</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>48</v>
@@ -1719,7 +1708,7 @@
         <v>51</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>48</v>
@@ -1730,13 +1719,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>152</v>
       </c>
       <c r="D43" s="5">
         <v>1</v>
@@ -1744,83 +1733,83 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>52</v>
+        <v>208</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>53</v>
+        <v>209</v>
       </c>
       <c r="D44" s="4">
-        <v>166</v>
+        <v>750</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>53</v>
       </c>
       <c r="D45" s="4">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>190</v>
+        <v>54</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>177</v>
+        <v>53</v>
+      </c>
+      <c r="D46" s="4">
+        <v>167</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>55</v>
+        <v>188</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D47" s="4">
-        <v>1</v>
+        <v>189</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D48" s="4">
-        <v>80</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D49" s="4">
         <v>80</v>
@@ -1828,55 +1817,55 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D50" s="4">
-        <v>835</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>169</v>
+        <v>61</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>170</v>
+        <v>62</v>
       </c>
       <c r="D51" s="4">
-        <v>1</v>
+        <v>835</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>63</v>
+        <v>167</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D52" s="5">
+        <v>168</v>
+      </c>
+      <c r="D52" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>133</v>
+        <v>63</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>134</v>
+        <v>64</v>
       </c>
       <c r="D53" s="5">
         <v>1</v>
@@ -1884,55 +1873,55 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D54" s="4">
+        <v>133</v>
+      </c>
+      <c r="D54" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>65</v>
+        <v>137</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>66</v>
+        <v>138</v>
       </c>
       <c r="D55" s="4">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D56" s="4">
-        <v>103</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D57" s="4">
         <v>103</v>
@@ -1940,153 +1929,153 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>70</v>
       </c>
       <c r="D58" s="4">
-        <v>910</v>
+        <v>103</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D59" s="4">
-        <v>1</v>
+        <v>910</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D60" s="4">
-        <v>745</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D61" s="4">
-        <v>33</v>
+        <v>745</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>77</v>
       </c>
       <c r="D62" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="D63" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D64" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D65" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="D66" s="4">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D67" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>201</v>
+        <v>81</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>202</v>
+        <v>82</v>
       </c>
       <c r="D68" s="4">
         <v>1</v>
@@ -2094,13 +2083,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>171</v>
+        <v>199</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="D69" s="4">
         <v>1</v>
@@ -2108,55 +2097,55 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>83</v>
+        <v>169</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>84</v>
+        <v>170</v>
       </c>
       <c r="D70" s="4">
-        <v>211</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>192</v>
+        <v>83</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>194</v>
+        <v>84</v>
+      </c>
+      <c r="D71" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>85</v>
+        <v>190</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D72" s="4">
-        <v>1</v>
+        <v>191</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>173</v>
+        <v>85</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>174</v>
+        <v>86</v>
       </c>
       <c r="D73" s="4">
         <v>1</v>
@@ -2164,55 +2153,55 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>87</v>
+        <v>171</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>88</v>
+        <v>172</v>
       </c>
       <c r="D74" s="4">
-        <v>820</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>88</v>
       </c>
       <c r="D75" s="4">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>179</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D76" s="4">
-        <v>750</v>
+        <v>819</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="D77" s="4">
         <v>553</v>
@@ -2220,13 +2209,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="D78" s="4">
         <v>395</v>
@@ -2234,13 +2223,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C79" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>96</v>
       </c>
       <c r="D79" s="4">
         <v>86</v>
@@ -2248,13 +2237,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D80" s="4">
         <v>87</v>
@@ -2262,27 +2251,27 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="D82" s="4">
         <v>55</v>
@@ -2290,13 +2279,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D83" s="4">
         <v>54</v>
@@ -2304,13 +2293,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D84" s="5">
         <v>994</v>
@@ -2318,13 +2307,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="D85" s="5">
         <v>695</v>
@@ -2332,27 +2321,27 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C87" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="D87" s="4">
         <v>1</v>
@@ -2360,13 +2349,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D88" s="4">
         <v>1</v>
@@ -2374,13 +2363,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C89" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="D89" s="4">
         <v>1</v>
@@ -2388,13 +2377,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D90" s="4">
         <v>884</v>
@@ -2402,13 +2391,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C91" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="D91" s="4">
         <v>53</v>
@@ -2416,13 +2405,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C92" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="D92" s="4">
         <v>107</v>
@@ -2430,13 +2419,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>141</v>
       </c>
       <c r="D93" s="4">
         <v>918</v>
@@ -2444,13 +2433,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C94" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="D94" s="4">
         <v>449</v>
@@ -2458,13 +2447,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D95" s="4">
         <v>704</v>
@@ -2472,13 +2461,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="D96" s="4">
         <v>170</v>
@@ -2486,13 +2475,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D97" s="5">
         <v>163</v>
@@ -2500,13 +2489,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D98" s="5">
         <v>799</v>
@@ -2514,13 +2503,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C99" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="D99" s="5">
         <v>160</v>
@@ -2528,13 +2517,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D100" s="5">
         <v>569</v>
@@ -2542,13 +2531,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D101" s="5">
         <v>762</v>
@@ -2556,13 +2545,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C102" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>124</v>
       </c>
       <c r="D102" s="4">
         <v>211</v>
@@ -2570,13 +2559,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D103" s="4">
         <v>1</v>
@@ -2584,13 +2573,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D104" s="4">
         <v>1</v>
@@ -2598,13 +2587,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D105" s="4">
         <v>2</v>
@@ -2612,13 +2601,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C106" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>143</v>
       </c>
       <c r="D106" s="4">
         <v>1</v>
@@ -2626,27 +2615,27 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D107" s="4" t="s">
         <v>205</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D108" s="4">
         <v>15</v>
@@ -2654,13 +2643,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C109" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>126</v>
       </c>
       <c r="D109" s="4">
         <v>1</v>
@@ -2673,28 +2662,20 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="3" priority="33">
+    <cfRule type="expression" dxfId="2" priority="34">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D34 A108:D109 A36:D106">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
+  <conditionalFormatting sqref="A2:D75 A77:D109">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A107:D107">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
-      <formula>LEN(TRIM(A107))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A35:D35">
+  <conditionalFormatting sqref="A76:D76">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A35))&gt;0</formula>
+      <formula>LEN(TRIM(A76))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <ignoredErrors>
-    <ignoredError sqref="D69:D86 D28:D34 D8:D26 D47:D67 D36:D46" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
--- a/pages/BA_ssoservi_cservico_ssala.xlsx
+++ b/pages/BA_ssoservi_cservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A2C2F7-C146-4428-B25C-CC53CD0D14D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5FD5073-4B5F-48FD-8FA5-DC4FBEE86E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{66DD5035-C496-4A33-BA22-CD402935C2B8}"/>
   </bookViews>
@@ -170,9 +170,6 @@
     <t>S110018</t>
   </si>
   <si>
-    <t>ESPONJA DUPLA FACE - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S010018</t>
   </si>
   <si>
@@ -669,6 +666,9 @@
   </si>
   <si>
     <t>S050019</t>
+  </si>
+  <si>
+    <t>ESPONJA DUPLA FACE - 110X75X20MM</t>
   </si>
 </sst>
 </file>
@@ -1119,7 +1119,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A369FB58-D533-46A6-B5FA-793763E80E34}">
   <dimension ref="A1:D109"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:D37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1134,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1145,13 +1147,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>129</v>
       </c>
       <c r="D2" s="5">
         <v>1</v>
@@ -1162,7 +1164,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
@@ -1176,7 +1178,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>6</v>
@@ -1187,13 +1189,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>127</v>
       </c>
       <c r="D5" s="5">
         <v>53</v>
@@ -1201,13 +1203,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>144</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>145</v>
       </c>
       <c r="D6" s="5">
         <v>2</v>
@@ -1215,27 +1217,27 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>202</v>
-      </c>
       <c r="D7" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>165</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>166</v>
       </c>
       <c r="D8" s="5">
         <v>122</v>
@@ -1246,7 +1248,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>8</v>
@@ -1260,7 +1262,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>10</v>
@@ -1274,7 +1276,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>12</v>
@@ -1288,7 +1290,7 @@
         <v>15</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>14</v>
@@ -1302,7 +1304,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>14</v>
@@ -1316,7 +1318,7 @@
         <v>16</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>17</v>
@@ -1330,7 +1332,7 @@
         <v>18</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>19</v>
@@ -1341,13 +1343,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D16" s="4">
         <v>1</v>
@@ -1358,7 +1360,7 @@
         <v>20</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>21</v>
@@ -1372,7 +1374,7 @@
         <v>22</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>21</v>
@@ -1383,10 +1385,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>21</v>
@@ -1400,7 +1402,7 @@
         <v>23</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>24</v>
@@ -1414,7 +1416,7 @@
         <v>25</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>26</v>
@@ -1428,7 +1430,7 @@
         <v>27</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>28</v>
@@ -1439,13 +1441,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>131</v>
       </c>
       <c r="D23" s="5">
         <v>904</v>
@@ -1453,13 +1455,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D24" s="4">
         <v>903</v>
@@ -1470,7 +1472,7 @@
         <v>29</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>30</v>
@@ -1481,10 +1483,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>30</v>
@@ -1495,13 +1497,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>197</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>198</v>
       </c>
       <c r="D27" s="5">
         <v>1</v>
@@ -1512,7 +1514,7 @@
         <v>31</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>32</v>
@@ -1526,7 +1528,7 @@
         <v>33</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>34</v>
@@ -1537,13 +1539,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D30" s="4">
         <v>1</v>
@@ -1554,7 +1556,7 @@
         <v>35</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>36</v>
@@ -1565,16 +1567,16 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C32" s="4" t="s">
+      <c r="D32" s="4" t="s">
         <v>174</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1582,7 +1584,7 @@
         <v>37</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>38</v>
@@ -1596,7 +1598,7 @@
         <v>39</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>40</v>
@@ -1607,16 +1609,16 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>206</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1624,7 +1626,7 @@
         <v>41</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>42</v>
@@ -1635,27 +1637,27 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="D37" s="4">
-        <v>1</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>46</v>
       </c>
       <c r="D38" s="4">
         <v>1</v>
@@ -1663,13 +1665,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>48</v>
       </c>
       <c r="D39" s="5">
         <v>899</v>
@@ -1677,13 +1679,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D40" s="5">
         <v>896</v>
@@ -1691,13 +1693,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D41" s="5">
         <v>900</v>
@@ -1705,13 +1707,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D42" s="5">
         <v>898</v>
@@ -1719,13 +1721,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>151</v>
       </c>
       <c r="D43" s="5">
         <v>1</v>
@@ -1733,13 +1735,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>208</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>209</v>
       </c>
       <c r="D44" s="4">
         <v>750</v>
@@ -1747,13 +1749,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="D45" s="4">
         <v>166</v>
@@ -1761,13 +1763,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D46" s="4">
         <v>167</v>
@@ -1775,27 +1777,27 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>189</v>
-      </c>
       <c r="D47" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="D48" s="4">
         <v>1</v>
@@ -1803,13 +1805,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="D49" s="4">
         <v>80</v>
@@ -1817,13 +1819,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="D50" s="4">
         <v>80</v>
@@ -1831,13 +1833,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="D51" s="4">
         <v>835</v>
@@ -1845,13 +1847,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>167</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>168</v>
       </c>
       <c r="D52" s="4">
         <v>1</v>
@@ -1859,13 +1861,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>64</v>
       </c>
       <c r="D53" s="5">
         <v>1</v>
@@ -1873,13 +1875,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>133</v>
       </c>
       <c r="D54" s="5">
         <v>1</v>
@@ -1887,13 +1889,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>137</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>138</v>
       </c>
       <c r="D55" s="4">
         <v>1</v>
@@ -1901,13 +1903,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="D56" s="4">
         <v>40</v>
@@ -1915,13 +1917,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="D57" s="4">
         <v>103</v>
@@ -1929,13 +1931,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>70</v>
       </c>
       <c r="D58" s="4">
         <v>103</v>
@@ -1943,13 +1945,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D59" s="4">
         <v>910</v>
@@ -1957,13 +1959,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>73</v>
       </c>
       <c r="D60" s="4">
         <v>1</v>
@@ -1971,13 +1973,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="D61" s="4">
         <v>745</v>
@@ -1985,13 +1987,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="D62" s="4">
         <v>33</v>
@@ -1999,13 +2001,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D63" s="4">
         <v>32</v>
@@ -2013,13 +2015,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>134</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>135</v>
       </c>
       <c r="D64" s="4">
         <v>33</v>
@@ -2027,13 +2029,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D65" s="4">
         <v>32</v>
@@ -2041,13 +2043,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D66" s="4">
         <v>31</v>
@@ -2055,13 +2057,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="D67" s="4">
         <v>2</v>
@@ -2069,13 +2071,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="D68" s="4">
         <v>1</v>
@@ -2083,13 +2085,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>199</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>200</v>
       </c>
       <c r="D69" s="4">
         <v>1</v>
@@ -2097,13 +2099,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>169</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>170</v>
       </c>
       <c r="D70" s="4">
         <v>1</v>
@@ -2111,13 +2113,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>84</v>
       </c>
       <c r="D71" s="4">
         <v>211</v>
@@ -2125,27 +2127,27 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="B72" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C72" s="4" t="s">
+      <c r="D72" s="4" t="s">
         <v>191</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="D73" s="4">
         <v>1</v>
@@ -2153,13 +2155,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>171</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>172</v>
       </c>
       <c r="D74" s="4">
         <v>1</v>
@@ -2167,13 +2169,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C75" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="D75" s="4">
         <v>820</v>
@@ -2181,13 +2183,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D76" s="4">
         <v>819</v>
@@ -2195,13 +2197,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="D77" s="4">
         <v>553</v>
@@ -2209,13 +2211,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="D78" s="4">
         <v>395</v>
@@ -2223,13 +2225,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C79" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="D79" s="4">
         <v>86</v>
@@ -2237,13 +2239,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D80" s="4">
         <v>87</v>
@@ -2251,27 +2253,27 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D81" s="4" t="s">
         <v>193</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="D82" s="4">
         <v>55</v>
@@ -2279,13 +2281,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D83" s="4">
         <v>54</v>
@@ -2293,13 +2295,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D84" s="5">
         <v>994</v>
@@ -2307,13 +2309,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="D85" s="5">
         <v>695</v>
@@ -2321,27 +2323,27 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C86" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="B86" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>196</v>
-      </c>
       <c r="D86" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C87" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="D87" s="4">
         <v>1</v>
@@ -2349,13 +2351,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C88" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>155</v>
       </c>
       <c r="D88" s="4">
         <v>1</v>
@@ -2363,13 +2365,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C89" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="D89" s="4">
         <v>1</v>
@@ -2377,13 +2379,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C90" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>185</v>
       </c>
       <c r="D90" s="4">
         <v>884</v>
@@ -2391,13 +2393,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C91" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="D91" s="4">
         <v>53</v>
@@ -2405,13 +2407,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C92" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>110</v>
       </c>
       <c r="D92" s="4">
         <v>107</v>
@@ -2419,13 +2421,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>139</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>140</v>
       </c>
       <c r="D93" s="4">
         <v>918</v>
@@ -2433,13 +2435,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C94" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>112</v>
       </c>
       <c r="D94" s="4">
         <v>449</v>
@@ -2447,13 +2449,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D95" s="4">
         <v>704</v>
@@ -2461,13 +2463,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>115</v>
       </c>
       <c r="D96" s="4">
         <v>170</v>
@@ -2475,13 +2477,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D97" s="5">
         <v>163</v>
@@ -2489,13 +2491,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D98" s="5">
         <v>799</v>
@@ -2503,13 +2505,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C99" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>119</v>
       </c>
       <c r="D99" s="5">
         <v>160</v>
@@ -2517,13 +2519,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D100" s="5">
         <v>569</v>
@@ -2531,13 +2533,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D101" s="5">
         <v>762</v>
@@ -2545,13 +2547,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C102" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="D102" s="4">
         <v>211</v>
@@ -2559,13 +2561,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C103" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>159</v>
       </c>
       <c r="D103" s="4">
         <v>1</v>
@@ -2573,13 +2575,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C104" s="4" t="s">
         <v>160</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>161</v>
       </c>
       <c r="D104" s="4">
         <v>1</v>
@@ -2587,13 +2589,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C105" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>157</v>
       </c>
       <c r="D105" s="4">
         <v>2</v>
@@ -2601,13 +2603,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C106" s="4" t="s">
         <v>141</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>142</v>
       </c>
       <c r="D106" s="4">
         <v>1</v>
@@ -2615,27 +2617,27 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C107" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="B107" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="C107" s="4" t="s">
+      <c r="D107" s="4" t="s">
         <v>204</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D108" s="4">
         <v>15</v>
@@ -2643,13 +2645,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C109" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>125</v>
       </c>
       <c r="D109" s="4">
         <v>1</v>
@@ -2662,18 +2664,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="34">
+    <cfRule type="expression" dxfId="2" priority="35">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D75 A77:D109">
+  <conditionalFormatting sqref="A2:D36 A38:D109">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A76:D76">
+  <conditionalFormatting sqref="A37:D37">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A76))&gt;0</formula>
+      <formula>LEN(TRIM(A37))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/BA_ssoservi_cservico_ssala.xlsx
+++ b/pages/BA_ssoservi_cservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5FD5073-4B5F-48FD-8FA5-DC4FBEE86E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC0CB1D-A2B5-4710-81ED-B3F58E7785EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{66DD5035-C496-4A33-BA22-CD402935C2B8}"/>
   </bookViews>
@@ -293,9 +293,6 @@
     <t>S040043</t>
   </si>
   <si>
-    <t>PANO DE CHAO - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S010037</t>
   </si>
   <si>
@@ -449,12 +446,6 @@
     <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO P - TAMANHO P</t>
   </si>
   <si>
-    <t>LENCOL HOSPITALAR PAPEL 50CMX50M - UNICA</t>
-  </si>
-  <si>
-    <t>S010084</t>
-  </si>
-  <si>
     <t>SACO DE LIXO INFECTANTE - 50LTS</t>
   </si>
   <si>
@@ -669,6 +660,15 @@
   </si>
   <si>
     <t>ESPONJA DUPLA FACE - 110X75X20MM</t>
+  </si>
+  <si>
+    <t>LENCOL HOSPITALAR DE PAPEL - 50CMX50M</t>
+  </si>
+  <si>
+    <t>S010024</t>
+  </si>
+  <si>
+    <t>PANO DE CHAO ALVEJADO - 50X75CM</t>
   </si>
 </sst>
 </file>
@@ -776,7 +776,16 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -1119,8 +1128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A369FB58-D533-46A6-B5FA-793763E80E34}">
   <dimension ref="A1:D109"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:D37"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73:D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1136,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1147,13 +1156,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>128</v>
       </c>
       <c r="D2" s="5">
         <v>1</v>
@@ -1164,7 +1173,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
@@ -1178,7 +1187,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>6</v>
@@ -1189,13 +1198,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>126</v>
       </c>
       <c r="D5" s="5">
         <v>53</v>
@@ -1203,13 +1212,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D6" s="5">
         <v>2</v>
@@ -1217,27 +1226,27 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D8" s="5">
         <v>122</v>
@@ -1248,7 +1257,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>8</v>
@@ -1262,7 +1271,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>10</v>
@@ -1276,7 +1285,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>12</v>
@@ -1290,7 +1299,7 @@
         <v>15</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>14</v>
@@ -1304,7 +1313,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>14</v>
@@ -1318,7 +1327,7 @@
         <v>16</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>17</v>
@@ -1332,7 +1341,7 @@
         <v>18</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>19</v>
@@ -1343,13 +1352,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D16" s="4">
         <v>1</v>
@@ -1360,7 +1369,7 @@
         <v>20</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>21</v>
@@ -1374,7 +1383,7 @@
         <v>22</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>21</v>
@@ -1385,10 +1394,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>21</v>
@@ -1402,7 +1411,7 @@
         <v>23</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>24</v>
@@ -1416,7 +1425,7 @@
         <v>25</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>26</v>
@@ -1430,7 +1439,7 @@
         <v>27</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>28</v>
@@ -1441,13 +1450,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>130</v>
       </c>
       <c r="D23" s="5">
         <v>904</v>
@@ -1455,13 +1464,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D24" s="4">
         <v>903</v>
@@ -1472,7 +1481,7 @@
         <v>29</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>30</v>
@@ -1483,10 +1492,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>30</v>
@@ -1497,13 +1506,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D27" s="5">
         <v>1</v>
@@ -1514,7 +1523,7 @@
         <v>31</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>32</v>
@@ -1528,7 +1537,7 @@
         <v>33</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>34</v>
@@ -1539,13 +1548,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D30" s="4">
         <v>1</v>
@@ -1556,7 +1565,7 @@
         <v>35</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>36</v>
@@ -1567,16 +1576,16 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1584,7 +1593,7 @@
         <v>37</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>38</v>
@@ -1598,7 +1607,7 @@
         <v>39</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>40</v>
@@ -1609,16 +1618,16 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1626,7 +1635,7 @@
         <v>41</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>42</v>
@@ -1637,10 +1646,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>43</v>
@@ -1654,7 +1663,7 @@
         <v>44</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>45</v>
@@ -1668,7 +1677,7 @@
         <v>46</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>47</v>
@@ -1682,7 +1691,7 @@
         <v>48</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>47</v>
@@ -1696,7 +1705,7 @@
         <v>49</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>47</v>
@@ -1710,7 +1719,7 @@
         <v>50</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>47</v>
@@ -1721,13 +1730,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D43" s="5">
         <v>1</v>
@@ -1735,13 +1744,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D44" s="4">
         <v>750</v>
@@ -1752,7 +1761,7 @@
         <v>51</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>52</v>
@@ -1766,7 +1775,7 @@
         <v>53</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>52</v>
@@ -1777,16 +1786,16 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1794,7 +1803,7 @@
         <v>54</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>55</v>
@@ -1808,7 +1817,7 @@
         <v>56</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>57</v>
@@ -1822,7 +1831,7 @@
         <v>58</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>59</v>
@@ -1836,7 +1845,7 @@
         <v>60</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>61</v>
@@ -1847,13 +1856,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D52" s="4">
         <v>1</v>
@@ -1864,7 +1873,7 @@
         <v>62</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>63</v>
@@ -1875,13 +1884,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>132</v>
       </c>
       <c r="D54" s="5">
         <v>1</v>
@@ -1889,16 +1898,16 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>136</v>
+        <v>207</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>137</v>
+        <v>208</v>
       </c>
       <c r="D55" s="4">
-        <v>1</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -1906,7 +1915,7 @@
         <v>64</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>65</v>
@@ -1920,7 +1929,7 @@
         <v>66</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>67</v>
@@ -1934,7 +1943,7 @@
         <v>68</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>69</v>
@@ -1948,7 +1957,7 @@
         <v>70</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>69</v>
@@ -1962,7 +1971,7 @@
         <v>71</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>72</v>
@@ -1976,7 +1985,7 @@
         <v>73</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>74</v>
@@ -1990,7 +1999,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>76</v>
@@ -2004,7 +2013,7 @@
         <v>77</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>76</v>
@@ -2015,13 +2024,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>134</v>
       </c>
       <c r="D64" s="4">
         <v>33</v>
@@ -2029,13 +2038,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D65" s="4">
         <v>32</v>
@@ -2043,13 +2052,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D66" s="4">
         <v>31</v>
@@ -2060,7 +2069,7 @@
         <v>78</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>79</v>
@@ -2074,7 +2083,7 @@
         <v>80</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>81</v>
@@ -2085,13 +2094,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D69" s="4">
         <v>1</v>
@@ -2099,13 +2108,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D70" s="4">
         <v>1</v>
@@ -2116,7 +2125,7 @@
         <v>82</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>83</v>
@@ -2127,41 +2136,41 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B73" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>85</v>
-      </c>
       <c r="D73" s="4">
-        <v>1</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D74" s="4">
         <v>1</v>
@@ -2169,13 +2178,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C75" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="D75" s="4">
         <v>820</v>
@@ -2183,13 +2192,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D76" s="4">
         <v>819</v>
@@ -2197,13 +2206,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="D77" s="4">
         <v>553</v>
@@ -2211,13 +2220,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="D78" s="4">
         <v>395</v>
@@ -2225,13 +2234,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C79" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="D79" s="4">
         <v>86</v>
@@ -2239,13 +2248,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D80" s="4">
         <v>87</v>
@@ -2253,27 +2262,27 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="D82" s="4">
         <v>55</v>
@@ -2281,13 +2290,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D83" s="4">
         <v>54</v>
@@ -2295,13 +2304,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D84" s="5">
         <v>994</v>
@@ -2309,13 +2318,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="D85" s="5">
         <v>695</v>
@@ -2323,27 +2332,27 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C87" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="D87" s="4">
         <v>1</v>
@@ -2351,13 +2360,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D88" s="4">
         <v>1</v>
@@ -2365,13 +2374,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C89" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="D89" s="4">
         <v>1</v>
@@ -2379,13 +2388,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D90" s="4">
         <v>884</v>
@@ -2393,13 +2402,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C91" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="D91" s="4">
         <v>53</v>
@@ -2407,13 +2416,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C92" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="D92" s="4">
         <v>107</v>
@@ -2421,13 +2430,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D93" s="4">
         <v>918</v>
@@ -2435,13 +2444,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C94" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="D94" s="4">
         <v>449</v>
@@ -2449,13 +2458,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D95" s="4">
         <v>704</v>
@@ -2463,13 +2472,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="D96" s="4">
         <v>170</v>
@@ -2477,13 +2486,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D97" s="5">
         <v>163</v>
@@ -2491,13 +2500,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D98" s="5">
         <v>799</v>
@@ -2505,13 +2514,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C99" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>118</v>
       </c>
       <c r="D99" s="5">
         <v>160</v>
@@ -2519,13 +2528,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D100" s="5">
         <v>569</v>
@@ -2533,13 +2542,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D101" s="5">
         <v>762</v>
@@ -2547,13 +2556,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C102" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>122</v>
       </c>
       <c r="D102" s="4">
         <v>211</v>
@@ -2561,13 +2570,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D103" s="4">
         <v>1</v>
@@ -2575,13 +2584,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D104" s="4">
         <v>1</v>
@@ -2589,13 +2598,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D105" s="4">
         <v>2</v>
@@ -2603,13 +2612,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D106" s="4">
         <v>1</v>
@@ -2617,27 +2626,27 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D108" s="4">
         <v>15</v>
@@ -2645,13 +2654,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C109" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>124</v>
       </c>
       <c r="D109" s="4">
         <v>1</v>
@@ -2664,18 +2673,23 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="35">
+    <cfRule type="expression" dxfId="3" priority="37">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D36 A38:D109">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D54 A56:D72 A74:D109">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A37:D37">
+  <conditionalFormatting sqref="A55:D55">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A55))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A73:D73">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A37))&gt;0</formula>
+      <formula>LEN(TRIM(A73))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/BA_ssoservi_cservico_ssala.xlsx
+++ b/pages/BA_ssoservi_cservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC0CB1D-A2B5-4710-81ED-B3F58E7785EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11649BC9-E084-4911-82B5-F19AF5B5FA7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{66DD5035-C496-4A33-BA22-CD402935C2B8}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="207">
   <si>
     <t>Complemento</t>
   </si>
@@ -146,18 +146,6 @@
     <t>S010013</t>
   </si>
   <si>
-    <t>DISPENSER P/ SABONETE LIQ. - UNICA - UNICA</t>
-  </si>
-  <si>
-    <t>S110014</t>
-  </si>
-  <si>
-    <t>DISPENSER PAPEL TOALHA - UNICA</t>
-  </si>
-  <si>
-    <t>S010063</t>
-  </si>
-  <si>
     <t>EMBALAGEM PARA PRESENTE - UNICA - UNICA</t>
   </si>
   <si>
@@ -245,15 +233,9 @@
     <t>S010026</t>
   </si>
   <si>
-    <t>LIMPADOR MULT-USO - 500ML - 500ML</t>
-  </si>
-  <si>
     <t>S010027</t>
   </si>
   <si>
-    <t>LIMPADOR MULT-USO - CIF</t>
-  </si>
-  <si>
     <t>LIVRO ATA - UNICA - UNICA</t>
   </si>
   <si>
@@ -548,12 +530,6 @@
     <t>S010038</t>
   </si>
   <si>
-    <t>DISPENSER PAPEL HIGIENICO - UNICA</t>
-  </si>
-  <si>
-    <t>S010064</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -590,9 +566,6 @@
     <t>PC C/10</t>
   </si>
   <si>
-    <t>DISPENSER ALCOOL EM GEL - UNICA</t>
-  </si>
-  <si>
     <t>FITA DUPLA FACE - UNICA</t>
   </si>
   <si>
@@ -669,6 +642,24 @@
   </si>
   <si>
     <t>PANO DE CHAO ALVEJADO - 50X75CM</t>
+  </si>
+  <si>
+    <t>DISPENSER - ALCOOL EM GEL</t>
+  </si>
+  <si>
+    <t>DISPENSER - PAPEL HIGIENICO</t>
+  </si>
+  <si>
+    <t>DISPENSER - PAPEL TOALHA</t>
+  </si>
+  <si>
+    <t>DISPENSER - SABONETE LIQUIDO</t>
+  </si>
+  <si>
+    <t>LIMPADOR MULTIUSO - 500ML - 500ML</t>
+  </si>
+  <si>
+    <t>LIMPADOR MULTIUSO - CIF</t>
   </si>
 </sst>
 </file>
@@ -776,16 +767,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <border>
         <bottom style="thin">
@@ -1128,8 +1110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A369FB58-D533-46A6-B5FA-793763E80E34}">
   <dimension ref="A1:D109"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73:D73"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58:A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1145,7 +1127,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1156,13 +1138,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D2" s="5">
         <v>1</v>
@@ -1173,7 +1155,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
@@ -1187,7 +1169,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>6</v>
@@ -1198,13 +1180,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D5" s="5">
         <v>53</v>
@@ -1212,13 +1194,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D6" s="5">
         <v>2</v>
@@ -1226,27 +1208,27 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D8" s="5">
         <v>122</v>
@@ -1257,7 +1239,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>8</v>
@@ -1271,7 +1253,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>10</v>
@@ -1285,7 +1267,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>12</v>
@@ -1299,7 +1281,7 @@
         <v>15</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>14</v>
@@ -1313,7 +1295,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>14</v>
@@ -1327,7 +1309,7 @@
         <v>16</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>17</v>
@@ -1341,7 +1323,7 @@
         <v>18</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>19</v>
@@ -1352,13 +1334,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D16" s="4">
         <v>1</v>
@@ -1369,7 +1351,7 @@
         <v>20</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>21</v>
@@ -1383,7 +1365,7 @@
         <v>22</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>21</v>
@@ -1394,10 +1376,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>21</v>
@@ -1411,7 +1393,7 @@
         <v>23</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>24</v>
@@ -1425,7 +1407,7 @@
         <v>25</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>26</v>
@@ -1439,7 +1421,7 @@
         <v>27</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>28</v>
@@ -1450,13 +1432,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D23" s="5">
         <v>904</v>
@@ -1464,13 +1446,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D24" s="4">
         <v>903</v>
@@ -1481,7 +1463,7 @@
         <v>29</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>30</v>
@@ -1492,10 +1474,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>30</v>
@@ -1506,13 +1488,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="D27" s="5">
         <v>1</v>
@@ -1523,7 +1505,7 @@
         <v>31</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>32</v>
@@ -1537,7 +1519,7 @@
         <v>33</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>34</v>
@@ -1548,69 +1530,69 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D30" s="4">
-        <v>1</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>35</v>
+        <v>202</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>36</v>
+        <v>139</v>
       </c>
       <c r="D31" s="4">
-        <v>1</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>169</v>
+        <v>203</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>171</v>
+        <v>139</v>
+      </c>
+      <c r="D32" s="4">
+        <v>1178</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>37</v>
+        <v>204</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>38</v>
+        <v>139</v>
       </c>
       <c r="D33" s="4">
-        <v>1</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D34" s="5">
         <v>1</v>
@@ -1618,27 +1600,27 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D36" s="4">
         <v>1</v>
@@ -1646,13 +1628,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D37" s="4">
         <v>1159</v>
@@ -1660,13 +1642,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D38" s="4">
         <v>1</v>
@@ -1674,13 +1656,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D39" s="5">
         <v>899</v>
@@ -1688,13 +1670,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D40" s="5">
         <v>896</v>
@@ -1702,13 +1684,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D41" s="5">
         <v>900</v>
@@ -1716,13 +1698,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D42" s="5">
         <v>898</v>
@@ -1730,13 +1712,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D43" s="5">
         <v>1</v>
@@ -1744,13 +1726,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D44" s="4">
         <v>750</v>
@@ -1758,13 +1740,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D45" s="4">
         <v>166</v>
@@ -1772,13 +1754,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D46" s="4">
         <v>167</v>
@@ -1786,27 +1768,27 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D48" s="4">
         <v>1</v>
@@ -1814,13 +1796,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D49" s="4">
         <v>80</v>
@@ -1828,13 +1810,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D50" s="4">
         <v>80</v>
@@ -1842,13 +1824,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D51" s="4">
         <v>835</v>
@@ -1856,13 +1838,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D52" s="4">
         <v>1</v>
@@ -1870,13 +1852,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D53" s="5">
         <v>1</v>
@@ -1884,13 +1866,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D54" s="5">
         <v>1</v>
@@ -1898,13 +1880,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="D55" s="4">
         <v>1163</v>
@@ -1912,13 +1894,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D56" s="4">
         <v>40</v>
@@ -1926,13 +1908,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D57" s="4">
         <v>103</v>
@@ -1940,13 +1922,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>68</v>
+        <v>205</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D58" s="4">
         <v>103</v>
@@ -1954,13 +1936,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>70</v>
+        <v>206</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D59" s="4">
         <v>910</v>
@@ -1968,13 +1950,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D60" s="4">
         <v>1</v>
@@ -1982,13 +1964,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D61" s="4">
         <v>745</v>
@@ -1996,13 +1978,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D62" s="4">
         <v>33</v>
@@ -2010,13 +1992,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D63" s="4">
         <v>32</v>
@@ -2024,13 +2006,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D64" s="4">
         <v>33</v>
@@ -2038,13 +2020,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D65" s="4">
         <v>32</v>
@@ -2052,13 +2034,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D66" s="4">
         <v>31</v>
@@ -2066,13 +2048,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D67" s="4">
         <v>2</v>
@@ -2080,13 +2062,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D68" s="4">
         <v>1</v>
@@ -2094,13 +2076,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="D69" s="4">
         <v>1</v>
@@ -2108,13 +2090,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D70" s="4">
         <v>1</v>
@@ -2122,13 +2104,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D71" s="4">
         <v>211</v>
@@ -2136,27 +2118,27 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D73" s="4">
         <v>1166</v>
@@ -2164,13 +2146,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D74" s="4">
         <v>1</v>
@@ -2178,13 +2160,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D75" s="4">
         <v>820</v>
@@ -2192,13 +2174,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D76" s="4">
         <v>819</v>
@@ -2206,13 +2188,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D77" s="4">
         <v>553</v>
@@ -2220,13 +2202,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D78" s="4">
         <v>395</v>
@@ -2234,13 +2216,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D79" s="4">
         <v>86</v>
@@ -2248,13 +2230,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D80" s="4">
         <v>87</v>
@@ -2262,27 +2244,27 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D82" s="4">
         <v>55</v>
@@ -2290,13 +2272,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D83" s="4">
         <v>54</v>
@@ -2304,13 +2286,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D84" s="5">
         <v>994</v>
@@ -2318,13 +2300,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D85" s="5">
         <v>695</v>
@@ -2332,27 +2314,27 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D87" s="4">
         <v>1</v>
@@ -2360,13 +2342,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D88" s="4">
         <v>1</v>
@@ -2374,13 +2356,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D89" s="4">
         <v>1</v>
@@ -2388,13 +2370,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D90" s="4">
         <v>884</v>
@@ -2402,13 +2384,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D91" s="4">
         <v>53</v>
@@ -2416,13 +2398,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D92" s="4">
         <v>107</v>
@@ -2430,13 +2412,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D93" s="4">
         <v>918</v>
@@ -2444,13 +2426,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D94" s="4">
         <v>449</v>
@@ -2458,13 +2440,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D95" s="4">
         <v>704</v>
@@ -2472,13 +2454,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D96" s="4">
         <v>170</v>
@@ -2486,13 +2468,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D97" s="5">
         <v>163</v>
@@ -2500,13 +2482,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D98" s="5">
         <v>799</v>
@@ -2514,13 +2496,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D99" s="5">
         <v>160</v>
@@ -2528,13 +2510,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D100" s="5">
         <v>569</v>
@@ -2542,13 +2524,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D101" s="5">
         <v>762</v>
@@ -2556,13 +2538,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D102" s="4">
         <v>211</v>
@@ -2570,13 +2552,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D103" s="4">
         <v>1</v>
@@ -2584,13 +2566,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D104" s="4">
         <v>1</v>
@@ -2598,13 +2580,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D105" s="4">
         <v>2</v>
@@ -2612,13 +2594,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D106" s="4">
         <v>1</v>
@@ -2626,27 +2608,27 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D108" s="4">
         <v>15</v>
@@ -2654,13 +2636,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D109" s="4">
         <v>1</v>
@@ -2673,23 +2655,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="3" priority="37">
+    <cfRule type="expression" dxfId="2" priority="39">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D54 A56:D72 A74:D109">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
+  <conditionalFormatting sqref="A2:D57 A60:D109 B58:D59">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A55:D55">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
-      <formula>LEN(TRIM(A55))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A73:D73">
+  <conditionalFormatting sqref="A58:A59">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A73))&gt;0</formula>
+      <formula>LEN(TRIM(A58))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/BA_ssoservi_cservico_ssala.xlsx
+++ b/pages/BA_ssoservi_cservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11649BC9-E084-4911-82B5-F19AF5B5FA7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0EFAA38-7443-4C14-88F9-4CD105BBF74C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{66DD5035-C496-4A33-BA22-CD402935C2B8}"/>
   </bookViews>
@@ -50,9 +50,6 @@
     <t>Derivação</t>
   </si>
   <si>
-    <t>ALCOOL 70% PARA PROCEDIMENTO - 1000ML - 1000ML</t>
-  </si>
-  <si>
     <t>S010004</t>
   </si>
   <si>
@@ -191,9 +188,6 @@
     <t>FITA ADESIVA TRANSPARENTE - 45CMX45M</t>
   </si>
   <si>
-    <t>FLANELA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S010021</t>
   </si>
   <si>
@@ -248,24 +242,15 @@
     <t>S110045</t>
   </si>
   <si>
-    <t>LUVA MULTIUSO DE LATEX - TAMANHO G - TAMANHO G</t>
-  </si>
-  <si>
     <t>S010030</t>
   </si>
   <si>
-    <t>LUVA MULTIUSO DE LATEX - TAMANHO M - TAMANHO M</t>
-  </si>
-  <si>
     <t>MARCADOR QUADRO BRANCO - AZUL - AZUL</t>
   </si>
   <si>
     <t>S020101</t>
   </si>
   <si>
-    <t>MASCARA DESCARTAVEL - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S010032</t>
   </si>
   <si>
@@ -419,15 +404,9 @@
     <t>S150191</t>
   </si>
   <si>
-    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO G - TAMANHO G</t>
-  </si>
-  <si>
     <t>S010031</t>
   </si>
   <si>
-    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO P - TAMANHO P</t>
-  </si>
-  <si>
     <t>SACO DE LIXO INFECTANTE - 50LTS</t>
   </si>
   <si>
@@ -470,9 +449,6 @@
     <t>S020041</t>
   </si>
   <si>
-    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO M - TAMANHO M</t>
-  </si>
-  <si>
     <t>QUADRO DE AVISO - UNICA</t>
   </si>
   <si>
@@ -524,9 +500,6 @@
     <t>S010034</t>
   </si>
   <si>
-    <t>PANO DE PRATO - UNICA</t>
-  </si>
-  <si>
     <t>S010038</t>
   </si>
   <si>
@@ -660,6 +633,33 @@
   </si>
   <si>
     <t>LIMPADOR MULTIUSO - CIF</t>
+  </si>
+  <si>
+    <t>ALCOOL LIQUIDO 70º - 1000ML - 1000ML</t>
+  </si>
+  <si>
+    <t>FLANELA - 29cm X 49cm - 29cm X 49cm</t>
+  </si>
+  <si>
+    <t>LUVA MULTIUSO DE LATEX - TAMANHO G</t>
+  </si>
+  <si>
+    <t>LUVA MULTIUSO DE LATEX - TAMANHO M</t>
+  </si>
+  <si>
+    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO G</t>
+  </si>
+  <si>
+    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO M</t>
+  </si>
+  <si>
+    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO P</t>
+  </si>
+  <si>
+    <t>MASCARA DESCARTAVEL - UNICA</t>
+  </si>
+  <si>
+    <t>PANO DE PRATO - 50X75CM</t>
   </si>
 </sst>
 </file>
@@ -767,7 +767,61 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="9">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -1110,8 +1164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A369FB58-D533-46A6-B5FA-793763E80E34}">
   <dimension ref="A1:D109"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58:A59"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74:D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1127,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1138,13 +1192,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D2" s="5">
         <v>1</v>
@@ -1152,13 +1206,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>4</v>
       </c>
       <c r="D3" s="4">
         <v>105</v>
@@ -1166,13 +1220,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>6</v>
       </c>
       <c r="D4" s="4">
         <v>103</v>
@@ -1180,13 +1234,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D5" s="5">
         <v>53</v>
@@ -1194,13 +1248,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D6" s="5">
         <v>2</v>
@@ -1208,27 +1262,27 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D8" s="5">
         <v>122</v>
@@ -1236,13 +1290,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>8</v>
       </c>
       <c r="D9" s="5">
         <v>809</v>
@@ -1250,13 +1304,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="D10" s="5">
         <v>1045</v>
@@ -1264,13 +1318,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="D11" s="4">
         <v>103</v>
@@ -1278,13 +1332,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" s="4">
         <v>33</v>
@@ -1292,13 +1346,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="D13" s="4">
         <v>31</v>
@@ -1306,13 +1360,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="D14" s="4">
         <v>20</v>
@@ -1320,13 +1374,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="D15" s="4">
         <v>1</v>
@@ -1334,13 +1388,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D16" s="4">
         <v>1</v>
@@ -1348,13 +1402,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="D17" s="4">
         <v>2</v>
@@ -1362,13 +1416,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D18" s="4">
         <v>3</v>
@@ -1376,13 +1430,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D19" s="4">
         <v>4</v>
@@ -1390,13 +1444,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="D20" s="4">
         <v>1</v>
@@ -1404,13 +1458,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="D21" s="4">
         <v>1</v>
@@ -1418,13 +1472,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="D22" s="4">
         <v>52</v>
@@ -1432,13 +1486,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D23" s="5">
         <v>904</v>
@@ -1446,13 +1500,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D24" s="4">
         <v>903</v>
@@ -1460,13 +1514,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="D25" s="4">
         <v>108</v>
@@ -1474,13 +1528,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D26" s="4">
         <v>100</v>
@@ -1488,13 +1542,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="D27" s="5">
         <v>1</v>
@@ -1502,13 +1556,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="D28" s="4">
         <v>107</v>
@@ -1516,13 +1570,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="D29" s="4">
         <v>103</v>
@@ -1530,13 +1584,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D30" s="4">
         <v>1176</v>
@@ -1544,13 +1598,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D31" s="4">
         <v>1177</v>
@@ -1558,13 +1612,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D32" s="4">
         <v>1178</v>
@@ -1572,13 +1626,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D33" s="4">
         <v>1179</v>
@@ -1586,13 +1640,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="D34" s="5">
         <v>1</v>
@@ -1600,27 +1654,27 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="D36" s="4">
         <v>1</v>
@@ -1628,13 +1682,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D37" s="4">
         <v>1159</v>
@@ -1642,13 +1696,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="D38" s="4">
         <v>1</v>
@@ -1656,13 +1710,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="D39" s="5">
         <v>899</v>
@@ -1670,13 +1724,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D40" s="5">
         <v>896</v>
@@ -1684,13 +1738,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D41" s="5">
         <v>900</v>
@@ -1698,13 +1752,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D42" s="5">
         <v>898</v>
@@ -1712,13 +1766,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D43" s="5">
         <v>1</v>
@@ -1726,13 +1780,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="D44" s="4">
         <v>750</v>
@@ -1740,13 +1794,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>48</v>
       </c>
       <c r="D45" s="4">
         <v>166</v>
@@ -1754,13 +1808,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D46" s="4">
         <v>167</v>
@@ -1768,41 +1822,41 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>50</v>
+        <v>199</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D48" s="4">
-        <v>1</v>
+        <v>448</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D49" s="4">
         <v>80</v>
@@ -1810,13 +1864,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D50" s="4">
         <v>80</v>
@@ -1824,13 +1878,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D51" s="4">
         <v>835</v>
@@ -1838,13 +1892,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D52" s="4">
         <v>1</v>
@@ -1852,13 +1906,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D53" s="5">
         <v>1</v>
@@ -1866,13 +1920,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D54" s="5">
         <v>1</v>
@@ -1880,13 +1934,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="D55" s="4">
         <v>1163</v>
@@ -1894,13 +1948,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D56" s="4">
         <v>40</v>
@@ -1908,13 +1962,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D57" s="4">
         <v>103</v>
@@ -1922,13 +1976,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D58" s="4">
         <v>103</v>
@@ -1936,13 +1990,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D59" s="4">
         <v>910</v>
@@ -1950,13 +2004,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D60" s="4">
         <v>1</v>
@@ -1964,13 +2018,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D61" s="4">
         <v>745</v>
@@ -1978,13 +2032,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>69</v>
+        <v>200</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D62" s="4">
         <v>33</v>
@@ -1992,13 +2046,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>71</v>
+        <v>201</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D63" s="4">
         <v>32</v>
@@ -2006,13 +2060,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>126</v>
+        <v>202</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D64" s="4">
         <v>33</v>
@@ -2020,13 +2074,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>143</v>
+        <v>203</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D65" s="4">
         <v>32</v>
@@ -2034,13 +2088,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>128</v>
+        <v>204</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D66" s="4">
         <v>31</v>
@@ -2048,13 +2102,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D67" s="4">
         <v>2</v>
@@ -2062,13 +2116,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D68" s="4">
         <v>1</v>
@@ -2076,13 +2130,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="D69" s="4">
         <v>1</v>
@@ -2090,13 +2144,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D70" s="4">
         <v>1</v>
@@ -2104,13 +2158,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D71" s="4">
         <v>211</v>
@@ -2118,27 +2172,27 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D73" s="4">
         <v>1166</v>
@@ -2146,27 +2200,27 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="D74" s="4">
-        <v>1</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D75" s="4">
         <v>820</v>
@@ -2174,13 +2228,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D76" s="4">
         <v>819</v>
@@ -2188,13 +2242,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D77" s="4">
         <v>553</v>
@@ -2202,13 +2256,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D78" s="4">
         <v>395</v>
@@ -2216,13 +2270,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D79" s="4">
         <v>86</v>
@@ -2230,13 +2284,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D80" s="4">
         <v>87</v>
@@ -2244,27 +2298,27 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D82" s="4">
         <v>55</v>
@@ -2272,13 +2326,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D83" s="4">
         <v>54</v>
@@ -2286,13 +2340,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D84" s="5">
         <v>994</v>
@@ -2300,13 +2354,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D85" s="5">
         <v>695</v>
@@ -2314,27 +2368,27 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D87" s="4">
         <v>1</v>
@@ -2342,13 +2396,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D88" s="4">
         <v>1</v>
@@ -2356,13 +2410,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D89" s="4">
         <v>1</v>
@@ -2370,13 +2424,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="D90" s="4">
         <v>884</v>
@@ -2384,13 +2438,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D91" s="4">
         <v>53</v>
@@ -2398,13 +2452,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D92" s="4">
         <v>107</v>
@@ -2412,13 +2466,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D93" s="4">
         <v>918</v>
@@ -2426,13 +2480,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D94" s="4">
         <v>449</v>
@@ -2440,13 +2494,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D95" s="4">
         <v>704</v>
@@ -2454,13 +2508,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D96" s="4">
         <v>170</v>
@@ -2468,13 +2522,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D97" s="5">
         <v>163</v>
@@ -2482,13 +2536,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D98" s="5">
         <v>799</v>
@@ -2496,13 +2550,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D99" s="5">
         <v>160</v>
@@ -2510,13 +2564,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D100" s="5">
         <v>569</v>
@@ -2524,13 +2578,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D101" s="5">
         <v>762</v>
@@ -2538,13 +2592,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D102" s="4">
         <v>211</v>
@@ -2552,13 +2606,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D103" s="4">
         <v>1</v>
@@ -2566,13 +2620,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D104" s="4">
         <v>1</v>
@@ -2580,13 +2634,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D105" s="4">
         <v>2</v>
@@ -2594,13 +2648,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D106" s="4">
         <v>1</v>
@@ -2608,27 +2662,27 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D108" s="4">
         <v>15</v>
@@ -2636,13 +2690,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D109" s="4">
         <v>1</v>
@@ -2655,18 +2709,48 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="39">
+    <cfRule type="expression" dxfId="8" priority="46">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D57 A60:D109 B58:D59">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D2 A4:D47 A49:D61 A67:D67 A69:D73 A75:D109">
+    <cfRule type="notContainsBlanks" dxfId="7" priority="8">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A58:A59">
+  <conditionalFormatting sqref="A3:D3">
+    <cfRule type="notContainsBlanks" dxfId="6" priority="7">
+      <formula>LEN(TRIM(A3))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A48:D48">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="6">
+      <formula>LEN(TRIM(A48))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B64:D66 A62:D63">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="5">
+      <formula>LEN(TRIM(A62))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A64:A66">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
+      <formula>LEN(TRIM(A64))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B68:D68">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
+      <formula>LEN(TRIM(B68))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A68">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A68))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A74:D74">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A58))&gt;0</formula>
+      <formula>LEN(TRIM(A74))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/BA_ssoservi_cservico_ssala.xlsx
+++ b/pages/BA_ssoservi_cservico_ssala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0EFAA38-7443-4C14-88F9-4CD105BBF74C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B158FF-7E4F-4564-94F9-0752AC031C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{66DD5035-C496-4A33-BA22-CD402935C2B8}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="205">
   <si>
     <t>Complemento</t>
   </si>
@@ -488,18 +488,6 @@
     <t>S110003</t>
   </si>
   <si>
-    <t>KIT MOP UMIDO - UNICA</t>
-  </si>
-  <si>
-    <t>S010086</t>
-  </si>
-  <si>
-    <t>MOP UMIDO REFIL - UNICA - UNICA</t>
-  </si>
-  <si>
-    <t>S010034</t>
-  </si>
-  <si>
     <t>S010038</t>
   </si>
   <si>
@@ -572,12 +560,6 @@
     <t>S150189</t>
   </si>
   <si>
-    <t>MOP PO REFIL - UNICA</t>
-  </si>
-  <si>
-    <t>S010076</t>
-  </si>
-  <si>
     <t>AVENTAL C/ MANGA - UNICA</t>
   </si>
   <si>
@@ -660,6 +642,18 @@
   </si>
   <si>
     <t>PANO DE PRATO - 50X75CM</t>
+  </si>
+  <si>
+    <t>MOP - KIT UMIDO</t>
+  </si>
+  <si>
+    <t>S010075</t>
+  </si>
+  <si>
+    <t>MOP - REFIL PO</t>
+  </si>
+  <si>
+    <t>MOP - REFIL UMIDO</t>
   </si>
 </sst>
 </file>
@@ -767,61 +761,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <border>
         <bottom style="thin">
@@ -1164,8 +1104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A369FB58-D533-46A6-B5FA-793763E80E34}">
   <dimension ref="A1:D109"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74:D74"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68:D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1181,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1195,7 +1135,7 @@
         <v>115</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>116</v>
@@ -1206,10 +1146,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>3</v>
@@ -1223,7 +1163,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>5</v>
@@ -1237,7 +1177,7 @@
         <v>113</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>114</v>
@@ -1251,7 +1191,7 @@
         <v>127</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>128</v>
@@ -1262,16 +1202,16 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1279,7 +1219,7 @@
         <v>147</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>148</v>
@@ -1293,7 +1233,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>7</v>
@@ -1307,7 +1247,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>9</v>
@@ -1321,7 +1261,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>11</v>
@@ -1335,7 +1275,7 @@
         <v>14</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>13</v>
@@ -1349,7 +1289,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>13</v>
@@ -1363,7 +1303,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>16</v>
@@ -1377,7 +1317,7 @@
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>18</v>
@@ -1391,7 +1331,7 @@
         <v>130</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>146</v>
@@ -1405,7 +1345,7 @@
         <v>19</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>20</v>
@@ -1419,7 +1359,7 @@
         <v>21</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>20</v>
@@ -1433,7 +1373,7 @@
         <v>129</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>20</v>
@@ -1447,7 +1387,7 @@
         <v>22</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>23</v>
@@ -1461,7 +1401,7 @@
         <v>24</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>25</v>
@@ -1475,7 +1415,7 @@
         <v>26</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>27</v>
@@ -1489,7 +1429,7 @@
         <v>117</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>118</v>
@@ -1503,7 +1443,7 @@
         <v>131</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>118</v>
@@ -1517,7 +1457,7 @@
         <v>28</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>29</v>
@@ -1531,7 +1471,7 @@
         <v>126</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>29</v>
@@ -1542,13 +1482,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D27" s="5">
         <v>1</v>
@@ -1559,7 +1499,7 @@
         <v>30</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>31</v>
@@ -1573,7 +1513,7 @@
         <v>32</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>33</v>
@@ -1584,10 +1524,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>132</v>
@@ -1598,10 +1538,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>132</v>
@@ -1612,10 +1552,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>132</v>
@@ -1626,10 +1566,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>132</v>
@@ -1643,7 +1583,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>35</v>
@@ -1654,16 +1594,16 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>135</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1671,7 +1611,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>37</v>
@@ -1682,10 +1622,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>38</v>
@@ -1699,7 +1639,7 @@
         <v>39</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>40</v>
@@ -1713,7 +1653,7 @@
         <v>41</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>42</v>
@@ -1727,7 +1667,7 @@
         <v>43</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>42</v>
@@ -1741,7 +1681,7 @@
         <v>44</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>42</v>
@@ -1755,7 +1695,7 @@
         <v>45</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>42</v>
@@ -1769,7 +1709,7 @@
         <v>133</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>134</v>
@@ -1780,13 +1720,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D44" s="4">
         <v>750</v>
@@ -1797,7 +1737,7 @@
         <v>46</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>47</v>
@@ -1811,7 +1751,7 @@
         <v>48</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>47</v>
@@ -1822,24 +1762,24 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>49</v>
@@ -1853,7 +1793,7 @@
         <v>50</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>51</v>
@@ -1867,7 +1807,7 @@
         <v>52</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>53</v>
@@ -1881,7 +1821,7 @@
         <v>54</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>55</v>
@@ -1892,27 +1832,27 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>149</v>
+        <v>56</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D52" s="4">
+        <v>57</v>
+      </c>
+      <c r="D52" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>56</v>
+        <v>119</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>57</v>
+        <v>120</v>
       </c>
       <c r="D53" s="5">
         <v>1</v>
@@ -1920,55 +1860,55 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>119</v>
+        <v>183</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D54" s="5">
-        <v>1</v>
+        <v>184</v>
+      </c>
+      <c r="D54" s="4">
+        <v>1163</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>189</v>
+        <v>58</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>190</v>
+        <v>59</v>
       </c>
       <c r="D55" s="4">
-        <v>1163</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D56" s="4">
-        <v>40</v>
+        <v>103</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>60</v>
+        <v>190</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D57" s="4">
         <v>103</v>
@@ -1976,184 +1916,184 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>62</v>
       </c>
       <c r="D58" s="4">
-        <v>103</v>
+        <v>910</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>197</v>
+        <v>63</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D59" s="4">
-        <v>910</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D60" s="4">
-        <v>1</v>
+        <v>745</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>65</v>
+        <v>194</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D61" s="4">
-        <v>745</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>67</v>
       </c>
       <c r="D62" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>67</v>
+        <v>121</v>
       </c>
       <c r="D63" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>121</v>
       </c>
       <c r="D64" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>121</v>
       </c>
       <c r="D65" s="4">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>204</v>
+        <v>68</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>121</v>
+        <v>69</v>
       </c>
       <c r="D66" s="4">
-        <v>31</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>68</v>
+        <v>199</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D67" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>70</v>
+        <v>202</v>
       </c>
       <c r="D68" s="4">
-        <v>1</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>177</v>
+        <v>203</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="D69" s="4">
-        <v>1</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>151</v>
+        <v>204</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>152</v>
+        <v>202</v>
       </c>
       <c r="D70" s="4">
-        <v>1</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -2161,7 +2101,7 @@
         <v>71</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>72</v>
@@ -2172,24 +2112,24 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>73</v>
@@ -2200,13 +2140,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D74" s="4">
         <v>1167</v>
@@ -2217,7 +2157,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>75</v>
@@ -2231,7 +2171,7 @@
         <v>76</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>75</v>
@@ -2245,7 +2185,7 @@
         <v>77</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>78</v>
@@ -2259,7 +2199,7 @@
         <v>79</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>80</v>
@@ -2273,7 +2213,7 @@
         <v>81</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>82</v>
@@ -2287,7 +2227,7 @@
         <v>83</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>82</v>
@@ -2298,16 +2238,16 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>82</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -2315,7 +2255,7 @@
         <v>84</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>85</v>
@@ -2329,7 +2269,7 @@
         <v>86</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>85</v>
@@ -2343,7 +2283,7 @@
         <v>89</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>88</v>
@@ -2357,7 +2297,7 @@
         <v>87</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>88</v>
@@ -2368,16 +2308,16 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -2385,7 +2325,7 @@
         <v>90</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>91</v>
@@ -2399,7 +2339,7 @@
         <v>136</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>137</v>
@@ -2413,7 +2353,7 @@
         <v>92</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>93</v>
@@ -2424,13 +2364,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D90" s="4">
         <v>884</v>
@@ -2441,7 +2381,7 @@
         <v>94</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>95</v>
@@ -2455,7 +2395,7 @@
         <v>96</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>97</v>
@@ -2469,7 +2409,7 @@
         <v>122</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>123</v>
@@ -2483,7 +2423,7 @@
         <v>98</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>99</v>
@@ -2497,7 +2437,7 @@
         <v>100</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>99</v>
@@ -2511,7 +2451,7 @@
         <v>101</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>102</v>
@@ -2525,7 +2465,7 @@
         <v>103</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>102</v>
@@ -2539,7 +2479,7 @@
         <v>104</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>102</v>
@@ -2553,7 +2493,7 @@
         <v>105</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>106</v>
@@ -2567,7 +2507,7 @@
         <v>107</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>106</v>
@@ -2581,7 +2521,7 @@
         <v>108</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>106</v>
@@ -2595,7 +2535,7 @@
         <v>109</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>110</v>
@@ -2609,7 +2549,7 @@
         <v>140</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>141</v>
@@ -2623,7 +2563,7 @@
         <v>142</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>143</v>
@@ -2637,7 +2577,7 @@
         <v>138</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>139</v>
@@ -2651,7 +2591,7 @@
         <v>124</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>125</v>
@@ -2662,16 +2602,16 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -2679,7 +2619,7 @@
         <v>145</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>144</v>
@@ -2693,7 +2633,7 @@
         <v>111</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>112</v>
@@ -2709,48 +2649,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="8" priority="46">
+    <cfRule type="expression" dxfId="2" priority="47">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D2 A4:D47 A49:D61 A67:D67 A69:D73 A75:D109">
-    <cfRule type="notContainsBlanks" dxfId="7" priority="8">
+  <conditionalFormatting sqref="A2:D67 A71:D109">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:D3">
-    <cfRule type="notContainsBlanks" dxfId="6" priority="7">
-      <formula>LEN(TRIM(A3))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A48:D48">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="6">
-      <formula>LEN(TRIM(A48))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B64:D66 A62:D63">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="5">
-      <formula>LEN(TRIM(A62))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A64:A66">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
-      <formula>LEN(TRIM(A64))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B68:D68">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
-      <formula>LEN(TRIM(B68))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A68">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A68:D70">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A68))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A74:D74">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A74))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/BA_ssoservi_cservico_ssala.xlsx
+++ b/pages/BA_ssoservi_cservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B158FF-7E4F-4564-94F9-0752AC031C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C53F6D-551A-4A54-9294-1F15FA35B580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{66DD5035-C496-4A33-BA22-CD402935C2B8}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$108</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$109</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="206">
   <si>
     <t>Complemento</t>
   </si>
@@ -242,9 +242,6 @@
     <t>S110045</t>
   </si>
   <si>
-    <t>S010030</t>
-  </si>
-  <si>
     <t>MARCADOR QUADRO BRANCO - AZUL - AZUL</t>
   </si>
   <si>
@@ -386,9 +383,6 @@
     <t>S010005</t>
   </si>
   <si>
-    <t>AGULHA - UNICA</t>
-  </si>
-  <si>
     <t>S010072</t>
   </si>
   <si>
@@ -404,9 +398,6 @@
     <t>S150191</t>
   </si>
   <si>
-    <t>S010031</t>
-  </si>
-  <si>
     <t>SACO DE LIXO INFECTANTE - 50LTS</t>
   </si>
   <si>
@@ -623,21 +614,6 @@
     <t>FLANELA - 29cm X 49cm - 29cm X 49cm</t>
   </si>
   <si>
-    <t>LUVA MULTIUSO DE LATEX - TAMANHO G</t>
-  </si>
-  <si>
-    <t>LUVA MULTIUSO DE LATEX - TAMANHO M</t>
-  </si>
-  <si>
-    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO G</t>
-  </si>
-  <si>
-    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO M</t>
-  </si>
-  <si>
-    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO P</t>
-  </si>
-  <si>
     <t>MASCARA DESCARTAVEL - UNICA</t>
   </si>
   <si>
@@ -654,6 +630,33 @@
   </si>
   <si>
     <t>MOP - REFIL UMIDO</t>
+  </si>
+  <si>
+    <t>AGULHA 12X40MM - 100UN</t>
+  </si>
+  <si>
+    <t>LUVA MULTIUSO DE LATEX - TAM.G - TAM.G</t>
+  </si>
+  <si>
+    <t>S080024</t>
+  </si>
+  <si>
+    <t>LUVA MULTIUSO DE LATEX - TAM.M - TAM.M</t>
+  </si>
+  <si>
+    <t>LUVA MULTIUSO DE LATEX - TAM.P - TAM.P</t>
+  </si>
+  <si>
+    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAM.G - TAM.G</t>
+  </si>
+  <si>
+    <t>S080023</t>
+  </si>
+  <si>
+    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAM.M - TAM.M</t>
+  </si>
+  <si>
+    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAM.P - TAM.P</t>
   </si>
 </sst>
 </file>
@@ -761,16 +764,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <border>
         <bottom style="thin">
@@ -1102,10 +1096,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A369FB58-D533-46A6-B5FA-793763E80E34}">
-  <dimension ref="A1:D109"/>
+  <dimension ref="A1:D110"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68:D70"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64:B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1121,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1132,24 +1126,24 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>115</v>
+        <v>197</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D2" s="5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>3</v>
@@ -1163,7 +1157,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>5</v>
@@ -1174,13 +1168,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="D5" s="5">
         <v>53</v>
@@ -1188,13 +1182,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D6" s="5">
         <v>2</v>
@@ -1202,27 +1196,27 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D8" s="5">
         <v>122</v>
@@ -1233,7 +1227,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>7</v>
@@ -1247,7 +1241,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>9</v>
@@ -1261,7 +1255,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>11</v>
@@ -1275,7 +1269,7 @@
         <v>14</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>13</v>
@@ -1289,7 +1283,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>13</v>
@@ -1303,7 +1297,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>16</v>
@@ -1317,7 +1311,7 @@
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>18</v>
@@ -1328,13 +1322,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D16" s="4">
         <v>1</v>
@@ -1345,7 +1339,7 @@
         <v>19</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>20</v>
@@ -1359,7 +1353,7 @@
         <v>21</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>20</v>
@@ -1370,10 +1364,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>20</v>
@@ -1387,7 +1381,7 @@
         <v>22</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>23</v>
@@ -1401,7 +1395,7 @@
         <v>24</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>25</v>
@@ -1415,7 +1409,7 @@
         <v>26</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>27</v>
@@ -1426,13 +1420,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D23" s="5">
         <v>904</v>
@@ -1440,13 +1434,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D24" s="4">
         <v>903</v>
@@ -1457,7 +1451,7 @@
         <v>28</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>29</v>
@@ -1468,10 +1462,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>29</v>
@@ -1482,13 +1476,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D27" s="5">
         <v>1</v>
@@ -1499,7 +1493,7 @@
         <v>30</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>31</v>
@@ -1513,7 +1507,7 @@
         <v>32</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>33</v>
@@ -1524,13 +1518,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D30" s="4">
         <v>1176</v>
@@ -1538,13 +1532,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D31" s="4">
         <v>1177</v>
@@ -1552,13 +1546,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D32" s="4">
         <v>1178</v>
@@ -1566,13 +1560,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D33" s="4">
         <v>1179</v>
@@ -1583,7 +1577,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>35</v>
@@ -1594,16 +1588,16 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1611,7 +1605,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>37</v>
@@ -1622,16 +1616,16 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D37" s="4">
-        <v>1159</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1639,7 +1633,7 @@
         <v>39</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>40</v>
@@ -1653,7 +1647,7 @@
         <v>41</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>42</v>
@@ -1667,7 +1661,7 @@
         <v>43</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>42</v>
@@ -1681,7 +1675,7 @@
         <v>44</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>42</v>
@@ -1695,7 +1689,7 @@
         <v>45</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>42</v>
@@ -1706,13 +1700,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D43" s="5">
         <v>1</v>
@@ -1720,13 +1714,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D44" s="4">
         <v>750</v>
@@ -1737,7 +1731,7 @@
         <v>46</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>47</v>
@@ -1751,7 +1745,7 @@
         <v>48</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>47</v>
@@ -1762,24 +1756,24 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>49</v>
@@ -1793,7 +1787,7 @@
         <v>50</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>51</v>
@@ -1807,7 +1801,7 @@
         <v>52</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>53</v>
@@ -1821,7 +1815,7 @@
         <v>54</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>55</v>
@@ -1835,7 +1829,7 @@
         <v>56</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>57</v>
@@ -1846,13 +1840,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D53" s="5">
         <v>1</v>
@@ -1860,13 +1854,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D54" s="4">
         <v>1163</v>
@@ -1877,7 +1871,7 @@
         <v>58</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>59</v>
@@ -1891,7 +1885,7 @@
         <v>60</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>61</v>
@@ -1902,10 +1896,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>62</v>
@@ -1916,10 +1910,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>62</v>
@@ -1933,7 +1927,7 @@
         <v>63</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>64</v>
@@ -1947,7 +1941,7 @@
         <v>65</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>66</v>
@@ -1958,13 +1952,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>67</v>
+        <v>199</v>
       </c>
       <c r="D61" s="4">
         <v>33</v>
@@ -1972,377 +1966,377 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>67</v>
+        <v>199</v>
       </c>
       <c r="D62" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>121</v>
+        <v>199</v>
       </c>
       <c r="D63" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>121</v>
+        <v>203</v>
       </c>
       <c r="D64" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>121</v>
+        <v>203</v>
       </c>
       <c r="D65" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>68</v>
+        <v>205</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>69</v>
+        <v>203</v>
       </c>
       <c r="D66" s="4">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>199</v>
+        <v>67</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D67" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>202</v>
+        <v>69</v>
       </c>
       <c r="D68" s="4">
-        <v>1172</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="D69" s="4">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="D70" s="4">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>71</v>
+        <v>196</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>72</v>
+        <v>194</v>
       </c>
       <c r="D71" s="4">
-        <v>211</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>164</v>
+        <v>70</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>166</v>
+        <v>71</v>
+      </c>
+      <c r="D72" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D73" s="4">
-        <v>1166</v>
+        <v>162</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>149</v>
+        <v>72</v>
       </c>
       <c r="D74" s="4">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>74</v>
+        <v>192</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>75</v>
+        <v>146</v>
       </c>
       <c r="D75" s="4">
-        <v>820</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D76" s="4">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D77" s="4">
-        <v>553</v>
+        <v>819</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>152</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D78" s="4">
-        <v>395</v>
+        <v>553</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D79" s="4">
-        <v>86</v>
+        <v>395</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D80" s="4">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>167</v>
+        <v>82</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>168</v>
+        <v>81</v>
+      </c>
+      <c r="D81" s="4">
+        <v>87</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>84</v>
+        <v>164</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D82" s="4">
-        <v>55</v>
+        <v>81</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D83" s="4">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D84" s="5">
-        <v>994</v>
+        <v>84</v>
+      </c>
+      <c r="D84" s="4">
+        <v>54</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B85" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>88</v>
-      </c>
       <c r="D85" s="5">
-        <v>695</v>
+        <v>994</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>169</v>
+        <v>86</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>150</v>
+        <v>87</v>
+      </c>
+      <c r="D86" s="5">
+        <v>695</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>90</v>
+        <v>166</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D87" s="4">
-        <v>1</v>
+        <v>167</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>136</v>
+        <v>89</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>137</v>
+        <v>90</v>
       </c>
       <c r="D88" s="4">
         <v>1</v>
@@ -2350,13 +2344,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>92</v>
+        <v>133</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>93</v>
+        <v>134</v>
       </c>
       <c r="D89" s="4">
         <v>1</v>
@@ -2364,209 +2358,209 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>159</v>
+        <v>91</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>160</v>
+        <v>92</v>
       </c>
       <c r="D90" s="4">
-        <v>884</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>94</v>
+        <v>156</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>95</v>
+        <v>157</v>
       </c>
       <c r="D91" s="4">
-        <v>53</v>
+        <v>884</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D92" s="4">
-        <v>107</v>
+        <v>53</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="D93" s="4">
-        <v>918</v>
+        <v>107</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="D94" s="4">
-        <v>449</v>
+        <v>918</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D95" s="4">
-        <v>704</v>
+        <v>449</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D96" s="4">
-        <v>170</v>
+        <v>704</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D97" s="5">
-        <v>163</v>
+        <v>101</v>
+      </c>
+      <c r="D97" s="4">
+        <v>170</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D98" s="5">
-        <v>799</v>
+        <v>163</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D99" s="5">
-        <v>160</v>
+        <v>799</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D100" s="5">
-        <v>569</v>
+        <v>160</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D101" s="5">
-        <v>762</v>
+        <v>569</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D102" s="4">
-        <v>211</v>
+        <v>105</v>
+      </c>
+      <c r="D102" s="5">
+        <v>762</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="D103" s="4">
-        <v>1</v>
+        <v>211</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D104" s="4">
         <v>1</v>
@@ -2574,93 +2568,102 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D105" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="D106" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>175</v>
+        <v>121</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>177</v>
+        <v>122</v>
+      </c>
+      <c r="D107" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="D108" s="4">
-        <v>15</v>
+        <v>173</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D109" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C110" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B109" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D109" s="4">
+      <c r="D110" s="4">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D108" xr:uid="{A369FB58-D533-46A6-B5FA-793763E80E34}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D109">
-      <sortCondition ref="A1:A108"/>
+  <autoFilter ref="A1:D109" xr:uid="{A369FB58-D533-46A6-B5FA-793763E80E34}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D110">
+      <sortCondition ref="A1:A109"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="47">
+    <cfRule type="expression" dxfId="1" priority="51">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D67 A71:D109">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D110">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A68:D70">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A68))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/BA_ssoservi_cservico_ssala.xlsx
+++ b/pages/BA_ssoservi_cservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C53F6D-551A-4A54-9294-1F15FA35B580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A9AA1E-0898-4B93-829F-0FAA24F69616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{66DD5035-C496-4A33-BA22-CD402935C2B8}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$109</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$108</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="204">
   <si>
     <t>Complemento</t>
   </si>
@@ -398,15 +398,9 @@
     <t>S150191</t>
   </si>
   <si>
-    <t>SACO DE LIXO INFECTANTE - 50LTS</t>
-  </si>
-  <si>
     <t>S010062</t>
   </si>
   <si>
-    <t>TIRA P/ TESTE DE GLICEMIA - ÚNICA</t>
-  </si>
-  <si>
     <t>S150190</t>
   </si>
   <si>
@@ -458,12 +452,6 @@
     <t>S020007</t>
   </si>
   <si>
-    <t>TESOURA MULTIUSO - UNICA - UNICA</t>
-  </si>
-  <si>
-    <t>S020008</t>
-  </si>
-  <si>
     <t>S110036</t>
   </si>
   <si>
@@ -551,12 +539,6 @@
     <t>S150189</t>
   </si>
   <si>
-    <t>AVENTAL C/ MANGA - UNICA</t>
-  </si>
-  <si>
-    <t>S150204</t>
-  </si>
-  <si>
     <t>TOUCA SANFONADA - DESCARTÁVEL - 100UN</t>
   </si>
   <si>
@@ -657,6 +639,18 @@
   </si>
   <si>
     <t>LUVA PROCEDIMENTO DESCARTAVEL - TAM.P - TAM.P</t>
+  </si>
+  <si>
+    <t>TIRA P/ TESTE DE GLICEMIA - UNICA</t>
+  </si>
+  <si>
+    <t>SACO P/ LIXO INFECTANTE - 50L</t>
+  </si>
+  <si>
+    <t>AVENTAL DESCARTAVEL TNT MANGA LONGA - 30G</t>
+  </si>
+  <si>
+    <t>S080016</t>
   </si>
 </sst>
 </file>
@@ -764,7 +758,52 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="7">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -1096,10 +1135,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A369FB58-D533-46A6-B5FA-793763E80E34}">
-  <dimension ref="A1:D110"/>
+  <dimension ref="A1:D109"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64:B66"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1115,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1126,10 +1165,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>114</v>
@@ -1140,10 +1179,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>3</v>
@@ -1157,7 +1196,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>5</v>
@@ -1171,7 +1210,7 @@
         <v>112</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>113</v>
@@ -1182,13 +1221,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D6" s="5">
         <v>2</v>
@@ -1196,27 +1235,27 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>170</v>
+        <v>202</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>147</v>
+        <v>203</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1208</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D8" s="5">
         <v>122</v>
@@ -1227,7 +1266,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>7</v>
@@ -1241,7 +1280,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>9</v>
@@ -1255,7 +1294,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>11</v>
@@ -1269,7 +1308,7 @@
         <v>14</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>13</v>
@@ -1283,7 +1322,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>13</v>
@@ -1297,7 +1336,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>16</v>
@@ -1311,7 +1350,7 @@
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>18</v>
@@ -1322,13 +1361,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D16" s="4">
         <v>1</v>
@@ -1339,7 +1378,7 @@
         <v>19</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>20</v>
@@ -1353,7 +1392,7 @@
         <v>21</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>20</v>
@@ -1364,10 +1403,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>20</v>
@@ -1381,7 +1420,7 @@
         <v>22</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>23</v>
@@ -1395,7 +1434,7 @@
         <v>24</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>25</v>
@@ -1409,7 +1448,7 @@
         <v>26</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>27</v>
@@ -1423,7 +1462,7 @@
         <v>115</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>116</v>
@@ -1434,10 +1473,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>116</v>
@@ -1451,7 +1490,7 @@
         <v>28</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>29</v>
@@ -1462,10 +1501,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>29</v>
@@ -1476,13 +1515,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D27" s="5">
         <v>1</v>
@@ -1493,7 +1532,7 @@
         <v>30</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>31</v>
@@ -1507,7 +1546,7 @@
         <v>32</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>33</v>
@@ -1518,13 +1557,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D30" s="4">
         <v>1176</v>
@@ -1532,13 +1571,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D31" s="4">
         <v>1177</v>
@@ -1546,13 +1585,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D32" s="4">
         <v>1178</v>
@@ -1560,13 +1599,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D33" s="4">
         <v>1179</v>
@@ -1577,7 +1616,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>35</v>
@@ -1588,16 +1627,16 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1605,7 +1644,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>37</v>
@@ -1616,10 +1655,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>38</v>
@@ -1633,7 +1672,7 @@
         <v>39</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>40</v>
@@ -1647,7 +1686,7 @@
         <v>41</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>42</v>
@@ -1661,7 +1700,7 @@
         <v>43</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>42</v>
@@ -1675,7 +1714,7 @@
         <v>44</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>42</v>
@@ -1689,7 +1728,7 @@
         <v>45</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>42</v>
@@ -1700,13 +1739,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D43" s="5">
         <v>1</v>
@@ -1714,13 +1753,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D44" s="4">
         <v>750</v>
@@ -1731,7 +1770,7 @@
         <v>46</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>47</v>
@@ -1745,7 +1784,7 @@
         <v>48</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>47</v>
@@ -1756,24 +1795,24 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>49</v>
@@ -1787,7 +1826,7 @@
         <v>50</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>51</v>
@@ -1801,7 +1840,7 @@
         <v>52</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>53</v>
@@ -1815,7 +1854,7 @@
         <v>54</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>55</v>
@@ -1829,7 +1868,7 @@
         <v>56</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>57</v>
@@ -1843,7 +1882,7 @@
         <v>117</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>118</v>
@@ -1854,16 +1893,16 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D54" s="4">
-        <v>1163</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -1871,7 +1910,7 @@
         <v>58</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>59</v>
@@ -1885,7 +1924,7 @@
         <v>60</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>61</v>
@@ -1896,10 +1935,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>62</v>
@@ -1910,10 +1949,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>62</v>
@@ -1927,7 +1966,7 @@
         <v>63</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>64</v>
@@ -1941,7 +1980,7 @@
         <v>65</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>66</v>
@@ -1952,13 +1991,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D61" s="4">
         <v>33</v>
@@ -1966,13 +2005,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D62" s="4">
         <v>33</v>
@@ -1980,13 +2019,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D63" s="4">
         <v>32</v>
@@ -1994,13 +2033,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D64" s="4">
         <v>33</v>
@@ -2008,13 +2047,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D65" s="4">
         <v>32</v>
@@ -2022,13 +2061,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D66" s="4">
         <v>31</v>
@@ -2039,7 +2078,7 @@
         <v>67</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>68</v>
@@ -2050,10 +2089,10 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>69</v>
@@ -2064,13 +2103,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D69" s="4">
         <v>1172</v>
@@ -2078,13 +2117,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D70" s="4">
         <v>1173</v>
@@ -2092,13 +2131,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D71" s="4">
         <v>1174</v>
@@ -2109,7 +2148,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>71</v>
@@ -2120,24 +2159,24 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>72</v>
@@ -2148,13 +2187,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D75" s="4">
         <v>1167</v>
@@ -2165,7 +2204,7 @@
         <v>73</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>74</v>
@@ -2179,7 +2218,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>74</v>
@@ -2193,7 +2232,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>77</v>
@@ -2207,7 +2246,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>79</v>
@@ -2221,7 +2260,7 @@
         <v>80</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>81</v>
@@ -2235,7 +2274,7 @@
         <v>82</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>81</v>
@@ -2246,16 +2285,16 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>81</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -2263,7 +2302,7 @@
         <v>83</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>84</v>
@@ -2277,7 +2316,7 @@
         <v>85</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>84</v>
@@ -2291,7 +2330,7 @@
         <v>88</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>87</v>
@@ -2305,7 +2344,7 @@
         <v>86</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>87</v>
@@ -2316,16 +2355,16 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -2333,7 +2372,7 @@
         <v>89</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>90</v>
@@ -2344,13 +2383,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D89" s="4">
         <v>1</v>
@@ -2361,7 +2400,7 @@
         <v>91</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>92</v>
@@ -2372,13 +2411,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D91" s="4">
         <v>884</v>
@@ -2389,7 +2428,7 @@
         <v>93</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>94</v>
@@ -2403,7 +2442,7 @@
         <v>95</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>96</v>
@@ -2414,16 +2453,16 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C94" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B94" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>120</v>
-      </c>
       <c r="D94" s="4">
-        <v>918</v>
+        <v>986</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -2431,7 +2470,7 @@
         <v>97</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>98</v>
@@ -2445,7 +2484,7 @@
         <v>99</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>98</v>
@@ -2459,7 +2498,7 @@
         <v>100</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>101</v>
@@ -2473,7 +2512,7 @@
         <v>102</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>101</v>
@@ -2487,7 +2526,7 @@
         <v>103</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>101</v>
@@ -2501,7 +2540,7 @@
         <v>104</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>105</v>
@@ -2515,7 +2554,7 @@
         <v>106</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>105</v>
@@ -2529,7 +2568,7 @@
         <v>107</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>105</v>
@@ -2543,7 +2582,7 @@
         <v>108</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>109</v>
@@ -2554,13 +2593,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D104" s="4">
         <v>1</v>
@@ -2568,102 +2607,108 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D105" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>135</v>
+        <v>200</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="D106" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>121</v>
+        <v>166</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>150</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D107" s="4">
-        <v>1</v>
+        <v>167</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>172</v>
+        <v>138</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D108" s="4" t="s">
-        <v>174</v>
+        <v>137</v>
+      </c>
+      <c r="D108" s="4">
+        <v>15</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="D109" s="4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D110" s="4">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D109" xr:uid="{A369FB58-D533-46A6-B5FA-793763E80E34}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D110">
-      <sortCondition ref="A1:A109"/>
+  <autoFilter ref="A1:D108" xr:uid="{A369FB58-D533-46A6-B5FA-793763E80E34}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D109">
+      <sortCondition ref="A1:A108"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="1" priority="51">
+    <cfRule type="expression" dxfId="6" priority="56">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D110">
+  <conditionalFormatting sqref="A2:D6 A107:D109 B106:D106 A95:D105 A55:D93 A8:D53">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="6">
+      <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A106">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="5">
+      <formula>LEN(TRIM(A106))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A94:D94">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
+      <formula>LEN(TRIM(A94))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54:D54">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A54))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7:D7">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A2))&gt;0</formula>
+      <formula>LEN(TRIM(A7))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/BA_ssoservi_cservico_ssala.xlsx
+++ b/pages/BA_ssoservi_cservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A9AA1E-0898-4B93-829F-0FAA24F69616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C2C92F-FCBE-4D71-B22C-D04414A6EAAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{66DD5035-C496-4A33-BA22-CD402935C2B8}"/>
   </bookViews>
@@ -248,9 +248,6 @@
     <t>S020101</t>
   </si>
   <si>
-    <t>S010032</t>
-  </si>
-  <si>
     <t>MOUSE - USB</t>
   </si>
   <si>
@@ -596,9 +593,6 @@
     <t>FLANELA - 29cm X 49cm - 29cm X 49cm</t>
   </si>
   <si>
-    <t>MASCARA DESCARTAVEL - UNICA</t>
-  </si>
-  <si>
     <t>PANO DE PRATO - 50X75CM</t>
   </si>
   <si>
@@ -651,6 +645,12 @@
   </si>
   <si>
     <t>S080016</t>
+  </si>
+  <si>
+    <t>MASCARA DESCARTAVEL - TNT</t>
+  </si>
+  <si>
+    <t>S080026</t>
   </si>
 </sst>
 </file>
@@ -758,52 +758,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <border>
         <bottom style="thin">
@@ -1137,8 +1092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A369FB58-D533-46A6-B5FA-793763E80E34}">
   <dimension ref="A1:D109"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:D7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1154,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1165,13 +1120,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D2" s="5">
         <v>0.5</v>
@@ -1179,10 +1134,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>3</v>
@@ -1196,7 +1151,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>5</v>
@@ -1207,13 +1162,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="D5" s="5">
         <v>53</v>
@@ -1221,13 +1176,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="D6" s="5">
         <v>2</v>
@@ -1235,13 +1190,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D7" s="4">
         <v>1208</v>
@@ -1249,13 +1204,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>141</v>
       </c>
       <c r="D8" s="5">
         <v>122</v>
@@ -1266,7 +1221,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>7</v>
@@ -1280,7 +1235,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>9</v>
@@ -1294,7 +1249,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>11</v>
@@ -1308,7 +1263,7 @@
         <v>14</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>13</v>
@@ -1322,7 +1277,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>13</v>
@@ -1336,7 +1291,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>16</v>
@@ -1350,7 +1305,7 @@
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>18</v>
@@ -1361,13 +1316,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D16" s="4">
         <v>1</v>
@@ -1378,7 +1333,7 @@
         <v>19</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>20</v>
@@ -1392,7 +1347,7 @@
         <v>21</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>20</v>
@@ -1403,10 +1358,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>20</v>
@@ -1420,7 +1375,7 @@
         <v>22</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>23</v>
@@ -1434,7 +1389,7 @@
         <v>24</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>25</v>
@@ -1448,7 +1403,7 @@
         <v>26</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>27</v>
@@ -1459,13 +1414,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="D23" s="5">
         <v>904</v>
@@ -1473,13 +1428,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D24" s="4">
         <v>903</v>
@@ -1490,7 +1445,7 @@
         <v>28</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>29</v>
@@ -1501,10 +1456,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>29</v>
@@ -1515,13 +1470,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>164</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>165</v>
       </c>
       <c r="D27" s="5">
         <v>1</v>
@@ -1532,7 +1487,7 @@
         <v>30</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>31</v>
@@ -1546,7 +1501,7 @@
         <v>32</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>33</v>
@@ -1557,13 +1512,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D30" s="4">
         <v>1176</v>
@@ -1571,13 +1526,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D31" s="4">
         <v>1177</v>
@@ -1585,13 +1540,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D32" s="4">
         <v>1178</v>
@@ -1599,13 +1554,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D33" s="4">
         <v>1179</v>
@@ -1616,7 +1571,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>35</v>
@@ -1627,16 +1582,16 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>169</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1644,7 +1599,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>37</v>
@@ -1655,10 +1610,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>38</v>
@@ -1672,7 +1627,7 @@
         <v>39</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>40</v>
@@ -1686,7 +1641,7 @@
         <v>41</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>42</v>
@@ -1700,7 +1655,7 @@
         <v>43</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>42</v>
@@ -1714,7 +1669,7 @@
         <v>44</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>42</v>
@@ -1728,7 +1683,7 @@
         <v>45</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>42</v>
@@ -1739,13 +1694,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>129</v>
       </c>
       <c r="D43" s="5">
         <v>1</v>
@@ -1753,13 +1708,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>171</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>172</v>
       </c>
       <c r="D44" s="4">
         <v>750</v>
@@ -1770,7 +1725,7 @@
         <v>46</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>47</v>
@@ -1784,7 +1739,7 @@
         <v>48</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>47</v>
@@ -1795,24 +1750,24 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>156</v>
-      </c>
       <c r="D47" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>49</v>
@@ -1826,7 +1781,7 @@
         <v>50</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>51</v>
@@ -1840,7 +1795,7 @@
         <v>52</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>53</v>
@@ -1854,7 +1809,7 @@
         <v>54</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>55</v>
@@ -1868,7 +1823,7 @@
         <v>56</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>57</v>
@@ -1879,13 +1834,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>118</v>
       </c>
       <c r="D53" s="5">
         <v>1</v>
@@ -1893,13 +1848,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>174</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>175</v>
       </c>
       <c r="D54" s="4">
         <v>1164</v>
@@ -1910,7 +1865,7 @@
         <v>58</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>59</v>
@@ -1924,7 +1879,7 @@
         <v>60</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>61</v>
@@ -1935,10 +1890,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>62</v>
@@ -1949,10 +1904,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>62</v>
@@ -1966,7 +1921,7 @@
         <v>63</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>64</v>
@@ -1980,7 +1935,7 @@
         <v>65</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>66</v>
@@ -1991,13 +1946,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D61" s="4">
         <v>33</v>
@@ -2005,13 +1960,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D62" s="4">
         <v>33</v>
@@ -2019,13 +1974,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D63" s="4">
         <v>32</v>
@@ -2033,13 +1988,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D64" s="4">
         <v>33</v>
@@ -2047,13 +2002,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D65" s="4">
         <v>32</v>
@@ -2061,13 +2016,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D66" s="4">
         <v>31</v>
@@ -2078,7 +2033,7 @@
         <v>67</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>68</v>
@@ -2089,27 +2044,27 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>69</v>
+        <v>203</v>
       </c>
       <c r="D68" s="4">
-        <v>1</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D69" s="4">
         <v>1172</v>
@@ -2117,13 +2072,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D70" s="4">
         <v>1173</v>
@@ -2131,13 +2086,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D71" s="4">
         <v>1174</v>
@@ -2145,13 +2100,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="D72" s="4">
         <v>211</v>
@@ -2159,41 +2114,41 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="B73" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C73" s="4" t="s">
+      <c r="D73" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D74" s="4">
-        <v>1166</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D75" s="4">
         <v>1167</v>
@@ -2201,13 +2156,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="D76" s="4">
         <v>820</v>
@@ -2215,13 +2170,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D77" s="4">
         <v>819</v>
@@ -2229,13 +2184,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="D78" s="4">
         <v>553</v>
@@ -2243,13 +2198,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C79" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="D79" s="4">
         <v>395</v>
@@ -2257,13 +2212,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="D80" s="4">
         <v>86</v>
@@ -2271,13 +2226,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D81" s="4">
         <v>87</v>
@@ -2285,27 +2240,27 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D82" s="4" t="s">
         <v>160</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>84</v>
       </c>
       <c r="D83" s="4">
         <v>55</v>
@@ -2313,13 +2268,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D84" s="4">
         <v>54</v>
@@ -2327,13 +2282,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D85" s="5">
         <v>994</v>
@@ -2341,13 +2296,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C86" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="D86" s="5">
         <v>695</v>
@@ -2355,27 +2310,27 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C87" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="B87" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>163</v>
-      </c>
       <c r="D87" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C88" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="D88" s="4">
         <v>1</v>
@@ -2383,13 +2338,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C89" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>132</v>
       </c>
       <c r="D89" s="4">
         <v>1</v>
@@ -2397,13 +2352,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C90" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="D90" s="4">
         <v>1</v>
@@ -2411,13 +2366,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C91" s="4" t="s">
         <v>152</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>153</v>
       </c>
       <c r="D91" s="4">
         <v>884</v>
@@ -2425,13 +2380,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C92" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="D92" s="4">
         <v>53</v>
@@ -2439,13 +2394,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>96</v>
       </c>
       <c r="D93" s="4">
         <v>107</v>
@@ -2453,13 +2408,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D94" s="4">
         <v>986</v>
@@ -2467,13 +2422,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C95" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="D95" s="4">
         <v>449</v>
@@ -2481,13 +2436,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D96" s="4">
         <v>704</v>
@@ -2495,13 +2450,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C97" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="D97" s="4">
         <v>170</v>
@@ -2509,13 +2464,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D98" s="5">
         <v>163</v>
@@ -2523,13 +2478,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D99" s="5">
         <v>799</v>
@@ -2537,13 +2492,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C100" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="D100" s="5">
         <v>160</v>
@@ -2551,13 +2506,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D101" s="5">
         <v>569</v>
@@ -2565,13 +2520,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D102" s="5">
         <v>762</v>
@@ -2579,13 +2534,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C103" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="D103" s="4">
         <v>211</v>
@@ -2593,13 +2548,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C104" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>136</v>
       </c>
       <c r="D104" s="4">
         <v>1</v>
@@ -2607,13 +2562,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C105" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>134</v>
       </c>
       <c r="D105" s="4">
         <v>2</v>
@@ -2621,13 +2576,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D106" s="4">
         <v>1</v>
@@ -2635,27 +2590,27 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C107" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B107" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C107" s="4" t="s">
+      <c r="D107" s="4" t="s">
         <v>167</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D108" s="4">
         <v>15</v>
@@ -2663,13 +2618,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C109" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="D109" s="4">
         <v>1</v>
@@ -2682,33 +2637,13 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="6" priority="56">
+    <cfRule type="expression" dxfId="1" priority="57">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D6 A107:D109 B106:D106 A95:D105 A55:D93 A8:D53">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="6">
+  <conditionalFormatting sqref="A2:D109">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A106">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="5">
-      <formula>LEN(TRIM(A106))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A94:D94">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
-      <formula>LEN(TRIM(A94))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A54:D54">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
-      <formula>LEN(TRIM(A54))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A7:D7">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A7))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/BA_ssoservi_cservico_ssala.xlsx
+++ b/pages/BA_ssoservi_cservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C2C92F-FCBE-4D71-B22C-D04414A6EAAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6463EA97-6D37-46F6-AFA2-FC79FDB32DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{66DD5035-C496-4A33-BA22-CD402935C2B8}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$108</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$107</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="202">
   <si>
     <t>Complemento</t>
   </si>
@@ -51,12 +51,6 @@
   </si>
   <si>
     <t>S010004</t>
-  </si>
-  <si>
-    <t>ALCOOL GEL - 500 ML</t>
-  </si>
-  <si>
-    <t>S010061</t>
   </si>
   <si>
     <t>BOBINA IMPRESSORA FISCAL PADRONIZADO - 80x40M</t>
@@ -1090,10 +1084,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A369FB58-D533-46A6-B5FA-793763E80E34}">
-  <dimension ref="A1:D109"/>
+  <dimension ref="A1:D108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1109,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1120,13 +1114,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D2" s="5">
         <v>0.5</v>
@@ -1134,10 +1128,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>3</v>
@@ -1148,72 +1142,72 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>4</v>
+        <v>109</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="4">
-        <v>103</v>
+        <v>110</v>
+      </c>
+      <c r="D4" s="5">
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D5" s="5">
-        <v>53</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>121</v>
+        <v>198</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D6" s="5">
-        <v>2</v>
+        <v>199</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1208</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>200</v>
+        <v>137</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D7" s="4">
-        <v>1208</v>
+        <v>138</v>
+      </c>
+      <c r="D7" s="5">
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>139</v>
+        <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>140</v>
+        <v>5</v>
       </c>
       <c r="D8" s="5">
-        <v>122</v>
+        <v>809</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1221,13 +1215,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="5">
-        <v>809</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1235,55 +1229,55 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="5">
-        <v>1045</v>
+      <c r="D10" s="4">
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="4">
-        <v>103</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D12" s="4">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D13" s="4">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1291,24 +1285,24 @@
         <v>15</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D14" s="4">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>17</v>
+        <v>122</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>18</v>
+        <v>136</v>
       </c>
       <c r="D15" s="4">
         <v>1</v>
@@ -1316,16 +1310,16 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>124</v>
+        <v>17</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>138</v>
+        <v>18</v>
       </c>
       <c r="D16" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1333,41 +1327,41 @@
         <v>19</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D17" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D18" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>123</v>
+        <v>20</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D19" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1375,7 +1369,7 @@
         <v>22</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>23</v>
@@ -1389,97 +1383,97 @@
         <v>24</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D21" s="4">
-        <v>1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>26</v>
+        <v>112</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="4">
-        <v>52</v>
+        <v>113</v>
+      </c>
+      <c r="D22" s="5">
+        <v>904</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D23" s="5">
-        <v>904</v>
+        <v>113</v>
+      </c>
+      <c r="D23" s="4">
+        <v>903</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>125</v>
+        <v>26</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>144</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>115</v>
+        <v>27</v>
       </c>
       <c r="D24" s="4">
-        <v>903</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>28</v>
+        <v>118</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D25" s="4">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>120</v>
+        <v>161</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" s="4">
-        <v>100</v>
+        <v>162</v>
+      </c>
+      <c r="D26" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>163</v>
+        <v>28</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="D27" s="5">
-        <v>1</v>
+        <v>29</v>
+      </c>
+      <c r="D27" s="4">
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1487,139 +1481,139 @@
         <v>30</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D28" s="4">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>32</v>
+        <v>174</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>33</v>
+        <v>124</v>
       </c>
       <c r="D29" s="4">
-        <v>103</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D30" s="4">
-        <v>1176</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D31" s="4">
-        <v>1177</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D32" s="4">
-        <v>1178</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>179</v>
+        <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D33" s="4">
-        <v>1179</v>
+        <v>33</v>
+      </c>
+      <c r="D33" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>34</v>
+        <v>166</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D34" s="5">
-        <v>1</v>
+        <v>127</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>168</v>
+        <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>169</v>
+        <v>35</v>
+      </c>
+      <c r="D35" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="D36" s="4">
-        <v>1</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>172</v>
+        <v>37</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D37" s="4">
-        <v>1162</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1627,13 +1621,13 @@
         <v>39</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D38" s="4">
-        <v>1</v>
+      <c r="D38" s="5">
+        <v>899</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1641,83 +1635,83 @@
         <v>41</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D39" s="5">
-        <v>899</v>
+        <v>896</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D40" s="5">
-        <v>896</v>
+        <v>900</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D41" s="5">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>42</v>
+        <v>126</v>
       </c>
       <c r="D42" s="5">
-        <v>898</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>127</v>
+        <v>168</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D43" s="5">
-        <v>1</v>
+        <v>169</v>
+      </c>
+      <c r="D43" s="4">
+        <v>750</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>170</v>
+        <v>44</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>171</v>
+        <v>45</v>
       </c>
       <c r="D44" s="4">
-        <v>750</v>
+        <v>166</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1725,55 +1719,55 @@
         <v>46</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D45" s="4">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>48</v>
+        <v>152</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D46" s="4">
-        <v>167</v>
+        <v>153</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>142</v>
+        <v>47</v>
+      </c>
+      <c r="D47" s="4">
+        <v>448</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>183</v>
+        <v>48</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>49</v>
       </c>
       <c r="D48" s="4">
-        <v>448</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1781,7 +1775,7 @@
         <v>50</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>51</v>
@@ -1795,13 +1789,13 @@
         <v>52</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>53</v>
       </c>
       <c r="D50" s="4">
-        <v>80</v>
+        <v>835</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1809,24 +1803,24 @@
         <v>54</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D51" s="4">
-        <v>835</v>
+      <c r="D51" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="D52" s="5">
         <v>1</v>
@@ -1834,30 +1828,30 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>116</v>
+        <v>171</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D53" s="5">
-        <v>1</v>
+        <v>172</v>
+      </c>
+      <c r="D53" s="4">
+        <v>1164</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>173</v>
+        <v>56</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>174</v>
+        <v>57</v>
       </c>
       <c r="D54" s="4">
-        <v>1164</v>
+        <v>40</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -1865,24 +1859,24 @@
         <v>58</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>59</v>
       </c>
       <c r="D55" s="4">
-        <v>40</v>
+        <v>103</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="D56" s="4">
         <v>103</v>
@@ -1890,30 +1884,30 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D57" s="4">
-        <v>103</v>
+        <v>910</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>181</v>
+        <v>61</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>62</v>
       </c>
       <c r="D58" s="4">
-        <v>910</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -1921,27 +1915,27 @@
         <v>63</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>64</v>
       </c>
       <c r="D59" s="4">
-        <v>1</v>
+        <v>745</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>65</v>
+        <v>188</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>66</v>
+        <v>189</v>
       </c>
       <c r="D60" s="4">
-        <v>745</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -1949,10 +1943,10 @@
         <v>190</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D61" s="4">
         <v>33</v>
@@ -1960,30 +1954,30 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D62" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="B63" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>191</v>
-      </c>
       <c r="D63" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -1991,69 +1985,69 @@
         <v>194</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D64" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D65" s="4">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>197</v>
+        <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>195</v>
+        <v>66</v>
       </c>
       <c r="D66" s="4">
-        <v>31</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>67</v>
+        <v>200</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>68</v>
+        <v>201</v>
       </c>
       <c r="D67" s="4">
-        <v>2</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="D68" s="4">
-        <v>1181</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -2061,80 +2055,80 @@
         <v>185</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D69" s="4">
-        <v>1172</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D70" s="4">
-        <v>1173</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>188</v>
+        <v>67</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>186</v>
+        <v>68</v>
       </c>
       <c r="D71" s="4">
-        <v>1174</v>
+        <v>211</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>69</v>
+        <v>154</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D72" s="4">
-        <v>211</v>
+        <v>155</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>158</v>
+        <v>69</v>
+      </c>
+      <c r="D73" s="4">
+        <v>1167</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="D74" s="4">
         <v>1167</v>
@@ -2142,16 +2136,16 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>184</v>
+        <v>70</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>144</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>141</v>
+        <v>71</v>
       </c>
       <c r="D75" s="4">
-        <v>1167</v>
+        <v>820</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -2159,27 +2153,27 @@
         <v>72</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D76" s="4">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B77" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="D77" s="4">
-        <v>819</v>
+        <v>553</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -2187,13 +2181,13 @@
         <v>75</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>76</v>
       </c>
       <c r="D78" s="4">
-        <v>553</v>
+        <v>395</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -2201,13 +2195,13 @@
         <v>77</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>78</v>
       </c>
       <c r="D79" s="4">
-        <v>395</v>
+        <v>86</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -2215,41 +2209,41 @@
         <v>79</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D80" s="4">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>81</v>
+        <v>157</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D81" s="4">
-        <v>87</v>
+        <v>78</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>159</v>
+        <v>80</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>160</v>
+        <v>81</v>
+      </c>
+      <c r="D82" s="4">
+        <v>55</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -2257,80 +2251,80 @@
         <v>82</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D83" s="4">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B84" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D84" s="4">
-        <v>54</v>
+      <c r="D84" s="5">
+        <v>994</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D85" s="5">
-        <v>994</v>
+        <v>695</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>85</v>
+        <v>159</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D86" s="5">
-        <v>695</v>
+        <v>160</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>161</v>
+        <v>86</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>142</v>
+        <v>87</v>
+      </c>
+      <c r="D87" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="D88" s="4">
         <v>1</v>
@@ -2338,13 +2332,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>130</v>
+        <v>88</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>131</v>
+        <v>89</v>
       </c>
       <c r="D89" s="4">
         <v>1</v>
@@ -2352,30 +2346,30 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>90</v>
+        <v>149</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>144</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>91</v>
+        <v>150</v>
       </c>
       <c r="D90" s="4">
-        <v>1</v>
+        <v>884</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>151</v>
+        <v>90</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>152</v>
+        <v>91</v>
       </c>
       <c r="D91" s="4">
-        <v>884</v>
+        <v>53</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -2383,41 +2377,41 @@
         <v>92</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>93</v>
       </c>
       <c r="D92" s="4">
-        <v>53</v>
+        <v>107</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>94</v>
+        <v>197</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>144</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="D93" s="4">
-        <v>107</v>
+        <v>986</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>199</v>
+        <v>94</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="D94" s="4">
-        <v>986</v>
+        <v>449</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -2425,27 +2419,27 @@
         <v>96</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D95" s="4">
-        <v>449</v>
+        <v>704</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B96" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>97</v>
-      </c>
       <c r="D96" s="4">
-        <v>704</v>
+        <v>170</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -2453,41 +2447,41 @@
         <v>99</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D97" s="4">
-        <v>170</v>
+        <v>98</v>
+      </c>
+      <c r="D97" s="5">
+        <v>163</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D98" s="5">
-        <v>163</v>
+        <v>799</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C99" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B99" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="D99" s="5">
-        <v>799</v>
+        <v>160</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -2495,145 +2489,131 @@
         <v>103</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D100" s="5">
-        <v>160</v>
+        <v>569</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D101" s="5">
-        <v>569</v>
+        <v>762</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C102" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B102" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D102" s="5">
-        <v>762</v>
+      <c r="D102" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="D103" s="4">
-        <v>211</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D104" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>132</v>
+        <v>196</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="D105" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D106" s="4">
-        <v>1</v>
+        <v>164</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>167</v>
+        <v>134</v>
+      </c>
+      <c r="D107" s="4">
+        <v>15</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="D108" s="4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D109" s="4">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D108" xr:uid="{A369FB58-D533-46A6-B5FA-793763E80E34}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D109">
-      <sortCondition ref="A1:A108"/>
+  <autoFilter ref="A1:D107" xr:uid="{A369FB58-D533-46A6-B5FA-793763E80E34}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D108">
+      <sortCondition ref="A1:A107"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
@@ -2641,7 +2621,7 @@
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D109">
+  <conditionalFormatting sqref="A2:D108">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>

--- a/pages/BA_ssoservi_cservico_ssala.xlsx
+++ b/pages/BA_ssoservi_cservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6463EA97-6D37-46F6-AFA2-FC79FDB32DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7236F9C6-1D5B-49B6-A8F8-E1419DBF49BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{66DD5035-C496-4A33-BA22-CD402935C2B8}"/>
   </bookViews>
@@ -578,9 +578,6 @@
     <t>LIMPADOR MULTIUSO - 500ML - 500ML</t>
   </si>
   <si>
-    <t>LIMPADOR MULTIUSO - CIF</t>
-  </si>
-  <si>
     <t>ALCOOL LIQUIDO 70º - 1000ML - 1000ML</t>
   </si>
   <si>
@@ -645,6 +642,9 @@
   </si>
   <si>
     <t>S080026</t>
+  </si>
+  <si>
+    <t>LIMPADOR MULTIUSO - CIF LIQUIDO</t>
   </si>
 </sst>
 </file>
@@ -752,7 +752,16 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -1086,8 +1095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A369FB58-D533-46A6-B5FA-793763E80E34}">
   <dimension ref="A1:D108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57:D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1114,7 +1123,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>143</v>
@@ -1128,7 +1137,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>142</v>
@@ -1170,13 +1179,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>151</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D6" s="4">
         <v>1208</v>
@@ -1744,7 +1753,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>142</v>
@@ -1884,7 +1893,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>142</v>
@@ -1893,7 +1902,7 @@
         <v>60</v>
       </c>
       <c r="D57" s="4">
-        <v>910</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -1926,13 +1935,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>188</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>189</v>
       </c>
       <c r="D60" s="4">
         <v>33</v>
@@ -1940,13 +1949,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>142</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D61" s="4">
         <v>33</v>
@@ -1954,13 +1963,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>142</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D62" s="4">
         <v>32</v>
@@ -1968,13 +1977,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>192</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>193</v>
       </c>
       <c r="D63" s="4">
         <v>33</v>
@@ -1982,13 +1991,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>142</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D64" s="4">
         <v>32</v>
@@ -1996,13 +2005,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>142</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D65" s="4">
         <v>31</v>
@@ -2024,13 +2033,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>143</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D67" s="4">
         <v>1181</v>
@@ -2038,13 +2047,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>183</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>184</v>
       </c>
       <c r="D68" s="4">
         <v>1172</v>
@@ -2052,13 +2061,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>142</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D69" s="4">
         <v>1173</v>
@@ -2066,13 +2075,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>142</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D70" s="4">
         <v>1174</v>
@@ -2122,7 +2131,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>142</v>
@@ -2388,7 +2397,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>144</v>
@@ -2556,7 +2565,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>143</v>
@@ -2617,13 +2626,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="1" priority="57">
+    <cfRule type="expression" dxfId="2" priority="58">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D108">
+  <conditionalFormatting sqref="A2:D56 A58:D108">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A57:D57">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A2))&gt;0</formula>
+      <formula>LEN(TRIM(A57))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/BA_ssoservi_cservico_ssala.xlsx
+++ b/pages/BA_ssoservi_cservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7236F9C6-1D5B-49B6-A8F8-E1419DBF49BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{376FD3EC-F887-469F-B28C-333A3BAE4EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{66DD5035-C496-4A33-BA22-CD402935C2B8}"/>
   </bookViews>
@@ -752,16 +752,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <border>
         <bottom style="thin">
@@ -1095,8 +1086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A369FB58-D533-46A6-B5FA-793763E80E34}">
   <dimension ref="A1:D108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57:D57"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2420,7 +2411,7 @@
         <v>95</v>
       </c>
       <c r="D94" s="4">
-        <v>449</v>
+        <v>438</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -2626,18 +2617,13 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="58">
+    <cfRule type="expression" dxfId="1" priority="58">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D56 A58:D108">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D108">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A57:D57">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A57))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/BA_ssoservi_cservico_ssala.xlsx
+++ b/pages/BA_ssoservi_cservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{376FD3EC-F887-469F-B28C-333A3BAE4EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E228190-0FA6-4AF6-9BCB-895F23BCBFFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{66DD5035-C496-4A33-BA22-CD402935C2B8}"/>
   </bookViews>
@@ -323,9 +323,6 @@
     <t>S010049</t>
   </si>
   <si>
-    <t>SACO P/ LIXO C/ 100UN - 100LT</t>
-  </si>
-  <si>
     <t>S010068</t>
   </si>
   <si>
@@ -645,6 +642,9 @@
   </si>
   <si>
     <t>LIMPADOR MULTIUSO - CIF LIQUIDO</t>
+  </si>
+  <si>
+    <t>SACO P/ LIXO C/ 100UN - 100L</t>
   </si>
 </sst>
 </file>
@@ -1087,7 +1087,7 @@
   <dimension ref="A1:D108"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="D95" sqref="D95"/>
+      <selection activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1114,13 +1114,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D2" s="5">
         <v>0.5</v>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>3</v>
@@ -1142,13 +1142,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>110</v>
       </c>
       <c r="D4" s="5">
         <v>53</v>
@@ -1156,13 +1156,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="D5" s="5">
         <v>2</v>
@@ -1170,13 +1170,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>197</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>198</v>
       </c>
       <c r="D6" s="4">
         <v>1208</v>
@@ -1184,13 +1184,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>137</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>138</v>
       </c>
       <c r="D7" s="5">
         <v>122</v>
@@ -1201,7 +1201,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>5</v>
@@ -1215,7 +1215,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>7</v>
@@ -1229,7 +1229,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>9</v>
@@ -1243,7 +1243,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>11</v>
@@ -1257,7 +1257,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>11</v>
@@ -1271,7 +1271,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>14</v>
@@ -1285,7 +1285,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>16</v>
@@ -1296,13 +1296,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D15" s="4">
         <v>1</v>
@@ -1313,7 +1313,7 @@
         <v>17</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>18</v>
@@ -1327,7 +1327,7 @@
         <v>19</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>18</v>
@@ -1338,10 +1338,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>18</v>
@@ -1355,7 +1355,7 @@
         <v>20</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>21</v>
@@ -1369,7 +1369,7 @@
         <v>22</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>23</v>
@@ -1383,7 +1383,7 @@
         <v>24</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>25</v>
@@ -1394,13 +1394,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="D22" s="5">
         <v>904</v>
@@ -1408,13 +1408,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D23" s="4">
         <v>903</v>
@@ -1425,7 +1425,7 @@
         <v>26</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>27</v>
@@ -1436,10 +1436,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>27</v>
@@ -1450,13 +1450,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>161</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>162</v>
       </c>
       <c r="D26" s="5">
         <v>1</v>
@@ -1467,7 +1467,7 @@
         <v>28</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>29</v>
@@ -1481,7 +1481,7 @@
         <v>30</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>31</v>
@@ -1492,13 +1492,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D29" s="4">
         <v>1176</v>
@@ -1506,13 +1506,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D30" s="4">
         <v>1177</v>
@@ -1520,13 +1520,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D31" s="4">
         <v>1178</v>
@@ -1534,13 +1534,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D32" s="4">
         <v>1179</v>
@@ -1551,7 +1551,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>33</v>
@@ -1562,16 +1562,16 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>166</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1579,7 +1579,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>35</v>
@@ -1590,10 +1590,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>36</v>
@@ -1607,7 +1607,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>38</v>
@@ -1621,7 +1621,7 @@
         <v>39</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>40</v>
@@ -1635,7 +1635,7 @@
         <v>41</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>40</v>
@@ -1649,7 +1649,7 @@
         <v>42</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>40</v>
@@ -1663,7 +1663,7 @@
         <v>43</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>40</v>
@@ -1674,13 +1674,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>126</v>
       </c>
       <c r="D42" s="5">
         <v>1</v>
@@ -1688,13 +1688,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>168</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>169</v>
       </c>
       <c r="D43" s="4">
         <v>750</v>
@@ -1705,7 +1705,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>45</v>
@@ -1719,7 +1719,7 @@
         <v>46</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>45</v>
@@ -1730,24 +1730,24 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>153</v>
-      </c>
       <c r="D46" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>47</v>
@@ -1761,7 +1761,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>49</v>
@@ -1775,7 +1775,7 @@
         <v>50</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>51</v>
@@ -1789,7 +1789,7 @@
         <v>52</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>53</v>
@@ -1803,7 +1803,7 @@
         <v>54</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>55</v>
@@ -1814,13 +1814,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>115</v>
       </c>
       <c r="D52" s="5">
         <v>1</v>
@@ -1828,13 +1828,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>171</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>172</v>
       </c>
       <c r="D53" s="4">
         <v>1164</v>
@@ -1845,7 +1845,7 @@
         <v>56</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>57</v>
@@ -1859,7 +1859,7 @@
         <v>58</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>59</v>
@@ -1870,10 +1870,10 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>60</v>
@@ -1884,10 +1884,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>60</v>
@@ -1901,7 +1901,7 @@
         <v>61</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>62</v>
@@ -1915,7 +1915,7 @@
         <v>63</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>64</v>
@@ -1926,13 +1926,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>187</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>188</v>
       </c>
       <c r="D60" s="4">
         <v>33</v>
@@ -1940,13 +1940,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D61" s="4">
         <v>33</v>
@@ -1954,13 +1954,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D62" s="4">
         <v>32</v>
@@ -1968,13 +1968,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>191</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>192</v>
       </c>
       <c r="D63" s="4">
         <v>33</v>
@@ -1982,13 +1982,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D64" s="4">
         <v>32</v>
@@ -1996,13 +1996,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D65" s="4">
         <v>31</v>
@@ -2013,7 +2013,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>66</v>
@@ -2024,13 +2024,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>199</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>200</v>
       </c>
       <c r="D67" s="4">
         <v>1181</v>
@@ -2038,13 +2038,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>182</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>183</v>
       </c>
       <c r="D68" s="4">
         <v>1172</v>
@@ -2052,13 +2052,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D69" s="4">
         <v>1173</v>
@@ -2066,13 +2066,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D70" s="4">
         <v>1174</v>
@@ -2083,7 +2083,7 @@
         <v>67</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>68</v>
@@ -2094,24 +2094,24 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B72" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C72" s="4" t="s">
+      <c r="D72" s="4" t="s">
         <v>155</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>69</v>
@@ -2122,13 +2122,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D74" s="4">
         <v>1167</v>
@@ -2139,7 +2139,7 @@
         <v>70</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>71</v>
@@ -2153,7 +2153,7 @@
         <v>72</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>71</v>
@@ -2167,7 +2167,7 @@
         <v>73</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>74</v>
@@ -2181,7 +2181,7 @@
         <v>75</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>76</v>
@@ -2195,7 +2195,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>78</v>
@@ -2209,7 +2209,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>78</v>
@@ -2220,16 +2220,16 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>78</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -2237,7 +2237,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>81</v>
@@ -2251,7 +2251,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>81</v>
@@ -2265,7 +2265,7 @@
         <v>85</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>84</v>
@@ -2279,7 +2279,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>84</v>
@@ -2290,16 +2290,16 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C86" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="B86" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>160</v>
-      </c>
       <c r="D86" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -2307,7 +2307,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>87</v>
@@ -2318,13 +2318,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C88" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>129</v>
       </c>
       <c r="D88" s="4">
         <v>1</v>
@@ -2335,7 +2335,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>89</v>
@@ -2346,13 +2346,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C90" s="4" t="s">
         <v>149</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>150</v>
       </c>
       <c r="D90" s="4">
         <v>884</v>
@@ -2363,7 +2363,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>91</v>
@@ -2377,7 +2377,7 @@
         <v>92</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>93</v>
@@ -2388,13 +2388,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D93" s="4">
         <v>986</v>
@@ -2402,13 +2402,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C94" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="D94" s="4">
         <v>438</v>
@@ -2416,13 +2416,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D95" s="4">
         <v>704</v>
@@ -2430,13 +2430,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="D96" s="4">
         <v>170</v>
@@ -2444,13 +2444,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D97" s="5">
         <v>163</v>
@@ -2458,13 +2458,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D98" s="5">
         <v>799</v>
@@ -2472,13 +2472,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C99" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="D99" s="5">
         <v>160</v>
@@ -2486,13 +2486,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D100" s="5">
         <v>569</v>
@@ -2500,13 +2500,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D101" s="5">
         <v>762</v>
@@ -2514,13 +2514,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C102" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="D102" s="4">
         <v>211</v>
@@ -2528,13 +2528,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C103" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>133</v>
       </c>
       <c r="D103" s="4">
         <v>1</v>
@@ -2542,13 +2542,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C104" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>131</v>
       </c>
       <c r="D104" s="4">
         <v>2</v>
@@ -2556,13 +2556,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D105" s="4">
         <v>1</v>
@@ -2570,27 +2570,27 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C106" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="B106" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C106" s="4" t="s">
+      <c r="D106" s="4" t="s">
         <v>164</v>
-      </c>
-      <c r="D106" s="4" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D107" s="4">
         <v>15</v>
@@ -2598,13 +2598,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C108" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="D108" s="4">
         <v>1</v>

--- a/pages/BA_ssoservi_cservico_ssala.xlsx
+++ b/pages/BA_ssoservi_cservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E228190-0FA6-4AF6-9BCB-895F23BCBFFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD7BFE2-4125-419A-9E16-1FAAA813DBA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{66DD5035-C496-4A33-BA22-CD402935C2B8}"/>
   </bookViews>
@@ -326,9 +326,6 @@
     <t>S010068</t>
   </si>
   <si>
-    <t>SACO P/ LIXO C/ 100UN - 40LT</t>
-  </si>
-  <si>
     <t>SACO PLASTICO - 25CMX35CM - 25CMX35CM</t>
   </si>
   <si>
@@ -645,6 +642,9 @@
   </si>
   <si>
     <t>SACO P/ LIXO C/ 100UN - 100L</t>
+  </si>
+  <si>
+    <t>SACO P/ LIXO C/ 100UN - 40L</t>
   </si>
 </sst>
 </file>
@@ -1087,7 +1087,7 @@
   <dimension ref="A1:D108"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="A92" sqref="A92"/>
+      <selection activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1114,13 +1114,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D2" s="5">
         <v>0.5</v>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>3</v>
@@ -1142,13 +1142,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="D4" s="5">
         <v>53</v>
@@ -1156,13 +1156,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>119</v>
       </c>
       <c r="D5" s="5">
         <v>2</v>
@@ -1170,13 +1170,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>196</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>197</v>
       </c>
       <c r="D6" s="4">
         <v>1208</v>
@@ -1184,13 +1184,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>137</v>
       </c>
       <c r="D7" s="5">
         <v>122</v>
@@ -1201,7 +1201,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>5</v>
@@ -1215,7 +1215,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>7</v>
@@ -1229,7 +1229,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>9</v>
@@ -1243,7 +1243,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>11</v>
@@ -1257,7 +1257,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>11</v>
@@ -1271,7 +1271,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>14</v>
@@ -1285,7 +1285,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>16</v>
@@ -1296,13 +1296,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D15" s="4">
         <v>1</v>
@@ -1313,7 +1313,7 @@
         <v>17</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>18</v>
@@ -1327,7 +1327,7 @@
         <v>19</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>18</v>
@@ -1338,10 +1338,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>18</v>
@@ -1355,7 +1355,7 @@
         <v>20</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>21</v>
@@ -1369,7 +1369,7 @@
         <v>22</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>23</v>
@@ -1383,7 +1383,7 @@
         <v>24</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>25</v>
@@ -1394,13 +1394,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>112</v>
       </c>
       <c r="D22" s="5">
         <v>904</v>
@@ -1408,13 +1408,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D23" s="4">
         <v>903</v>
@@ -1425,7 +1425,7 @@
         <v>26</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>27</v>
@@ -1436,10 +1436,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>27</v>
@@ -1450,13 +1450,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>160</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>161</v>
       </c>
       <c r="D26" s="5">
         <v>1</v>
@@ -1467,7 +1467,7 @@
         <v>28</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>29</v>
@@ -1481,7 +1481,7 @@
         <v>30</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>31</v>
@@ -1492,13 +1492,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D29" s="4">
         <v>1176</v>
@@ -1506,13 +1506,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D30" s="4">
         <v>1177</v>
@@ -1520,13 +1520,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D31" s="4">
         <v>1178</v>
@@ -1534,13 +1534,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D32" s="4">
         <v>1179</v>
@@ -1551,7 +1551,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>33</v>
@@ -1562,16 +1562,16 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>165</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1579,7 +1579,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>35</v>
@@ -1590,10 +1590,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>36</v>
@@ -1607,7 +1607,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>38</v>
@@ -1621,7 +1621,7 @@
         <v>39</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>40</v>
@@ -1635,7 +1635,7 @@
         <v>41</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>40</v>
@@ -1649,7 +1649,7 @@
         <v>42</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>40</v>
@@ -1663,7 +1663,7 @@
         <v>43</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>40</v>
@@ -1674,13 +1674,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>125</v>
       </c>
       <c r="D42" s="5">
         <v>1</v>
@@ -1688,13 +1688,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>167</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>168</v>
       </c>
       <c r="D43" s="4">
         <v>750</v>
@@ -1705,7 +1705,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>45</v>
@@ -1719,7 +1719,7 @@
         <v>46</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>45</v>
@@ -1730,24 +1730,24 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>152</v>
-      </c>
       <c r="D46" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>47</v>
@@ -1761,7 +1761,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>49</v>
@@ -1775,7 +1775,7 @@
         <v>50</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>51</v>
@@ -1789,7 +1789,7 @@
         <v>52</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>53</v>
@@ -1803,7 +1803,7 @@
         <v>54</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>55</v>
@@ -1814,13 +1814,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="D52" s="5">
         <v>1</v>
@@ -1828,13 +1828,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>170</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>171</v>
       </c>
       <c r="D53" s="4">
         <v>1164</v>
@@ -1845,7 +1845,7 @@
         <v>56</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>57</v>
@@ -1859,7 +1859,7 @@
         <v>58</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>59</v>
@@ -1870,10 +1870,10 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>60</v>
@@ -1884,10 +1884,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>60</v>
@@ -1901,7 +1901,7 @@
         <v>61</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>62</v>
@@ -1915,7 +1915,7 @@
         <v>63</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>64</v>
@@ -1926,13 +1926,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>186</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>187</v>
       </c>
       <c r="D60" s="4">
         <v>33</v>
@@ -1940,13 +1940,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D61" s="4">
         <v>33</v>
@@ -1954,13 +1954,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D62" s="4">
         <v>32</v>
@@ -1968,13 +1968,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>190</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>191</v>
       </c>
       <c r="D63" s="4">
         <v>33</v>
@@ -1982,13 +1982,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D64" s="4">
         <v>32</v>
@@ -1996,13 +1996,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D65" s="4">
         <v>31</v>
@@ -2013,7 +2013,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>66</v>
@@ -2024,13 +2024,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>198</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>199</v>
       </c>
       <c r="D67" s="4">
         <v>1181</v>
@@ -2038,13 +2038,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>181</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>182</v>
       </c>
       <c r="D68" s="4">
         <v>1172</v>
@@ -2052,13 +2052,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D69" s="4">
         <v>1173</v>
@@ -2066,13 +2066,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D70" s="4">
         <v>1174</v>
@@ -2083,7 +2083,7 @@
         <v>67</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>68</v>
@@ -2094,24 +2094,24 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="B72" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C72" s="4" t="s">
+      <c r="D72" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>69</v>
@@ -2122,13 +2122,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D74" s="4">
         <v>1167</v>
@@ -2139,7 +2139,7 @@
         <v>70</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>71</v>
@@ -2153,7 +2153,7 @@
         <v>72</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>71</v>
@@ -2167,7 +2167,7 @@
         <v>73</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>74</v>
@@ -2181,7 +2181,7 @@
         <v>75</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>76</v>
@@ -2195,7 +2195,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>78</v>
@@ -2209,7 +2209,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>78</v>
@@ -2220,16 +2220,16 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>78</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -2237,7 +2237,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>81</v>
@@ -2251,7 +2251,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>81</v>
@@ -2265,7 +2265,7 @@
         <v>85</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>84</v>
@@ -2279,7 +2279,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>84</v>
@@ -2290,16 +2290,16 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C86" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B86" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>159</v>
-      </c>
       <c r="D86" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -2307,7 +2307,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>87</v>
@@ -2318,13 +2318,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C88" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>128</v>
       </c>
       <c r="D88" s="4">
         <v>1</v>
@@ -2335,7 +2335,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>89</v>
@@ -2346,13 +2346,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C90" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>149</v>
       </c>
       <c r="D90" s="4">
         <v>884</v>
@@ -2363,7 +2363,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>91</v>
@@ -2377,7 +2377,7 @@
         <v>92</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>93</v>
@@ -2388,13 +2388,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D93" s="4">
         <v>986</v>
@@ -2402,10 +2402,10 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>94</v>
@@ -2416,10 +2416,10 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>95</v>
+        <v>201</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>94</v>
@@ -2430,13 +2430,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="D96" s="4">
         <v>170</v>
@@ -2444,13 +2444,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D97" s="5">
         <v>163</v>
@@ -2458,13 +2458,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D98" s="5">
         <v>799</v>
@@ -2472,13 +2472,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C99" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="D99" s="5">
         <v>160</v>
@@ -2486,13 +2486,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D100" s="5">
         <v>569</v>
@@ -2500,13 +2500,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D101" s="5">
         <v>762</v>
@@ -2514,13 +2514,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C102" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="D102" s="4">
         <v>211</v>
@@ -2528,13 +2528,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C103" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>132</v>
       </c>
       <c r="D103" s="4">
         <v>1</v>
@@ -2542,13 +2542,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C104" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>130</v>
       </c>
       <c r="D104" s="4">
         <v>2</v>
@@ -2556,13 +2556,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D105" s="4">
         <v>1</v>
@@ -2570,27 +2570,27 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C106" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="B106" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C106" s="4" t="s">
+      <c r="D106" s="4" t="s">
         <v>163</v>
-      </c>
-      <c r="D106" s="4" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D107" s="4">
         <v>15</v>
@@ -2598,13 +2598,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C108" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="D108" s="4">
         <v>1</v>

--- a/pages/BA_ssoservi_cservico_ssala.xlsx
+++ b/pages/BA_ssoservi_cservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD7BFE2-4125-419A-9E16-1FAAA813DBA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{874E623C-8F6C-44C9-A517-93BC17634707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{66DD5035-C496-4A33-BA22-CD402935C2B8}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$107</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$105</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="199">
   <si>
     <t>Complemento</t>
   </si>
@@ -278,9 +278,6 @@
     <t>S020025</t>
   </si>
   <si>
-    <t>PASTA PLASTICA C/ ELASTICO - 30MM</t>
-  </si>
-  <si>
     <t>PILHA - AA (PAR)</t>
   </si>
   <si>
@@ -504,12 +501,6 @@
   </si>
   <si>
     <t>591</t>
-  </si>
-  <si>
-    <t>PASTA PLASTICA C/ ELASTICO - 55MM</t>
-  </si>
-  <si>
-    <t>88</t>
   </si>
   <si>
     <t>PRANCHETA A4 - UNICA</t>
@@ -1084,10 +1075,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A369FB58-D533-46A6-B5FA-793763E80E34}">
-  <dimension ref="A1:D108"/>
+  <dimension ref="A1:D106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="A94" sqref="A94"/>
+      <selection activeCell="A80" sqref="A80:XFD80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1103,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1114,13 +1105,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D2" s="5">
         <v>0.5</v>
@@ -1128,10 +1119,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>3</v>
@@ -1142,13 +1133,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="D4" s="5">
         <v>53</v>
@@ -1156,13 +1147,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>118</v>
       </c>
       <c r="D5" s="5">
         <v>2</v>
@@ -1170,13 +1161,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D6" s="4">
         <v>1208</v>
@@ -1184,13 +1175,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>136</v>
       </c>
       <c r="D7" s="5">
         <v>122</v>
@@ -1201,7 +1192,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>5</v>
@@ -1215,7 +1206,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>7</v>
@@ -1229,7 +1220,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>9</v>
@@ -1243,7 +1234,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>11</v>
@@ -1257,7 +1248,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>11</v>
@@ -1271,7 +1262,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>14</v>
@@ -1285,7 +1276,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>16</v>
@@ -1296,13 +1287,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D15" s="4">
         <v>1</v>
@@ -1313,7 +1304,7 @@
         <v>17</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>18</v>
@@ -1327,7 +1318,7 @@
         <v>19</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>18</v>
@@ -1338,10 +1329,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>18</v>
@@ -1355,7 +1346,7 @@
         <v>20</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>21</v>
@@ -1369,7 +1360,7 @@
         <v>22</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>23</v>
@@ -1383,7 +1374,7 @@
         <v>24</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>25</v>
@@ -1394,13 +1385,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="D22" s="5">
         <v>904</v>
@@ -1408,13 +1399,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D23" s="4">
         <v>903</v>
@@ -1425,7 +1416,7 @@
         <v>26</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>27</v>
@@ -1436,10 +1427,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>27</v>
@@ -1450,13 +1441,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D26" s="5">
         <v>1</v>
@@ -1467,7 +1458,7 @@
         <v>28</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>29</v>
@@ -1481,7 +1472,7 @@
         <v>30</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>31</v>
@@ -1492,13 +1483,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D29" s="4">
         <v>1176</v>
@@ -1506,13 +1497,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D30" s="4">
         <v>1177</v>
@@ -1520,13 +1511,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D31" s="4">
         <v>1178</v>
@@ -1534,13 +1525,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D32" s="4">
         <v>1179</v>
@@ -1551,7 +1542,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>33</v>
@@ -1562,16 +1553,16 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1579,7 +1570,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>35</v>
@@ -1590,10 +1581,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>36</v>
@@ -1607,7 +1598,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>38</v>
@@ -1621,7 +1612,7 @@
         <v>39</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>40</v>
@@ -1635,7 +1626,7 @@
         <v>41</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>40</v>
@@ -1649,7 +1640,7 @@
         <v>42</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>40</v>
@@ -1663,7 +1654,7 @@
         <v>43</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>40</v>
@@ -1674,13 +1665,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>124</v>
       </c>
       <c r="D42" s="5">
         <v>1</v>
@@ -1688,13 +1679,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D43" s="4">
         <v>750</v>
@@ -1705,7 +1696,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>45</v>
@@ -1719,7 +1710,7 @@
         <v>46</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>45</v>
@@ -1730,24 +1721,24 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>151</v>
-      </c>
       <c r="D46" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>47</v>
@@ -1761,7 +1752,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>49</v>
@@ -1775,7 +1766,7 @@
         <v>50</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>51</v>
@@ -1789,7 +1780,7 @@
         <v>52</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>53</v>
@@ -1803,7 +1794,7 @@
         <v>54</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>55</v>
@@ -1814,13 +1805,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="D52" s="5">
         <v>1</v>
@@ -1828,13 +1819,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D53" s="4">
         <v>1164</v>
@@ -1845,7 +1836,7 @@
         <v>56</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>57</v>
@@ -1859,7 +1850,7 @@
         <v>58</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>59</v>
@@ -1870,10 +1861,10 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>60</v>
@@ -1884,10 +1875,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>60</v>
@@ -1901,7 +1892,7 @@
         <v>61</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>62</v>
@@ -1915,7 +1906,7 @@
         <v>63</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>64</v>
@@ -1926,13 +1917,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D60" s="4">
         <v>33</v>
@@ -1940,13 +1931,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D61" s="4">
         <v>33</v>
@@ -1954,13 +1945,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D62" s="4">
         <v>32</v>
@@ -1968,13 +1959,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D63" s="4">
         <v>33</v>
@@ -1982,13 +1973,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D64" s="4">
         <v>32</v>
@@ -1996,13 +1987,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D65" s="4">
         <v>31</v>
@@ -2013,7 +2004,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>66</v>
@@ -2024,13 +2015,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D67" s="4">
         <v>1181</v>
@@ -2038,13 +2029,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D68" s="4">
         <v>1172</v>
@@ -2052,13 +2043,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D69" s="4">
         <v>1173</v>
@@ -2066,13 +2057,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D70" s="4">
         <v>1174</v>
@@ -2083,7 +2074,7 @@
         <v>67</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>68</v>
@@ -2094,24 +2085,24 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B72" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C72" s="4" t="s">
+      <c r="D72" s="4" t="s">
         <v>153</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>69</v>
@@ -2122,13 +2113,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D74" s="4">
         <v>1167</v>
@@ -2139,7 +2130,7 @@
         <v>70</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>71</v>
@@ -2153,7 +2144,7 @@
         <v>72</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>71</v>
@@ -2167,7 +2158,7 @@
         <v>73</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>74</v>
@@ -2181,7 +2172,7 @@
         <v>75</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>76</v>
@@ -2195,7 +2186,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>78</v>
@@ -2209,41 +2200,41 @@
         <v>79</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D80" s="4">
-        <v>87</v>
+        <v>55</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>155</v>
+        <v>81</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>156</v>
+        <v>80</v>
+      </c>
+      <c r="D81" s="4">
+        <v>54</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D82" s="4">
-        <v>55</v>
+        <v>83</v>
+      </c>
+      <c r="D82" s="5">
+        <v>994</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -2251,66 +2242,66 @@
         <v>82</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D83" s="4">
-        <v>54</v>
+        <v>83</v>
+      </c>
+      <c r="D83" s="5">
+        <v>695</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>85</v>
+        <v>154</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D84" s="5">
-        <v>994</v>
+        <v>155</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D85" s="5">
-        <v>695</v>
+        <v>86</v>
+      </c>
+      <c r="D85" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>138</v>
+        <v>126</v>
+      </c>
+      <c r="D86" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D87" s="4">
         <v>1</v>
@@ -2318,223 +2309,223 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="D88" s="4">
-        <v>1</v>
+        <v>884</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D89" s="4">
-        <v>1</v>
+        <v>53</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>147</v>
+        <v>91</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>148</v>
+        <v>92</v>
       </c>
       <c r="D90" s="4">
-        <v>884</v>
+        <v>107</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>90</v>
+        <v>191</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="D91" s="4">
-        <v>53</v>
+        <v>986</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>92</v>
+        <v>197</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>93</v>
       </c>
       <c r="D92" s="4">
-        <v>107</v>
+        <v>438</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="D93" s="4">
-        <v>986</v>
+        <v>704</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>200</v>
+        <v>94</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D94" s="4">
-        <v>438</v>
+        <v>170</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>201</v>
+        <v>96</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D95" s="4">
-        <v>704</v>
+        <v>95</v>
+      </c>
+      <c r="D95" s="5">
+        <v>163</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B96" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D96" s="4">
-        <v>170</v>
+      <c r="D96" s="5">
+        <v>799</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D97" s="5">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D98" s="5">
-        <v>799</v>
+        <v>569</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C99" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B99" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="D99" s="5">
-        <v>160</v>
+        <v>762</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D100" s="5">
-        <v>569</v>
+        <v>103</v>
+      </c>
+      <c r="D100" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D101" s="5">
-        <v>762</v>
+        <v>130</v>
+      </c>
+      <c r="D101" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="D102" s="4">
-        <v>211</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>130</v>
+        <v>190</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>140</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="D103" s="4">
         <v>1</v>
@@ -2542,78 +2533,50 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D104" s="4">
-        <v>2</v>
+        <v>159</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>193</v>
+        <v>132</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="D105" s="4">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>161</v>
+        <v>104</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D106" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D107" s="4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B108" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D108" s="4">
+      <c r="D106" s="4">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D107" xr:uid="{A369FB58-D533-46A6-B5FA-793763E80E34}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D108">
-      <sortCondition ref="A1:A107"/>
+  <autoFilter ref="A1:D105" xr:uid="{A369FB58-D533-46A6-B5FA-793763E80E34}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D106">
+      <sortCondition ref="A1:A105"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
@@ -2621,7 +2584,7 @@
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D108">
+  <conditionalFormatting sqref="A2:D106">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>

--- a/pages/BA_ssoservi_cservico_ssala.xlsx
+++ b/pages/BA_ssoservi_cservico_ssala.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{874E623C-8F6C-44C9-A517-93BC17634707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E2AA4E8-C692-4032-9FE0-B3475E500EC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{66DD5035-C496-4A33-BA22-CD402935C2B8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{66DD5035-C496-4A33-BA22-CD402935C2B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="198">
   <si>
     <t>Complemento</t>
   </si>
@@ -260,9 +260,6 @@
     <t>PAPEL A4 - BRANCO 500FLS - BRANCO 500FLS</t>
   </si>
   <si>
-    <t>PAPEL HIGIENICO - 300MT</t>
-  </si>
-  <si>
     <t>S010056</t>
   </si>
   <si>
@@ -467,9 +464,6 @@
     <t>PC</t>
   </si>
   <si>
-    <t>PC C/8</t>
-  </si>
-  <si>
     <t>PAR</t>
   </si>
   <si>
@@ -636,6 +630,9 @@
   </si>
   <si>
     <t>SACO P/ LIXO C/ 100UN - 40L</t>
+  </si>
+  <si>
+    <t>PAPEL HIGIENICO - 300MT PC C/8</t>
   </si>
 </sst>
 </file>
@@ -743,7 +740,16 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -1078,7 +1084,7 @@
   <dimension ref="A1:D106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80:XFD80"/>
+      <selection activeCell="A77" sqref="A77:D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1094,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1105,13 +1111,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D2" s="5">
         <v>0.5</v>
@@ -1119,10 +1125,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>3</v>
@@ -1133,13 +1139,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="D4" s="5">
         <v>53</v>
@@ -1147,13 +1153,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="D5" s="5">
         <v>2</v>
@@ -1161,13 +1167,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D6" s="4">
         <v>1208</v>
@@ -1175,13 +1181,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>134</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>135</v>
       </c>
       <c r="D7" s="5">
         <v>122</v>
@@ -1192,7 +1198,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>5</v>
@@ -1206,7 +1212,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>7</v>
@@ -1220,7 +1226,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>9</v>
@@ -1234,7 +1240,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>11</v>
@@ -1248,7 +1254,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>11</v>
@@ -1262,7 +1268,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>14</v>
@@ -1276,7 +1282,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>16</v>
@@ -1287,13 +1293,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D15" s="4">
         <v>1</v>
@@ -1304,7 +1310,7 @@
         <v>17</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>18</v>
@@ -1318,7 +1324,7 @@
         <v>19</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>18</v>
@@ -1329,10 +1335,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>18</v>
@@ -1346,7 +1352,7 @@
         <v>20</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>21</v>
@@ -1360,7 +1366,7 @@
         <v>22</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>23</v>
@@ -1374,7 +1380,7 @@
         <v>24</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>25</v>
@@ -1385,13 +1391,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>110</v>
       </c>
       <c r="D22" s="5">
         <v>904</v>
@@ -1399,13 +1405,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D23" s="4">
         <v>903</v>
@@ -1416,7 +1422,7 @@
         <v>26</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>27</v>
@@ -1427,10 +1433,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>27</v>
@@ -1441,13 +1447,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D26" s="5">
         <v>1</v>
@@ -1458,7 +1464,7 @@
         <v>28</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>29</v>
@@ -1472,7 +1478,7 @@
         <v>30</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>31</v>
@@ -1483,13 +1489,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D29" s="4">
         <v>1176</v>
@@ -1497,13 +1503,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D30" s="4">
         <v>1177</v>
@@ -1511,13 +1517,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D31" s="4">
         <v>1178</v>
@@ -1525,13 +1531,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D32" s="4">
         <v>1179</v>
@@ -1542,7 +1548,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>33</v>
@@ -1553,16 +1559,16 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1570,7 +1576,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>35</v>
@@ -1581,10 +1587,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>36</v>
@@ -1598,7 +1604,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>38</v>
@@ -1612,7 +1618,7 @@
         <v>39</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>40</v>
@@ -1626,7 +1632,7 @@
         <v>41</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>40</v>
@@ -1640,7 +1646,7 @@
         <v>42</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>40</v>
@@ -1654,7 +1660,7 @@
         <v>43</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>40</v>
@@ -1665,13 +1671,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="D42" s="5">
         <v>1</v>
@@ -1679,13 +1685,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D43" s="4">
         <v>750</v>
@@ -1696,7 +1702,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>45</v>
@@ -1710,7 +1716,7 @@
         <v>46</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>45</v>
@@ -1721,24 +1727,24 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>47</v>
@@ -1752,7 +1758,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>49</v>
@@ -1766,7 +1772,7 @@
         <v>50</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>51</v>
@@ -1780,7 +1786,7 @@
         <v>52</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>53</v>
@@ -1794,7 +1800,7 @@
         <v>54</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>55</v>
@@ -1805,13 +1811,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>112</v>
       </c>
       <c r="D52" s="5">
         <v>1</v>
@@ -1819,13 +1825,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D53" s="4">
         <v>1164</v>
@@ -1836,7 +1842,7 @@
         <v>56</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>57</v>
@@ -1850,7 +1856,7 @@
         <v>58</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>59</v>
@@ -1861,10 +1867,10 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>60</v>
@@ -1875,10 +1881,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>60</v>
@@ -1892,7 +1898,7 @@
         <v>61</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>62</v>
@@ -1906,7 +1912,7 @@
         <v>63</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>64</v>
@@ -1917,13 +1923,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D60" s="4">
         <v>33</v>
@@ -1931,13 +1937,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D61" s="4">
         <v>33</v>
@@ -1945,13 +1951,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D62" s="4">
         <v>32</v>
@@ -1959,13 +1965,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D63" s="4">
         <v>33</v>
@@ -1973,13 +1979,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D64" s="4">
         <v>32</v>
@@ -1987,13 +1993,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D65" s="4">
         <v>31</v>
@@ -2004,7 +2010,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>66</v>
@@ -2015,13 +2021,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D67" s="4">
         <v>1181</v>
@@ -2029,13 +2035,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D68" s="4">
         <v>1172</v>
@@ -2043,13 +2049,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D69" s="4">
         <v>1173</v>
@@ -2057,13 +2063,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D70" s="4">
         <v>1174</v>
@@ -2074,7 +2080,7 @@
         <v>67</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>68</v>
@@ -2085,24 +2091,24 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D72" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>69</v>
@@ -2113,13 +2119,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D74" s="4">
         <v>1167</v>
@@ -2130,7 +2136,7 @@
         <v>70</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>71</v>
@@ -2144,7 +2150,7 @@
         <v>72</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>71</v>
@@ -2155,27 +2161,27 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B77" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>74</v>
-      </c>
       <c r="D77" s="4">
-        <v>553</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="D78" s="4">
         <v>395</v>
@@ -2183,13 +2189,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C79" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="D79" s="4">
         <v>86</v>
@@ -2197,13 +2203,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="D80" s="4">
         <v>55</v>
@@ -2211,13 +2217,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D81" s="4">
         <v>54</v>
@@ -2225,13 +2231,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D82" s="5">
         <v>994</v>
@@ -2239,13 +2245,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>83</v>
       </c>
       <c r="D83" s="5">
         <v>695</v>
@@ -2253,27 +2259,27 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="D85" s="4">
         <v>1</v>
@@ -2281,13 +2287,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C86" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>126</v>
       </c>
       <c r="D86" s="4">
         <v>1</v>
@@ -2295,13 +2301,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C87" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="D87" s="4">
         <v>1</v>
@@ -2309,13 +2315,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D88" s="4">
         <v>884</v>
@@ -2323,13 +2329,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C89" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="D89" s="4">
         <v>53</v>
@@ -2337,13 +2343,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C90" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="D90" s="4">
         <v>107</v>
@@ -2351,13 +2357,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D91" s="4">
         <v>986</v>
@@ -2365,13 +2371,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D92" s="4">
         <v>438</v>
@@ -2379,13 +2385,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D93" s="4">
         <v>704</v>
@@ -2393,13 +2399,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C94" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="D94" s="4">
         <v>170</v>
@@ -2407,13 +2413,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D95" s="5">
         <v>163</v>
@@ -2421,13 +2427,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D96" s="5">
         <v>799</v>
@@ -2435,13 +2441,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C97" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="D97" s="5">
         <v>160</v>
@@ -2449,13 +2455,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D98" s="5">
         <v>569</v>
@@ -2463,13 +2469,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D99" s="5">
         <v>762</v>
@@ -2477,13 +2483,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C100" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="D100" s="4">
         <v>211</v>
@@ -2491,13 +2497,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C101" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>130</v>
       </c>
       <c r="D101" s="4">
         <v>1</v>
@@ -2505,13 +2511,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C102" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>128</v>
       </c>
       <c r="D102" s="4">
         <v>2</v>
@@ -2519,13 +2525,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D103" s="4">
         <v>1</v>
@@ -2533,27 +2539,27 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D104" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="D104" s="4" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D105" s="4">
         <v>15</v>
@@ -2561,13 +2567,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C106" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="D106" s="4">
         <v>1</v>
@@ -2580,13 +2586,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="1" priority="58">
+    <cfRule type="expression" dxfId="2" priority="59">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D106">
+  <conditionalFormatting sqref="A2:D76 A78:D106">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A77:D77">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A2))&gt;0</formula>
+      <formula>LEN(TRIM(A77))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/BA_ssoservi_cservico_ssala.xlsx
+++ b/pages/BA_ssoservi_cservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E2AA4E8-C692-4032-9FE0-B3475E500EC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A565AAEB-EC7C-4872-8CCF-4FDA8D819C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{66DD5035-C496-4A33-BA22-CD402935C2B8}"/>
   </bookViews>
@@ -191,9 +191,6 @@
     <t>S020056</t>
   </si>
   <si>
-    <t>GRAMPO - 26/6 - 26/6</t>
-  </si>
-  <si>
     <t>S020057</t>
   </si>
   <si>
@@ -633,6 +630,9 @@
   </si>
   <si>
     <t>PAPEL HIGIENICO - 300MT PC C/8</t>
+  </si>
+  <si>
+    <t>GRAMPO 26/6 P/ GRAMPEADOR - 5000UN</t>
   </si>
 </sst>
 </file>
@@ -1083,8 +1083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A369FB58-D533-46A6-B5FA-793763E80E34}">
   <dimension ref="A1:D106"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77:D77"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1100,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1111,13 +1111,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D2" s="5">
         <v>0.5</v>
@@ -1125,10 +1125,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>3</v>
@@ -1139,13 +1139,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="D4" s="5">
         <v>53</v>
@@ -1153,13 +1153,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="D5" s="5">
         <v>2</v>
@@ -1167,13 +1167,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>190</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>191</v>
       </c>
       <c r="D6" s="4">
         <v>1208</v>
@@ -1181,13 +1181,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>134</v>
       </c>
       <c r="D7" s="5">
         <v>122</v>
@@ -1198,7 +1198,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>5</v>
@@ -1212,7 +1212,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>7</v>
@@ -1226,7 +1226,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>9</v>
@@ -1240,7 +1240,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>11</v>
@@ -1254,7 +1254,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>11</v>
@@ -1268,7 +1268,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>14</v>
@@ -1282,7 +1282,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>16</v>
@@ -1293,13 +1293,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D15" s="4">
         <v>1</v>
@@ -1310,7 +1310,7 @@
         <v>17</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>18</v>
@@ -1324,7 +1324,7 @@
         <v>19</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>18</v>
@@ -1335,10 +1335,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>18</v>
@@ -1352,7 +1352,7 @@
         <v>20</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>21</v>
@@ -1366,7 +1366,7 @@
         <v>22</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>23</v>
@@ -1380,7 +1380,7 @@
         <v>24</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>25</v>
@@ -1391,13 +1391,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="D22" s="5">
         <v>904</v>
@@ -1405,13 +1405,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D23" s="4">
         <v>903</v>
@@ -1422,7 +1422,7 @@
         <v>26</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>27</v>
@@ -1433,10 +1433,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>27</v>
@@ -1447,13 +1447,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>155</v>
       </c>
       <c r="D26" s="5">
         <v>1</v>
@@ -1464,7 +1464,7 @@
         <v>28</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>29</v>
@@ -1478,7 +1478,7 @@
         <v>30</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>31</v>
@@ -1489,13 +1489,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D29" s="4">
         <v>1176</v>
@@ -1503,13 +1503,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D30" s="4">
         <v>1177</v>
@@ -1517,13 +1517,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D31" s="4">
         <v>1178</v>
@@ -1531,13 +1531,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D32" s="4">
         <v>1179</v>
@@ -1548,7 +1548,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>33</v>
@@ -1559,16 +1559,16 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>159</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1576,7 +1576,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>35</v>
@@ -1587,10 +1587,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>36</v>
@@ -1604,7 +1604,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>38</v>
@@ -1618,7 +1618,7 @@
         <v>39</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>40</v>
@@ -1632,7 +1632,7 @@
         <v>41</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>40</v>
@@ -1646,7 +1646,7 @@
         <v>42</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>40</v>
@@ -1660,7 +1660,7 @@
         <v>43</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>40</v>
@@ -1671,13 +1671,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>122</v>
       </c>
       <c r="D42" s="5">
         <v>1</v>
@@ -1685,13 +1685,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>161</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>162</v>
       </c>
       <c r="D43" s="4">
         <v>750</v>
@@ -1702,7 +1702,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>45</v>
@@ -1716,7 +1716,7 @@
         <v>46</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>45</v>
@@ -1727,24 +1727,24 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>148</v>
-      </c>
       <c r="D46" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>47</v>
@@ -1758,7 +1758,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>49</v>
@@ -1769,27 +1769,27 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>51</v>
-      </c>
       <c r="D49" s="4">
-        <v>80</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="D50" s="4">
         <v>835</v>
@@ -1797,13 +1797,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="D51" s="5">
         <v>1</v>
@@ -1811,13 +1811,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="D52" s="5">
         <v>1</v>
@@ -1825,13 +1825,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>164</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>165</v>
       </c>
       <c r="D53" s="4">
         <v>1164</v>
@@ -1839,13 +1839,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="D54" s="4">
         <v>40</v>
@@ -1853,13 +1853,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="D55" s="4">
         <v>103</v>
@@ -1867,13 +1867,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D56" s="4">
         <v>103</v>
@@ -1881,13 +1881,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D57" s="4">
         <v>1166</v>
@@ -1895,13 +1895,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="D58" s="4">
         <v>1</v>
@@ -1909,13 +1909,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>64</v>
       </c>
       <c r="D59" s="4">
         <v>745</v>
@@ -1923,13 +1923,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>180</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>181</v>
       </c>
       <c r="D60" s="4">
         <v>33</v>
@@ -1937,13 +1937,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D61" s="4">
         <v>33</v>
@@ -1951,13 +1951,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D62" s="4">
         <v>32</v>
@@ -1965,13 +1965,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>185</v>
       </c>
       <c r="D63" s="4">
         <v>33</v>
@@ -1979,13 +1979,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D64" s="4">
         <v>32</v>
@@ -1993,13 +1993,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D65" s="4">
         <v>31</v>
@@ -2007,13 +2007,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="D66" s="4">
         <v>2</v>
@@ -2021,13 +2021,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>192</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>193</v>
       </c>
       <c r="D67" s="4">
         <v>1181</v>
@@ -2035,13 +2035,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>175</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>176</v>
       </c>
       <c r="D68" s="4">
         <v>1172</v>
@@ -2049,13 +2049,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D69" s="4">
         <v>1173</v>
@@ -2063,13 +2063,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D70" s="4">
         <v>1174</v>
@@ -2077,13 +2077,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="D71" s="4">
         <v>211</v>
@@ -2091,27 +2091,27 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B72" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C72" s="4" t="s">
+      <c r="D72" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D73" s="4">
         <v>1167</v>
@@ -2119,13 +2119,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D74" s="4">
         <v>1167</v>
@@ -2133,13 +2133,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C75" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="D75" s="4">
         <v>820</v>
@@ -2147,13 +2147,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D76" s="4">
         <v>819</v>
@@ -2161,13 +2161,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D77" s="4">
         <v>1394</v>
@@ -2175,13 +2175,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="D78" s="4">
         <v>395</v>
@@ -2189,13 +2189,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C79" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="D79" s="4">
         <v>86</v>
@@ -2203,13 +2203,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="D80" s="4">
         <v>55</v>
@@ -2217,13 +2217,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D81" s="4">
         <v>54</v>
@@ -2231,13 +2231,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D82" s="5">
         <v>994</v>
@@ -2245,13 +2245,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="D83" s="5">
         <v>695</v>
@@ -2259,27 +2259,27 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B84" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>153</v>
-      </c>
       <c r="D84" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="D85" s="4">
         <v>1</v>
@@ -2287,13 +2287,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C86" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>125</v>
       </c>
       <c r="D86" s="4">
         <v>1</v>
@@ -2301,13 +2301,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C87" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="D87" s="4">
         <v>1</v>
@@ -2315,13 +2315,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C88" s="4" t="s">
         <v>144</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>145</v>
       </c>
       <c r="D88" s="4">
         <v>884</v>
@@ -2329,13 +2329,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C89" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="D89" s="4">
         <v>53</v>
@@ -2343,13 +2343,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C90" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="D90" s="4">
         <v>107</v>
@@ -2357,13 +2357,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D91" s="4">
         <v>986</v>
@@ -2371,13 +2371,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D92" s="4">
         <v>438</v>
@@ -2385,13 +2385,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D93" s="4">
         <v>704</v>
@@ -2399,13 +2399,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C94" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="D94" s="4">
         <v>170</v>
@@ -2413,13 +2413,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D95" s="5">
         <v>163</v>
@@ -2427,13 +2427,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D96" s="5">
         <v>799</v>
@@ -2441,13 +2441,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C97" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="D97" s="5">
         <v>160</v>
@@ -2455,13 +2455,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D98" s="5">
         <v>569</v>
@@ -2469,13 +2469,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D99" s="5">
         <v>762</v>
@@ -2483,13 +2483,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C100" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="D100" s="4">
         <v>211</v>
@@ -2497,13 +2497,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C101" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>129</v>
       </c>
       <c r="D101" s="4">
         <v>1</v>
@@ -2511,13 +2511,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C102" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>127</v>
       </c>
       <c r="D102" s="4">
         <v>2</v>
@@ -2525,13 +2525,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D103" s="4">
         <v>1</v>
@@ -2539,27 +2539,27 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C104" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B104" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C104" s="4" t="s">
+      <c r="D104" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="D104" s="4" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D105" s="4">
         <v>15</v>
@@ -2567,13 +2567,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C106" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="D106" s="4">
         <v>1</v>
@@ -2586,18 +2586,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="59">
+    <cfRule type="expression" dxfId="2" priority="60">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D76 A78:D106">
+  <conditionalFormatting sqref="A2:D48 A50:D106">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A77:D77">
+  <conditionalFormatting sqref="A49:D49">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A77))&gt;0</formula>
+      <formula>LEN(TRIM(A49))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/BA_ssoservi_cservico_ssala.xlsx
+++ b/pages/BA_ssoservi_cservico_ssala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A565AAEB-EC7C-4872-8CCF-4FDA8D819C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6F222A-A694-46E2-AF9A-87B8D5091556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{66DD5035-C496-4A33-BA22-CD402935C2B8}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$105</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$106</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="197">
   <si>
     <t>Complemento</t>
   </si>
@@ -86,9 +86,6 @@
     <t>S020082</t>
   </si>
   <si>
-    <t>CALCULADORA PORTATIL - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020083</t>
   </si>
   <si>
@@ -101,15 +98,9 @@
     <t>CANETA ESFEROGRAFICA ESC. FINA - PRETO</t>
   </si>
   <si>
-    <t>CLIPE 2/0 COM 100UND - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020087</t>
   </si>
   <si>
-    <t>CLIPE 8/0 COM 25UND - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020090</t>
   </si>
   <si>
@@ -137,24 +128,15 @@
     <t>S010013</t>
   </si>
   <si>
-    <t>EMBALAGEM PARA PRESENTE - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S050018</t>
   </si>
   <si>
-    <t>ESPANADOR - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S110018</t>
   </si>
   <si>
     <t>S010018</t>
   </si>
   <si>
-    <t>ESTILETE C/ LAMINA 18MM - LARGA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020046</t>
   </si>
   <si>
@@ -200,9 +182,6 @@
     <t>S150339</t>
   </si>
   <si>
-    <t>LACRE DE SEGURANÇA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S050012</t>
   </si>
   <si>
@@ -221,9 +200,6 @@
     <t>S010027</t>
   </si>
   <si>
-    <t>LIVRO ATA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020063</t>
   </si>
   <si>
@@ -290,15 +266,9 @@
     <t>PORTA ETIQUETA - 60CM</t>
   </si>
   <si>
-    <t>PROTOCOLO DE CORRESPONDENCIA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020038</t>
   </si>
   <si>
-    <t>RODO - UNICA</t>
-  </si>
-  <si>
     <t>S110029</t>
   </si>
   <si>
@@ -347,9 +317,6 @@
     <t>S040046</t>
   </si>
   <si>
-    <t>VASSOURA DE PIASSAVA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S110037</t>
   </si>
   <si>
@@ -368,9 +335,6 @@
     <t>S010009</t>
   </si>
   <si>
-    <t>LANCETAS - UNICA</t>
-  </si>
-  <si>
     <t>S150191</t>
   </si>
   <si>
@@ -392,27 +356,18 @@
     <t>CANETA ESFEROGRAFICA ESC. FINA - VERMELHA</t>
   </si>
   <si>
-    <t>CANETA DETECTA DINHEIRO FALSO - UNICA</t>
-  </si>
-  <si>
     <t>COLETOR PERFURO-CORTANTE - 7LTS</t>
   </si>
   <si>
     <t>S010087</t>
   </si>
   <si>
-    <t>EXTRATOR DE GRAMPOS - UNICA</t>
-  </si>
-  <si>
     <t>S020048</t>
   </si>
   <si>
     <t>S020041</t>
   </si>
   <si>
-    <t>QUADRO DE AVISO - UNICA</t>
-  </si>
-  <si>
     <t>S020118</t>
   </si>
   <si>
@@ -422,9 +377,6 @@
     <t>S020009</t>
   </si>
   <si>
-    <t>TESOURA ESCOLAR - UNICA</t>
-  </si>
-  <si>
     <t>S020007</t>
   </si>
   <si>
@@ -434,9 +386,6 @@
     <t>VASSOURA DE PELO SINTETICO - PLASTICO</t>
   </si>
   <si>
-    <t>S150295</t>
-  </si>
-  <si>
     <t>BALDE - 10L - 10L</t>
   </si>
   <si>
@@ -446,9 +395,6 @@
     <t>S010038</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>UM.</t>
   </si>
   <si>
@@ -479,9 +425,6 @@
     <t>PC C/10</t>
   </si>
   <si>
-    <t>FITA DUPLA FACE - UNICA</t>
-  </si>
-  <si>
     <t>S230009</t>
   </si>
   <si>
@@ -494,15 +437,9 @@
     <t>591</t>
   </si>
   <si>
-    <t>PRANCHETA A4 - UNICA</t>
-  </si>
-  <si>
     <t>S020036</t>
   </si>
   <si>
-    <t>CURATIVO ADESIVO EM DISCO - UNICA</t>
-  </si>
-  <si>
     <t>S150189</t>
   </si>
   <si>
@@ -602,9 +539,6 @@
     <t>LUVA PROCEDIMENTO DESCARTAVEL - TAM.P - TAM.P</t>
   </si>
   <si>
-    <t>TIRA P/ TESTE DE GLICEMIA - UNICA</t>
-  </si>
-  <si>
     <t>SACO P/ LIXO INFECTANTE - 50L</t>
   </si>
   <si>
@@ -633,6 +567,69 @@
   </si>
   <si>
     <t>GRAMPO 26/6 P/ GRAMPEADOR - 5000UN</t>
+  </si>
+  <si>
+    <t>CALCULADORA PORTATIL - 12 DIGITOS</t>
+  </si>
+  <si>
+    <t>CANETA DETECTA DINHEIRO FALSO - LUMINOSA - LUMINOSA</t>
+  </si>
+  <si>
+    <t>S020133</t>
+  </si>
+  <si>
+    <t>CLIPE 2/0 - 100UND</t>
+  </si>
+  <si>
+    <t>CLIPE 8/0 - 25UND</t>
+  </si>
+  <si>
+    <t>CURATIVO ADESIVO EM DISCO - 500 UND</t>
+  </si>
+  <si>
+    <t>SACOLA DE PAPEL PERSONALIZADA - 22X25</t>
+  </si>
+  <si>
+    <t>ESPANADOR - PENA</t>
+  </si>
+  <si>
+    <t>ESTILETE C/ LAMINA - LARGA - 18MM</t>
+  </si>
+  <si>
+    <t>EXTRATOR DE GRAMPOS - METALICO</t>
+  </si>
+  <si>
+    <t>FITA DUPLA FACE - 19mm x 3m</t>
+  </si>
+  <si>
+    <t>LACRE DE SEGURANÇA PERSONALIZADO - 16CM</t>
+  </si>
+  <si>
+    <t>LANCETAS - 100UN - 100UN</t>
+  </si>
+  <si>
+    <t>LIVRO ATA - 100FLS</t>
+  </si>
+  <si>
+    <t>PRANCHETA A4 - MDF A4</t>
+  </si>
+  <si>
+    <t>PROTOCOLO DE CORRESPONDENCIA - 96 FLS</t>
+  </si>
+  <si>
+    <t>QUADRO DE AVISO - 90X60CM - 90X60CM</t>
+  </si>
+  <si>
+    <t>RODO - LIMPA VIDRO</t>
+  </si>
+  <si>
+    <t>TESOURA ESCOLAR - 4"</t>
+  </si>
+  <si>
+    <t>TIRA P/ TESTE DE GLICEMIA - ACCU-CHEK</t>
+  </si>
+  <si>
+    <t>VASSOURA - PIASSAVA - PIASSAVA</t>
   </si>
 </sst>
 </file>
@@ -740,16 +737,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <border>
         <bottom style="thin">
@@ -1083,8 +1071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A369FB58-D533-46A6-B5FA-793763E80E34}">
   <dimension ref="A1:D106"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49:D49"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1100,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1111,13 +1099,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="D2" s="5">
         <v>0.5</v>
@@ -1125,10 +1113,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>3</v>
@@ -1139,13 +1127,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="D4" s="5">
         <v>53</v>
@@ -1153,13 +1141,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="D5" s="5">
         <v>2</v>
@@ -1167,13 +1155,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="D6" s="4">
         <v>1208</v>
@@ -1181,13 +1169,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="D7" s="5">
         <v>122</v>
@@ -1198,7 +1186,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>5</v>
@@ -1212,7 +1200,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>7</v>
@@ -1226,7 +1214,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>9</v>
@@ -1240,7 +1228,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>11</v>
@@ -1254,7 +1242,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>11</v>
@@ -1268,7 +1256,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>14</v>
@@ -1279,41 +1267,41 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="D14" s="4">
-        <v>1</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>117</v>
+        <v>177</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>131</v>
+        <v>178</v>
       </c>
       <c r="D15" s="4">
-        <v>1</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="D16" s="4">
         <v>2</v>
@@ -1321,13 +1309,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D17" s="4">
         <v>3</v>
@@ -1335,13 +1323,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D18" s="4">
         <v>4</v>
@@ -1349,41 +1337,41 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>20</v>
+        <v>179</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="4">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>22</v>
+        <v>180</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D20" s="4">
-        <v>1</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D21" s="4">
         <v>52</v>
@@ -1391,13 +1379,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D22" s="5">
         <v>904</v>
@@ -1405,13 +1393,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D23" s="4">
         <v>903</v>
@@ -1419,13 +1407,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D24" s="4">
         <v>108</v>
@@ -1433,13 +1421,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D25" s="4">
         <v>100</v>
@@ -1447,27 +1435,27 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="D26" s="5">
-        <v>1</v>
+        <v>874</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D27" s="4">
         <v>107</v>
@@ -1475,13 +1463,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D28" s="4">
         <v>103</v>
@@ -1489,13 +1477,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="D29" s="4">
         <v>1176</v>
@@ -1503,13 +1491,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="D30" s="4">
         <v>1177</v>
@@ -1517,13 +1505,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="D31" s="4">
         <v>1178</v>
@@ -1531,13 +1519,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="D32" s="4">
         <v>1179</v>
@@ -1545,55 +1533,55 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>32</v>
+        <v>182</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D33" s="5">
-        <v>1</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>34</v>
+        <v>183</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D35" s="4">
-        <v>1</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D36" s="4">
         <v>1162</v>
@@ -1601,27 +1589,27 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>37</v>
+        <v>184</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D37" s="4">
-        <v>1</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D38" s="5">
         <v>899</v>
@@ -1629,13 +1617,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D39" s="5">
         <v>896</v>
@@ -1643,13 +1631,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D40" s="5">
         <v>900</v>
@@ -1657,13 +1645,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D41" s="5">
         <v>898</v>
@@ -1671,27 +1659,27 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>120</v>
+        <v>185</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="D42" s="5">
-        <v>1</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="D43" s="4">
         <v>750</v>
@@ -1699,13 +1687,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D44" s="4">
         <v>166</v>
@@ -1713,13 +1701,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D45" s="4">
         <v>167</v>
@@ -1727,27 +1715,27 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>146</v>
+        <v>186</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>135</v>
+        <v>128</v>
+      </c>
+      <c r="D46" s="4">
+        <v>272</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D47" s="4">
         <v>448</v>
@@ -1755,13 +1743,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D48" s="4">
         <v>80</v>
@@ -1769,13 +1757,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D49" s="4">
         <v>1396</v>
@@ -1783,13 +1771,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D50" s="4">
         <v>835</v>
@@ -1797,41 +1785,41 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>53</v>
+        <v>187</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D51" s="5">
-        <v>1</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>109</v>
+        <v>188</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D52" s="5">
-        <v>1</v>
+        <v>98</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="D53" s="4">
         <v>1164</v>
@@ -1839,13 +1827,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D54" s="4">
         <v>40</v>
@@ -1853,13 +1841,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D55" s="4">
         <v>103</v>
@@ -1867,13 +1855,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D56" s="4">
         <v>103</v>
@@ -1881,13 +1869,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D57" s="4">
         <v>1166</v>
@@ -1895,27 +1883,27 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>60</v>
+        <v>189</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D58" s="4">
-        <v>1</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D59" s="4">
         <v>745</v>
@@ -1923,13 +1911,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="D60" s="4">
         <v>33</v>
@@ -1937,13 +1925,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="D61" s="4">
         <v>33</v>
@@ -1951,13 +1939,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="D62" s="4">
         <v>32</v>
@@ -1965,13 +1953,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="D63" s="4">
         <v>33</v>
@@ -1979,13 +1967,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="D64" s="4">
         <v>32</v>
@@ -1993,13 +1981,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="D65" s="4">
         <v>31</v>
@@ -2007,13 +1995,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D66" s="4">
         <v>2</v>
@@ -2021,13 +2009,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="D67" s="4">
         <v>1181</v>
@@ -2035,13 +2023,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="D68" s="4">
         <v>1172</v>
@@ -2049,13 +2037,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="D69" s="4">
         <v>1173</v>
@@ -2063,13 +2051,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="D70" s="4">
         <v>1174</v>
@@ -2077,13 +2065,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D71" s="4">
         <v>211</v>
@@ -2091,27 +2079,27 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D73" s="4">
         <v>1167</v>
@@ -2119,13 +2107,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="D74" s="4">
         <v>1167</v>
@@ -2133,13 +2121,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D75" s="4">
         <v>820</v>
@@ -2147,13 +2135,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D76" s="4">
         <v>819</v>
@@ -2161,13 +2149,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D77" s="4">
         <v>1394</v>
@@ -2175,13 +2163,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D78" s="4">
         <v>395</v>
@@ -2189,13 +2177,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D79" s="4">
         <v>86</v>
@@ -2203,13 +2191,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D80" s="4">
         <v>55</v>
@@ -2217,13 +2205,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D81" s="4">
         <v>54</v>
@@ -2231,13 +2219,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D82" s="5">
         <v>994</v>
@@ -2245,13 +2233,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D83" s="5">
         <v>695</v>
@@ -2259,69 +2247,69 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>151</v>
+        <v>190</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
+      </c>
+      <c r="D84" s="4">
+        <v>1457</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>83</v>
+        <v>191</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D85" s="4">
-        <v>1</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>123</v>
+        <v>192</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="D86" s="4">
-        <v>1</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>85</v>
+        <v>193</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D87" s="4">
-        <v>1</v>
+        <v>798</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="D88" s="4">
         <v>884</v>
@@ -2329,13 +2317,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D89" s="4">
         <v>53</v>
@@ -2343,13 +2331,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D90" s="4">
         <v>107</v>
@@ -2357,13 +2345,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="D91" s="4">
         <v>986</v>
@@ -2371,13 +2359,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D92" s="4">
         <v>438</v>
@@ -2385,13 +2373,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D93" s="4">
         <v>704</v>
@@ -2399,13 +2387,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D94" s="4">
         <v>170</v>
@@ -2413,13 +2401,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D95" s="5">
         <v>163</v>
@@ -2427,13 +2415,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D96" s="5">
         <v>799</v>
@@ -2441,13 +2429,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D97" s="5">
         <v>160</v>
@@ -2455,13 +2443,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D98" s="5">
         <v>569</v>
@@ -2469,13 +2457,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D99" s="5">
         <v>762</v>
@@ -2483,13 +2471,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D100" s="4">
         <v>211</v>
@@ -2497,27 +2485,27 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>127</v>
+        <v>194</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="D101" s="4">
-        <v>1</v>
+        <v>202</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="D102" s="4">
         <v>2</v>
@@ -2525,41 +2513,41 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="D103" s="4">
-        <v>1</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="D105" s="4">
         <v>15</v>
@@ -2567,37 +2555,27 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>102</v>
+        <v>196</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D106" s="4">
-        <v>1</v>
+        <v>1458</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D105" xr:uid="{A369FB58-D533-46A6-B5FA-793763E80E34}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D106">
-      <sortCondition ref="A1:A105"/>
-    </sortState>
-  </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="60">
+    <cfRule type="expression" dxfId="1" priority="60">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D48 A50:D106">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D106">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A49:D49">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A49))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/BA_ssoservi_cservico_ssala.xlsx
+++ b/pages/BA_ssoservi_cservico_ssala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6F222A-A694-46E2-AF9A-87B8D5091556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF232A9-DFFF-4B5D-B952-1F0D932325AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{66DD5035-C496-4A33-BA22-CD402935C2B8}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$106</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$105</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="196">
   <si>
     <t>Complemento</t>
   </si>
@@ -552,9 +552,6 @@
   </si>
   <si>
     <t>S080026</t>
-  </si>
-  <si>
-    <t>LIMPADOR MULTIUSO - CIF LIQUIDO</t>
   </si>
   <si>
     <t>SACO P/ LIXO C/ 100UN - 100L</t>
@@ -1069,10 +1066,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A369FB58-D533-46A6-B5FA-793763E80E34}">
-  <dimension ref="A1:D106"/>
+  <dimension ref="A1:D105"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1267,7 +1264,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>119</v>
@@ -1281,13 +1278,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>177</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>178</v>
       </c>
       <c r="D15" s="4">
         <v>1184</v>
@@ -1337,7 +1334,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>120</v>
@@ -1351,7 +1348,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>120</v>
@@ -1435,7 +1432,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>119</v>
@@ -1533,7 +1530,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>119</v>
@@ -1561,7 +1558,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>119</v>
@@ -1589,7 +1586,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>119</v>
@@ -1659,7 +1656,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>119</v>
@@ -1715,7 +1712,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>119</v>
@@ -1757,7 +1754,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>120</v>
@@ -1785,7 +1782,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>119</v>
@@ -1799,7 +1796,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>120</v>
@@ -1869,49 +1866,49 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D57" s="4">
-        <v>1166</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>189</v>
+        <v>54</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D58" s="4">
-        <v>70</v>
+        <v>745</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>54</v>
+        <v>158</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>55</v>
+        <v>159</v>
       </c>
       <c r="D59" s="4">
-        <v>745</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>119</v>
@@ -1925,7 +1922,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>119</v>
@@ -1934,26 +1931,26 @@
         <v>159</v>
       </c>
       <c r="D61" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D62" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>119</v>
@@ -1962,12 +1959,12 @@
         <v>163</v>
       </c>
       <c r="D63" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>119</v>
@@ -1976,54 +1973,54 @@
         <v>163</v>
       </c>
       <c r="D64" s="4">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>165</v>
+        <v>56</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>163</v>
+        <v>57</v>
       </c>
       <c r="D65" s="4">
-        <v>31</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>56</v>
+        <v>169</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>57</v>
+        <v>170</v>
       </c>
       <c r="D66" s="4">
-        <v>2</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="D67" s="4">
-        <v>1181</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>119</v>
@@ -2032,12 +2029,12 @@
         <v>154</v>
       </c>
       <c r="D68" s="4">
-        <v>1172</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>119</v>
@@ -2046,60 +2043,60 @@
         <v>154</v>
       </c>
       <c r="D69" s="4">
-        <v>1173</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>156</v>
+        <v>58</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>154</v>
+        <v>59</v>
       </c>
       <c r="D70" s="4">
-        <v>1174</v>
+        <v>211</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>58</v>
+        <v>129</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D71" s="4">
-        <v>211</v>
+        <v>130</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>131</v>
+        <v>60</v>
+      </c>
+      <c r="D72" s="4">
+        <v>1167</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>60</v>
+        <v>117</v>
       </c>
       <c r="D73" s="4">
         <v>1167</v>
@@ -2107,21 +2104,21 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>152</v>
+        <v>61</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>117</v>
+        <v>62</v>
       </c>
       <c r="D74" s="4">
-        <v>1167</v>
+        <v>820</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>121</v>
@@ -2130,68 +2127,68 @@
         <v>62</v>
       </c>
       <c r="D75" s="4">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>63</v>
+        <v>173</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>121</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D76" s="4">
-        <v>819</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>174</v>
+        <v>65</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D77" s="4">
-        <v>1394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D78" s="4">
-        <v>395</v>
+        <v>86</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D79" s="4">
-        <v>86</v>
+        <v>55</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>122</v>
@@ -2200,26 +2197,26 @@
         <v>70</v>
       </c>
       <c r="D80" s="4">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D81" s="4">
-        <v>54</v>
+        <v>73</v>
+      </c>
+      <c r="D81" s="5">
+        <v>994</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>119</v>
@@ -2228,21 +2225,21 @@
         <v>73</v>
       </c>
       <c r="D82" s="5">
-        <v>994</v>
+        <v>695</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>72</v>
+        <v>189</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D83" s="5">
-        <v>695</v>
+        <v>132</v>
+      </c>
+      <c r="D83" s="4">
+        <v>1457</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -2253,10 +2250,10 @@
         <v>119</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="D84" s="4">
-        <v>1457</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -2267,10 +2264,10 @@
         <v>119</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="D85" s="4">
-        <v>1182</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -2281,80 +2278,80 @@
         <v>119</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="D86" s="4">
-        <v>1030</v>
+        <v>798</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>193</v>
+        <v>125</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="D87" s="4">
-        <v>798</v>
+        <v>884</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>121</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="D88" s="4">
-        <v>884</v>
+        <v>53</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D89" s="4">
-        <v>53</v>
+        <v>107</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="D90" s="4">
-        <v>107</v>
+        <v>986</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>121</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D91" s="4">
-        <v>986</v>
+        <v>438</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -2368,40 +2365,40 @@
         <v>81</v>
       </c>
       <c r="D92" s="4">
-        <v>438</v>
+        <v>704</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>173</v>
+        <v>82</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D93" s="4">
-        <v>704</v>
+        <v>170</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="4">
-        <v>170</v>
+      <c r="D94" s="5">
+        <v>163</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>119</v>
@@ -2410,26 +2407,26 @@
         <v>83</v>
       </c>
       <c r="D95" s="5">
-        <v>163</v>
+        <v>799</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D96" s="5">
-        <v>799</v>
+        <v>160</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>124</v>
@@ -2438,12 +2435,12 @@
         <v>87</v>
       </c>
       <c r="D97" s="5">
-        <v>160</v>
+        <v>569</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>124</v>
@@ -2452,118 +2449,104 @@
         <v>87</v>
       </c>
       <c r="D98" s="5">
-        <v>569</v>
+        <v>762</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D99" s="5">
-        <v>762</v>
+        <v>91</v>
+      </c>
+      <c r="D99" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>90</v>
+        <v>193</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="D100" s="4">
-        <v>211</v>
+        <v>202</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>194</v>
+        <v>110</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D101" s="4">
-        <v>202</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>110</v>
+        <v>194</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D102" s="4">
-        <v>2</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>195</v>
+        <v>134</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D103" s="4">
-        <v>1417</v>
+        <v>135</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D104" s="4" t="s">
-        <v>136</v>
+        <v>113</v>
+      </c>
+      <c r="D104" s="4">
+        <v>15</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>114</v>
+        <v>195</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="D105" s="4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D106" s="4">
         <v>1458</v>
       </c>
     </row>
@@ -2573,7 +2556,7 @@
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D106">
+  <conditionalFormatting sqref="A2:D105">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>

--- a/pages/BA_ssoservi_cservico_ssala.xlsx
+++ b/pages/BA_ssoservi_cservico_ssala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF232A9-DFFF-4B5D-B952-1F0D932325AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{403F4555-3C07-4579-9203-A57C4FABC7DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{66DD5035-C496-4A33-BA22-CD402935C2B8}"/>
   </bookViews>
@@ -512,9 +512,6 @@
     <t>MOP - REFIL UMIDO</t>
   </si>
   <si>
-    <t>AGULHA 12X40MM - 100UN</t>
-  </si>
-  <si>
     <t>LUVA MULTIUSO DE LATEX - TAM.G - TAM.G</t>
   </si>
   <si>
@@ -627,6 +624,9 @@
   </si>
   <si>
     <t>VASSOURA - PIASSAVA - PIASSAVA</t>
+  </si>
+  <si>
+    <t>AGULHA IM - CALIBRE 40X1,20MM</t>
   </si>
 </sst>
 </file>
@@ -1068,8 +1068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A369FB58-D533-46A6-B5FA-793763E80E34}">
   <dimension ref="A1:D105"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="H54" sqref="H54"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1096,7 +1096,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>157</v>
+        <v>195</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>120</v>
@@ -1105,7 +1105,7 @@
         <v>95</v>
       </c>
       <c r="D2" s="5">
-        <v>0.5</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1152,13 +1152,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D6" s="4">
         <v>1208</v>
@@ -1264,7 +1264,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>119</v>
@@ -1278,13 +1278,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>176</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>177</v>
       </c>
       <c r="D15" s="4">
         <v>1184</v>
@@ -1334,7 +1334,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>120</v>
@@ -1348,7 +1348,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>120</v>
@@ -1432,7 +1432,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>119</v>
@@ -1530,7 +1530,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>119</v>
@@ -1558,7 +1558,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>119</v>
@@ -1586,7 +1586,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>119</v>
@@ -1656,7 +1656,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>119</v>
@@ -1712,7 +1712,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>119</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>120</v>
@@ -1782,7 +1782,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>119</v>
@@ -1796,7 +1796,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>120</v>
@@ -1866,7 +1866,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>119</v>
@@ -1894,13 +1894,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>159</v>
       </c>
       <c r="D59" s="4">
         <v>33</v>
@@ -1908,13 +1908,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D60" s="4">
         <v>33</v>
@@ -1922,13 +1922,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D61" s="4">
         <v>32</v>
@@ -1936,13 +1936,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>162</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>163</v>
       </c>
       <c r="D62" s="4">
         <v>33</v>
@@ -1950,13 +1950,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D63" s="4">
         <v>32</v>
@@ -1964,13 +1964,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D64" s="4">
         <v>31</v>
@@ -1992,13 +1992,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D66" s="4">
         <v>1181</v>
@@ -2132,7 +2132,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>121</v>
@@ -2230,7 +2230,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>119</v>
@@ -2244,7 +2244,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>119</v>
@@ -2258,7 +2258,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>119</v>
@@ -2272,7 +2272,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>119</v>
@@ -2328,7 +2328,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>121</v>
@@ -2342,7 +2342,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>121</v>
@@ -2356,7 +2356,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>121</v>
@@ -2468,7 +2468,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>119</v>
@@ -2496,7 +2496,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>120</v>
@@ -2538,7 +2538,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>119</v>

--- a/pages/BA_ssoservi_cservico_ssala.xlsx
+++ b/pages/BA_ssoservi_cservico_ssala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{403F4555-3C07-4579-9203-A57C4FABC7DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD321896-C09D-4BFF-BC8E-932DD7268D40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{66DD5035-C496-4A33-BA22-CD402935C2B8}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="194">
   <si>
     <t>Complemento</t>
   </si>
@@ -434,9 +434,6 @@
     <t>S110020</t>
   </si>
   <si>
-    <t>591</t>
-  </si>
-  <si>
     <t>S020036</t>
   </si>
   <si>
@@ -453,9 +450,6 @@
   </si>
   <si>
     <t>ENVELOPE A4 - OURO - OURO</t>
-  </si>
-  <si>
-    <t>12</t>
   </si>
   <si>
     <t>FILME PVC PLASTICO - 300 M</t>
@@ -734,7 +728,16 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -1069,7 +1072,7 @@
   <dimension ref="A1:D105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1096,7 +1099,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>120</v>
@@ -1110,7 +1113,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>119</v>
@@ -1152,13 +1155,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D6" s="4">
         <v>1208</v>
@@ -1264,7 +1267,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>119</v>
@@ -1278,13 +1281,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D15" s="4">
         <v>1184</v>
@@ -1334,7 +1337,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>120</v>
@@ -1343,12 +1346,12 @@
         <v>19</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>120</v>
@@ -1432,13 +1435,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D26" s="5">
         <v>874</v>
@@ -1474,7 +1477,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>119</v>
@@ -1483,12 +1486,12 @@
         <v>106</v>
       </c>
       <c r="D29" s="4">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>119</v>
@@ -1497,12 +1500,12 @@
         <v>106</v>
       </c>
       <c r="D30" s="4">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>119</v>
@@ -1511,12 +1514,12 @@
         <v>106</v>
       </c>
       <c r="D31" s="4">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>119</v>
@@ -1525,12 +1528,12 @@
         <v>106</v>
       </c>
       <c r="D32" s="4">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>119</v>
@@ -1544,7 +1547,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>119</v>
@@ -1552,13 +1555,13 @@
       <c r="C34" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>138</v>
+      <c r="D34" s="5">
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>119</v>
@@ -1572,7 +1575,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>119</v>
@@ -1586,7 +1589,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>119</v>
@@ -1656,7 +1659,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>119</v>
@@ -1670,13 +1673,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D43" s="4">
         <v>750</v>
@@ -1712,7 +1715,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>119</v>
@@ -1726,7 +1729,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>119</v>
@@ -1754,7 +1757,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>120</v>
@@ -1782,7 +1785,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>119</v>
@@ -1796,7 +1799,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>120</v>
@@ -1805,18 +1808,18 @@
         <v>98</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D53" s="4">
         <v>1164</v>
@@ -1852,7 +1855,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>119</v>
@@ -1866,7 +1869,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>119</v>
@@ -1894,13 +1897,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D59" s="4">
         <v>33</v>
@@ -1908,13 +1911,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D60" s="4">
         <v>33</v>
@@ -1922,13 +1925,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D61" s="4">
         <v>32</v>
@@ -1936,13 +1939,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D62" s="4">
         <v>33</v>
@@ -1950,13 +1953,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D63" s="4">
         <v>32</v>
@@ -1964,13 +1967,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D64" s="4">
         <v>31</v>
@@ -1992,13 +1995,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D66" s="4">
         <v>1181</v>
@@ -2006,13 +2009,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D67" s="4">
         <v>1172</v>
@@ -2020,13 +2023,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D68" s="4">
         <v>1173</v>
@@ -2034,13 +2037,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D69" s="4">
         <v>1174</v>
@@ -2070,13 +2073,13 @@
       <c r="C71" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D71" s="4" t="s">
-        <v>131</v>
+      <c r="D71" s="5">
+        <v>591</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>119</v>
@@ -2090,7 +2093,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>119</v>
@@ -2132,7 +2135,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>121</v>
@@ -2230,13 +2233,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D83" s="4">
         <v>1457</v>
@@ -2244,7 +2247,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>119</v>
@@ -2258,7 +2261,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>119</v>
@@ -2272,7 +2275,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>119</v>
@@ -2328,7 +2331,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>121</v>
@@ -2342,7 +2345,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>121</v>
@@ -2356,7 +2359,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>121</v>
@@ -2468,7 +2471,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>119</v>
@@ -2496,7 +2499,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>120</v>
@@ -2510,16 +2513,16 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>123</v>
       </c>
       <c r="C103" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D103" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="D103" s="4" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -2538,7 +2541,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>119</v>
@@ -2552,13 +2555,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="1" priority="60">
+    <cfRule type="expression" dxfId="2" priority="61">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D105">
+  <conditionalFormatting sqref="A2:D28 A33:D105">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29:D32">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A2))&gt;0</formula>
+      <formula>LEN(TRIM(A29))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/BA_ssoservi_cservico_ssala.xlsx
+++ b/pages/BA_ssoservi_cservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD321896-C09D-4BFF-BC8E-932DD7268D40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FDAB924-CE34-4525-BAA9-88DE74FDA3E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{66DD5035-C496-4A33-BA22-CD402935C2B8}"/>
   </bookViews>
@@ -416,9 +416,6 @@
     <t>MIL</t>
   </si>
   <si>
-    <t>SABAO EM BARRA - PACOTE C/5</t>
-  </si>
-  <si>
     <t>S010046</t>
   </si>
   <si>
@@ -621,6 +618,9 @@
   </si>
   <si>
     <t>AGULHA IM - CALIBRE 40X1,20MM</t>
+  </si>
+  <si>
+    <t>SABAO EM BARRA - 200G - 200G</t>
   </si>
 </sst>
 </file>
@@ -728,16 +728,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <border>
         <bottom style="thin">
@@ -1071,8 +1062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A369FB58-D533-46A6-B5FA-793763E80E34}">
   <dimension ref="A1:D105"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A89" sqref="A89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1099,7 +1090,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>120</v>
@@ -1113,7 +1104,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>119</v>
@@ -1155,13 +1146,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>164</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>165</v>
       </c>
       <c r="D6" s="4">
         <v>1208</v>
@@ -1267,7 +1258,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>119</v>
@@ -1281,13 +1272,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>173</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>174</v>
       </c>
       <c r="D15" s="4">
         <v>1184</v>
@@ -1337,7 +1328,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>120</v>
@@ -1346,12 +1337,12 @@
         <v>19</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>120</v>
@@ -1435,13 +1426,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D26" s="5">
         <v>874</v>
@@ -1477,7 +1468,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>119</v>
@@ -1491,7 +1482,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>119</v>
@@ -1505,7 +1496,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>119</v>
@@ -1519,7 +1510,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>119</v>
@@ -1533,7 +1524,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>119</v>
@@ -1547,7 +1538,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>119</v>
@@ -1561,7 +1552,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>119</v>
@@ -1575,7 +1566,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>119</v>
@@ -1589,7 +1580,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>119</v>
@@ -1659,7 +1650,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>119</v>
@@ -1673,13 +1664,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>137</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>138</v>
       </c>
       <c r="D43" s="4">
         <v>750</v>
@@ -1715,13 +1706,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D46" s="4">
         <v>272</v>
@@ -1729,7 +1720,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>119</v>
@@ -1757,7 +1748,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>120</v>
@@ -1785,7 +1776,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>119</v>
@@ -1799,7 +1790,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>120</v>
@@ -1808,18 +1799,18 @@
         <v>98</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>141</v>
       </c>
       <c r="D53" s="4">
         <v>1164</v>
@@ -1855,7 +1846,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>119</v>
@@ -1869,7 +1860,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>119</v>
@@ -1897,13 +1888,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>155</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>156</v>
       </c>
       <c r="D59" s="4">
         <v>33</v>
@@ -1911,13 +1902,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D60" s="4">
         <v>33</v>
@@ -1925,13 +1916,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D61" s="4">
         <v>32</v>
@@ -1939,13 +1930,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>159</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>160</v>
       </c>
       <c r="D62" s="4">
         <v>33</v>
@@ -1953,13 +1944,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D63" s="4">
         <v>32</v>
@@ -1967,13 +1958,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D64" s="4">
         <v>31</v>
@@ -1995,13 +1986,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D66" s="4">
         <v>1181</v>
@@ -2009,13 +2000,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>152</v>
       </c>
       <c r="D67" s="4">
         <v>1172</v>
@@ -2023,13 +2014,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D68" s="4">
         <v>1173</v>
@@ -2037,13 +2028,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D69" s="4">
         <v>1174</v>
@@ -2065,13 +2056,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>130</v>
       </c>
       <c r="D71" s="5">
         <v>591</v>
@@ -2079,7 +2070,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>119</v>
@@ -2093,7 +2084,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>119</v>
@@ -2135,7 +2126,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>121</v>
@@ -2233,13 +2224,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D83" s="4">
         <v>1457</v>
@@ -2247,7 +2238,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>119</v>
@@ -2261,7 +2252,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>119</v>
@@ -2275,7 +2266,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>119</v>
@@ -2289,16 +2280,16 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C87" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B87" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>126</v>
-      </c>
       <c r="D87" s="4">
-        <v>884</v>
+        <v>51</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -2331,7 +2322,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>121</v>
@@ -2345,7 +2336,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>121</v>
@@ -2359,7 +2350,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>121</v>
@@ -2471,7 +2462,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>119</v>
@@ -2499,7 +2490,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>120</v>
@@ -2513,16 +2504,16 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>123</v>
       </c>
       <c r="C103" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D103" s="4" t="s">
         <v>134</v>
-      </c>
-      <c r="D103" s="4" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -2541,7 +2532,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>119</v>
@@ -2555,18 +2546,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="61">
+    <cfRule type="expression" dxfId="1" priority="61">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D28 A33:D105">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D105">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A29:D32">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A29))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/BA_ssoservi_cservico_ssala.xlsx
+++ b/pages/BA_ssoservi_cservico_ssala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FDAB924-CE34-4525-BAA9-88DE74FDA3E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A0F0B9-8B6B-4FA8-A7C2-00C3E6D3EFD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{66DD5035-C496-4A33-BA22-CD402935C2B8}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$105</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$106</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="196">
   <si>
     <t>Complemento</t>
   </si>
@@ -621,6 +621,12 @@
   </si>
   <si>
     <t>SABAO EM BARRA - 200G - 200G</t>
+  </si>
+  <si>
+    <t>ISOPOR - 3L - 3L</t>
+  </si>
+  <si>
+    <t>S050011</t>
   </si>
 </sst>
 </file>
@@ -1060,11 +1066,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A369FB58-D533-46A6-B5FA-793763E80E34}">
-  <dimension ref="A1:D105"/>
+  <dimension ref="A1:D106"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A89" sqref="A89"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1524,77 +1528,77 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>177</v>
+        <v>135</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="D33" s="5">
-        <v>1436</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>135</v>
+        <v>178</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D34" s="5">
-        <v>12</v>
+        <v>30</v>
+      </c>
+      <c r="D34" s="4">
+        <v>1454</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>178</v>
+        <v>138</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D35" s="4">
-        <v>1454</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>138</v>
+        <v>179</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D36" s="4">
-        <v>1162</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>179</v>
+        <v>33</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D37" s="4">
-        <v>1455</v>
+        <v>34</v>
+      </c>
+      <c r="D37" s="5">
+        <v>899</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>119</v>
@@ -1603,12 +1607,12 @@
         <v>34</v>
       </c>
       <c r="D38" s="5">
-        <v>899</v>
+        <v>896</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>119</v>
@@ -1617,12 +1621,12 @@
         <v>34</v>
       </c>
       <c r="D39" s="5">
-        <v>896</v>
+        <v>900</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>119</v>
@@ -1631,54 +1635,54 @@
         <v>34</v>
       </c>
       <c r="D40" s="5">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>37</v>
+        <v>180</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>34</v>
+        <v>107</v>
       </c>
       <c r="D41" s="5">
-        <v>898</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>180</v>
+        <v>136</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D42" s="5">
-        <v>1456</v>
+        <v>137</v>
+      </c>
+      <c r="D42" s="4">
+        <v>750</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>136</v>
+        <v>38</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>137</v>
+        <v>39</v>
       </c>
       <c r="D43" s="4">
-        <v>750</v>
+        <v>166</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>119</v>
@@ -1687,91 +1691,91 @@
         <v>39</v>
       </c>
       <c r="D44" s="4">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>40</v>
+        <v>181</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>39</v>
+        <v>127</v>
       </c>
       <c r="D45" s="4">
-        <v>167</v>
+        <v>272</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>181</v>
+        <v>148</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>127</v>
+        <v>41</v>
       </c>
       <c r="D46" s="4">
-        <v>272</v>
+        <v>448</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>148</v>
+        <v>42</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D47" s="4">
-        <v>448</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>42</v>
+        <v>170</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D48" s="4">
-        <v>80</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>170</v>
+        <v>45</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D49" s="4">
-        <v>1396</v>
+        <v>835</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>45</v>
+        <v>194</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>46</v>
+        <v>195</v>
       </c>
       <c r="D50" s="4">
-        <v>835</v>
+        <v>116</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -2322,21 +2326,21 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>121</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D90" s="4">
-        <v>986</v>
+        <v>438</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>121</v>
@@ -2345,21 +2349,21 @@
         <v>81</v>
       </c>
       <c r="D91" s="4">
-        <v>438</v>
+        <v>704</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>121</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="D92" s="4">
-        <v>704</v>
+        <v>986</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -2406,21 +2410,21 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>86</v>
+        <v>177</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="D96" s="5">
-        <v>160</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>124</v>
@@ -2429,12 +2433,12 @@
         <v>87</v>
       </c>
       <c r="D97" s="5">
-        <v>569</v>
+        <v>160</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>124</v>
@@ -2443,91 +2447,91 @@
         <v>87</v>
       </c>
       <c r="D98" s="5">
-        <v>762</v>
+        <v>569</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D99" s="4">
-        <v>211</v>
+        <v>87</v>
+      </c>
+      <c r="D99" s="5">
+        <v>762</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>189</v>
+        <v>90</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="D100" s="4">
-        <v>202</v>
+        <v>211</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D101" s="4">
-        <v>2</v>
+        <v>202</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>190</v>
+        <v>110</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="D102" s="4">
-        <v>1417</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>132</v>
+        <v>190</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D103" s="4" t="s">
-        <v>134</v>
+        <v>100</v>
+      </c>
+      <c r="D103" s="4">
+        <v>1417</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D104" s="4">
-        <v>15</v>
+        <v>133</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -2544,13 +2548,32 @@
         <v>1458</v>
       </c>
     </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D106" s="4">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:D106" xr:uid="{A369FB58-D533-46A6-B5FA-793763E80E34}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D106">
+      <sortCondition ref="A1:A106"/>
+    </sortState>
+  </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="1" priority="61">
+    <cfRule type="expression" dxfId="1" priority="62">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D105">
+  <conditionalFormatting sqref="A2:D106">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>

--- a/pages/BA_ssoservi_cservico_ssala.xlsx
+++ b/pages/BA_ssoservi_cservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A0F0B9-8B6B-4FA8-A7C2-00C3E6D3EFD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5677CB-5625-4A3A-8DAF-FC24106195FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{66DD5035-C496-4A33-BA22-CD402935C2B8}"/>
   </bookViews>
@@ -1068,7 +1068,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A369FB58-D533-46A6-B5FA-793763E80E34}">
   <dimension ref="A1:D106"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
